--- a/results/07-2024/beta/contributions-07-2024.xlsx
+++ b/results/07-2024/beta/contributions-07-2024.xlsx
@@ -23996,37 +23996,37 @@
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>-25.4781758033178</v>
+        <v>-25.3603568154121</v>
       </c>
       <c r="E227" t="n">
-        <v>-5.40045984845628</v>
+        <v>-5.36733485897007</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.991436940977191</v>
+        <v>-0.985355729530818</v>
       </c>
       <c r="G227" t="n">
-        <v>-44.023556538468</v>
+        <v>-43.7535277097379</v>
       </c>
       <c r="H227" t="n">
-        <v>7.53026154459898</v>
+        <v>7.35477245169044</v>
       </c>
       <c r="I227" t="n">
-        <v>3.93030718251723</v>
+        <v>3.83866744040209</v>
       </c>
       <c r="J227" t="n">
-        <v>0.200332369438805</v>
+        <v>0.188315746194788</v>
       </c>
       <c r="K227" t="n">
-        <v>-1.99502961502113</v>
+        <v>-1.98546310693755</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0745309205516104</v>
+        <v>0.070196620832928</v>
       </c>
       <c r="M227" t="n">
-        <v>-6.4609852995825</v>
+        <v>-6.34005545484541</v>
       </c>
       <c r="N227" t="n">
-        <v>-0.650300848509651</v>
+        <v>-0.637902877025643</v>
       </c>
       <c r="O227" t="n">
         <v>0</v>
@@ -24038,52 +24038,52 @@
         <v>0</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.0613377664214341</v>
+        <v>-0.0600455905134425</v>
       </c>
       <c r="S227" t="n">
-        <v>-0.0729781222825829</v>
+        <v>-0.0701375247421801</v>
       </c>
       <c r="T227" t="n">
-        <v>-0.00222443886692838</v>
+        <v>-0.00220056841775939</v>
       </c>
       <c r="U227" t="n">
-        <v>-0.00976224471265726</v>
+        <v>-0.00962750058489777</v>
       </c>
       <c r="V227" t="n">
-        <v>-0.00641616754572917</v>
+        <v>-0.00631956643125569</v>
       </c>
       <c r="W227" t="n">
-        <v>-0.00725510789376517</v>
+        <v>-0.00710093806495313</v>
       </c>
       <c r="X227" t="n">
-        <v>-0.000259576511377582</v>
+        <v>-0.000253215029984393</v>
       </c>
       <c r="Y227" t="n">
-        <v>-5.12370911398731</v>
+        <v>-5.02684404812187</v>
       </c>
       <c r="Z227" t="n">
-        <v>-0.971519413105528</v>
+        <v>-0.953307033720652</v>
       </c>
       <c r="AA227" t="n">
-        <v>-31.8700725927512</v>
+        <v>-31.713047403913</v>
       </c>
       <c r="AB227" t="n">
-        <v>-37.6316597490345</v>
+        <v>-37.400837121237</v>
       </c>
       <c r="AC227" t="n">
-        <v>9.74040240208549</v>
+        <v>9.4664891521827</v>
       </c>
       <c r="AD227" t="n">
-        <v>-13.3667480994195</v>
+        <v>-13.113794317498</v>
       </c>
       <c r="AE227" t="n">
-        <v>-3.62634569733397</v>
+        <v>-3.64730516531535</v>
       </c>
       <c r="AF227" t="n">
-        <v>-73.1280780391197</v>
+        <v>-72.7611896904654</v>
       </c>
       <c r="AG227" t="n">
-        <v>-18.624948634225</v>
+        <v>-18.5332265470615</v>
       </c>
     </row>
     <row r="228">
@@ -24109,25 +24109,25 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>7.47914827160228</v>
+        <v>7.34102095684907</v>
       </c>
       <c r="I228" t="n">
-        <v>3.89799988312799</v>
+        <v>3.82586097335673</v>
       </c>
       <c r="J228" t="n">
-        <v>0.202965081576535</v>
+        <v>0.192008468477482</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0722943589185927</v>
+        <v>0.0683531961042187</v>
       </c>
       <c r="M228" t="n">
-        <v>-6.36084953430071</v>
+        <v>-6.27170976280022</v>
       </c>
       <c r="N228" t="n">
-        <v>-0.648367418331776</v>
+        <v>-0.639171165395635</v>
       </c>
       <c r="O228" t="n">
         <v>0</v>
@@ -24139,31 +24139,31 @@
         <v>0</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.0514785550967738</v>
+        <v>-0.0504894757300376</v>
       </c>
       <c r="S228" t="n">
-        <v>-0.0624248395369921</v>
+        <v>-0.0599565730315564</v>
       </c>
       <c r="T228" t="n">
-        <v>-0.00282161942035962</v>
+        <v>-0.00280853422538725</v>
       </c>
       <c r="U228" t="n">
-        <v>-0.00668771367451321</v>
+        <v>-0.00660057160309517</v>
       </c>
       <c r="V228" t="n">
-        <v>-0.00575133510412946</v>
+        <v>-0.00568609239530368</v>
       </c>
       <c r="W228" t="n">
-        <v>-0.00611556126755971</v>
+        <v>-0.00599725402969195</v>
       </c>
       <c r="X228" t="n">
-        <v>-0.00025475012858761</v>
+        <v>-0.000249679355496173</v>
       </c>
       <c r="Y228" t="n">
-        <v>-5.07326162060959</v>
+        <v>-5.00161548367288</v>
       </c>
       <c r="Z228" t="n">
-        <v>-0.956813049576864</v>
+        <v>-0.943381106587583</v>
       </c>
       <c r="AA228" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="AC228" t="n">
-        <v>11.6524075952254</v>
+        <v>11.4272435947875</v>
       </c>
       <c r="AD228" t="n">
-        <v>-13.1748259970478</v>
+        <v>-12.9876656988269</v>
       </c>
       <c r="AE228" t="n">
-        <v>-1.52241840182245</v>
+        <v>-1.56042210403939</v>
       </c>
       <c r="AF228" t="n">
-        <v>-1.52241840182245</v>
+        <v>-1.56042210403939</v>
       </c>
       <c r="AG228" t="n">
-        <v>-18.8999693112968</v>
+        <v>-18.8177481496875</v>
       </c>
     </row>
     <row r="229">
@@ -24210,25 +24210,25 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>3.69116839388554</v>
+        <v>3.58949869709541</v>
       </c>
       <c r="I229" t="n">
-        <v>1.93251089510046</v>
+        <v>1.87937445055225</v>
       </c>
       <c r="J229" t="n">
-        <v>0.204021192136023</v>
+        <v>0.194121453611744</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0781911247571371</v>
+        <v>0.0746267719807314</v>
       </c>
       <c r="M229" t="n">
-        <v>-6.21416477588445</v>
+        <v>-6.15576603601462</v>
       </c>
       <c r="N229" t="n">
-        <v>-0.64639407091655</v>
+        <v>-0.640332312065784</v>
       </c>
       <c r="O229" t="n">
         <v>0</v>
@@ -24240,31 +24240,31 @@
         <v>0</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.0476290650157223</v>
+        <v>-0.0468912806008519</v>
       </c>
       <c r="S229" t="n">
-        <v>-0.0574856453200442</v>
+        <v>-0.0553339920296613</v>
       </c>
       <c r="T229" t="n">
-        <v>-0.000296368724383302</v>
+        <v>-0.000296672217922851</v>
       </c>
       <c r="U229" t="n">
-        <v>-0.00304505368416158</v>
+        <v>-0.00299017072129983</v>
       </c>
       <c r="V229" t="n">
-        <v>-0.00318774760838464</v>
+        <v>-0.00315015642979454</v>
       </c>
       <c r="W229" t="n">
-        <v>-0.00569477124041224</v>
+        <v>-0.00560632495008648</v>
       </c>
       <c r="X229" t="n">
-        <v>-0.000249952018310104</v>
+        <v>-0.000246126469492257</v>
       </c>
       <c r="Y229" t="n">
-        <v>-5.03587516623575</v>
+        <v>-4.98875249625449</v>
       </c>
       <c r="Z229" t="n">
-        <v>-0.944090591852492</v>
+        <v>-0.935283001405661</v>
       </c>
       <c r="AA229" t="n">
         <v>0</v>
@@ -24273,19 +24273,19 @@
         <v>0</v>
       </c>
       <c r="AC229" t="n">
-        <v>5.90589160587917</v>
+        <v>5.73762137324014</v>
       </c>
       <c r="AD229" t="n">
-        <v>-12.9581132085007</v>
+        <v>-12.8346485691597</v>
       </c>
       <c r="AE229" t="n">
-        <v>-7.05222160262149</v>
+        <v>-7.09702719591952</v>
       </c>
       <c r="AF229" t="n">
-        <v>-7.05222160262149</v>
+        <v>-7.09702719591952</v>
       </c>
       <c r="AG229" t="n">
-        <v>-20.5303144467104</v>
+        <v>-20.4592946834256</v>
       </c>
     </row>
     <row r="230">
@@ -24311,25 +24311,25 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>3.67898526427803</v>
+        <v>3.59482671248795</v>
       </c>
       <c r="I230" t="n">
-        <v>1.91558481981979</v>
+        <v>1.87161614428843</v>
       </c>
       <c r="J230" t="n">
-        <v>0.210642988137611</v>
+        <v>0.201719884929916</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0782091184917739</v>
+        <v>0.0750185918376533</v>
       </c>
       <c r="M230" t="n">
-        <v>-6.2233653994001</v>
+        <v>-6.19421666045563</v>
       </c>
       <c r="N230" t="n">
-        <v>-0.644613922219932</v>
+        <v>-0.641594706452758</v>
       </c>
       <c r="O230" t="n">
         <v>0</v>
@@ -24341,31 +24341,31 @@
         <v>0</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.04388804081668</v>
+        <v>-0.0433750387633546</v>
       </c>
       <c r="S230" t="n">
-        <v>-0.0519625805553657</v>
+        <v>-0.0500848040394384</v>
       </c>
       <c r="T230" t="n">
-        <v>-0.000290772093670924</v>
+        <v>-0.000292464280444016</v>
       </c>
       <c r="U230" t="n">
-        <v>-0.00135627825793918</v>
+        <v>-0.00131578199585016</v>
       </c>
       <c r="V230" t="n">
-        <v>-0.00180042581795246</v>
+        <v>-0.00177785492761094</v>
       </c>
       <c r="W230" t="n">
-        <v>-0.00525729602798994</v>
+        <v>-0.00519572632675305</v>
       </c>
       <c r="X230" t="n">
-        <v>-0.00024529579453769</v>
+        <v>-0.000242649783946854</v>
       </c>
       <c r="Y230" t="n">
-        <v>-5.00010415140023</v>
+        <v>-4.97668487240074</v>
       </c>
       <c r="Z230" t="n">
-        <v>-0.931708895404838</v>
+        <v>-0.927344996192522</v>
       </c>
       <c r="AA230" t="n">
         <v>0</v>
@@ -24374,19 +24374,19 @@
         <v>0</v>
       </c>
       <c r="AC230" t="n">
-        <v>5.8834221907272</v>
+        <v>5.74318133354395</v>
       </c>
       <c r="AD230" t="n">
-        <v>-12.9045930577892</v>
+        <v>-12.8421255556191</v>
       </c>
       <c r="AE230" t="n">
-        <v>-7.02117086706204</v>
+        <v>-7.0989442220751</v>
       </c>
       <c r="AF230" t="n">
-        <v>-7.02117086706204</v>
+        <v>-7.0989442220751</v>
       </c>
       <c r="AG230" t="n">
-        <v>-22.1809722276564</v>
+        <v>-22.1293958031249</v>
       </c>
     </row>
     <row r="231">
@@ -24412,19 +24412,19 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>3.63497630906841</v>
+        <v>3.56797560038849</v>
       </c>
       <c r="I231" t="n">
-        <v>1.89870463611531</v>
+        <v>1.86366959291199</v>
       </c>
       <c r="J231" t="n">
-        <v>0.211458115264035</v>
+        <v>0.203512880998237</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0783185251358729</v>
+        <v>0.0754912038313918</v>
       </c>
       <c r="M231" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         <v>0</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.0261020994028258</v>
+        <v>-0.0257943200696954</v>
       </c>
       <c r="S231" t="n">
-        <v>-0.0442518267126678</v>
+        <v>-0.0426156321678845</v>
       </c>
       <c r="T231" t="n">
-        <v>-0.000285357584419229</v>
+        <v>-0.000288415037551126</v>
       </c>
       <c r="U231" t="n">
-        <v>-0.00102721741261374</v>
+        <v>-0.000993036064356082</v>
       </c>
       <c r="V231" t="n">
-        <v>-0.00152065689196695</v>
+        <v>-0.00150650320584166</v>
       </c>
       <c r="W231" t="n">
-        <v>-0.00312501588885578</v>
+        <v>-0.00308802944272969</v>
       </c>
       <c r="X231" t="n">
-        <v>-0.0000823369980046373</v>
+        <v>-0.0000808382464693936</v>
       </c>
       <c r="Y231" t="n">
         <v>0</v>
@@ -24475,19 +24475,19 @@
         <v>0</v>
       </c>
       <c r="AC231" t="n">
-        <v>5.82345758558363</v>
+        <v>5.71064927813011</v>
       </c>
       <c r="AD231" t="n">
-        <v>-0.0763945108913539</v>
+        <v>-0.0743667742345278</v>
       </c>
       <c r="AE231" t="n">
-        <v>5.74706307469227</v>
+        <v>5.63628250389558</v>
       </c>
       <c r="AF231" t="n">
-        <v>5.74706307469227</v>
+        <v>5.63628250389558</v>
       </c>
       <c r="AG231" t="n">
-        <v>-2.46218694920342</v>
+        <v>-2.53002775453461</v>
       </c>
     </row>
     <row r="232">
@@ -24513,19 +24513,19 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>3.59270603794707</v>
+        <v>3.54271794870323</v>
       </c>
       <c r="I232" t="n">
-        <v>1.88175430149973</v>
+        <v>1.85560567102224</v>
       </c>
       <c r="J232" t="n">
-        <v>0.212404202286098</v>
+        <v>0.205447474209381</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0780272491649796</v>
+        <v>0.0755660779655674</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
@@ -24543,25 +24543,25 @@
         <v>0</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.0144077486405538</v>
+        <v>-0.0142221840007382</v>
       </c>
       <c r="S232" t="n">
-        <v>-0.0438971540573117</v>
+        <v>-0.0424678318154382</v>
       </c>
       <c r="T232" t="n">
-        <v>-0.000280082191413928</v>
+        <v>-0.000284477599182361</v>
       </c>
       <c r="U232" t="n">
-        <v>-0.00101258848718434</v>
+        <v>-0.000983210364684009</v>
       </c>
       <c r="V232" t="n">
-        <v>-0.0012582682069139</v>
+        <v>-0.00125123560161194</v>
       </c>
       <c r="W232" t="n">
-        <v>-0.00172780972816472</v>
+        <v>-0.00170545512477903</v>
       </c>
       <c r="X232" t="n">
-        <v>-0.0000808377625138823</v>
+        <v>-0.0000797243746749887</v>
       </c>
       <c r="Y232" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>0</v>
       </c>
       <c r="AC232" t="n">
-        <v>5.76489179089788</v>
+        <v>5.67933717190042</v>
       </c>
       <c r="AD232" t="n">
-        <v>-0.0626644890740563</v>
+        <v>-0.0609941188811087</v>
       </c>
       <c r="AE232" t="n">
-        <v>5.70222730182382</v>
+        <v>5.61834305301932</v>
       </c>
       <c r="AF232" t="n">
-        <v>5.70222730182382</v>
+        <v>5.61834305301932</v>
       </c>
       <c r="AG232" t="n">
-        <v>-0.656025523291855</v>
+        <v>-0.735336465269932</v>
       </c>
     </row>
     <row r="233">
@@ -24614,19 +24614,19 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>3.55127046865678</v>
+        <v>3.51798426581115</v>
       </c>
       <c r="I233" t="n">
-        <v>1.86477390521435</v>
+        <v>1.84737334931225</v>
       </c>
       <c r="J233" t="n">
-        <v>0.212540978085828</v>
+        <v>0.206557993611421</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0771733197159231</v>
+        <v>0.0750701787467338</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -24644,25 +24644,25 @@
         <v>0</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.0141455741364896</v>
+        <v>-0.0140270396725678</v>
       </c>
       <c r="S233" t="n">
-        <v>-0.0447903056036093</v>
+        <v>-0.0435622537872699</v>
       </c>
       <c r="T233" t="n">
-        <v>0.000201101794547248</v>
+        <v>0.000195375965316679</v>
       </c>
       <c r="U233" t="n">
-        <v>-0.00100762032322826</v>
+        <v>-0.000982897253508742</v>
       </c>
       <c r="V233" t="n">
-        <v>-0.000244548204408272</v>
+        <v>-0.000243400907868585</v>
       </c>
       <c r="W233" t="n">
-        <v>-0.00170849615728338</v>
+        <v>-0.00169417961741289</v>
       </c>
       <c r="X233" t="n">
-        <v>-0.0000793678239583342</v>
+        <v>-0.0000786302761828208</v>
       </c>
       <c r="Y233" t="n">
         <v>0</v>
@@ -24677,19 +24677,19 @@
         <v>0</v>
       </c>
       <c r="AC233" t="n">
-        <v>5.70575867167288</v>
+        <v>5.64698578748156</v>
       </c>
       <c r="AD233" t="n">
-        <v>-0.0617748104544299</v>
+        <v>-0.0603930255494941</v>
       </c>
       <c r="AE233" t="n">
-        <v>5.64398386121845</v>
+        <v>5.58659276193206</v>
       </c>
       <c r="AF233" t="n">
-        <v>5.64398386121845</v>
+        <v>5.58659276193206</v>
       </c>
       <c r="AG233" t="n">
-        <v>2.51802584266813</v>
+        <v>2.43556852419296</v>
       </c>
     </row>
     <row r="234">
@@ -24715,19 +24715,19 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3.54722251898612</v>
+        <v>3.53049854837285</v>
       </c>
       <c r="I234" t="n">
-        <v>1.84599635786205</v>
+        <v>1.83729310096856</v>
       </c>
       <c r="J234" t="n">
-        <v>0.212698222991494</v>
+        <v>0.207682823870142</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0764437491025072</v>
+        <v>0.0746923475182203</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
@@ -24745,25 +24745,25 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.0111311756526391</v>
+        <v>-0.0110786958734571</v>
       </c>
       <c r="S234" t="n">
-        <v>-0.0435795230456598</v>
+        <v>-0.0425555718373158</v>
       </c>
       <c r="T234" t="n">
-        <v>0.000197481144560533</v>
+        <v>0.000192670439824647</v>
       </c>
       <c r="U234" t="n">
-        <v>-0.00101257451916756</v>
+        <v>-0.000992460186024399</v>
       </c>
       <c r="V234" t="n">
         <v>0</v>
       </c>
       <c r="W234" t="n">
-        <v>-0.00134441844813657</v>
+        <v>-0.00133807996373131</v>
       </c>
       <c r="X234" t="n">
-        <v>-0.0000779182295684739</v>
+        <v>-0.0000775508711141996</v>
       </c>
       <c r="Y234" t="n">
         <v>0</v>
@@ -24778,19 +24778,19 @@
         <v>0</v>
       </c>
       <c r="AC234" t="n">
-        <v>5.68236084894217</v>
+        <v>5.65016682072977</v>
       </c>
       <c r="AD234" t="n">
-        <v>-0.056948128750611</v>
+        <v>-0.0558496882918182</v>
       </c>
       <c r="AE234" t="n">
-        <v>5.62541272019156</v>
+        <v>5.59431713243795</v>
       </c>
       <c r="AF234" t="n">
-        <v>5.62541272019156</v>
+        <v>5.59431713243795</v>
       </c>
       <c r="AG234" t="n">
-        <v>5.67967173948153</v>
+        <v>5.60888386282123</v>
       </c>
     </row>
     <row r="235">
@@ -24822,13 +24822,13 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>0.212942315570546</v>
+        <v>0.208901120628369</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0757348270278107</v>
+        <v>0.0743339188759051</v>
       </c>
       <c r="M235" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>-0.0328921109306041</v>
+        <v>-0.0320677894322871</v>
       </c>
       <c r="T235" t="n">
-        <v>0.000193971364641815</v>
+        <v>0.000190064068152045</v>
       </c>
       <c r="U235" t="n">
-        <v>-0.000597858145735165</v>
+        <v>-0.000582408435796675</v>
       </c>
       <c r="V235" t="n">
         <v>0</v>
@@ -24879,19 +24879,19 @@
         <v>0</v>
       </c>
       <c r="AC235" t="n">
-        <v>0.288677142598356</v>
+        <v>0.283235039504274</v>
       </c>
       <c r="AD235" t="n">
-        <v>-0.0332959977116974</v>
+        <v>-0.0324601337999317</v>
       </c>
       <c r="AE235" t="n">
-        <v>0.255381144886659</v>
+        <v>0.250774905704343</v>
       </c>
       <c r="AF235" t="n">
-        <v>0.255381144886659</v>
+        <v>0.250774905704343</v>
       </c>
       <c r="AG235" t="n">
-        <v>4.30675125703013</v>
+        <v>4.26250696327342</v>
       </c>
     </row>
     <row r="236">
@@ -24923,13 +24923,13 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>0.213133883917379</v>
+        <v>0.210090249656128</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0747650089411367</v>
+        <v>0.0737190428986672</v>
       </c>
       <c r="M236" t="n">
         <v>0</v>
@@ -24950,13 +24950,13 @@
         <v>0</v>
       </c>
       <c r="S236" t="n">
-        <v>-0.0325131794793199</v>
+        <v>-0.0318421166831904</v>
       </c>
       <c r="T236" t="n">
-        <v>0.000190439834478947</v>
+        <v>0.00018744028906882</v>
       </c>
       <c r="U236" t="n">
-        <v>-0.000596128215914088</v>
+        <v>-0.000583462254165791</v>
       </c>
       <c r="V236" t="n">
         <v>0</v>
@@ -24980,19 +24980,19 @@
         <v>0</v>
       </c>
       <c r="AC236" t="n">
-        <v>0.287898892858515</v>
+        <v>0.283809292554795</v>
       </c>
       <c r="AD236" t="n">
-        <v>-0.0329188678607551</v>
+        <v>-0.0322381386482874</v>
       </c>
       <c r="AE236" t="n">
-        <v>0.25498002499776</v>
+        <v>0.251571153906508</v>
       </c>
       <c r="AF236" t="n">
-        <v>0.25498002499776</v>
+        <v>0.251571153906508</v>
       </c>
       <c r="AG236" t="n">
-        <v>2.94493943782361</v>
+        <v>2.92081398849522</v>
       </c>
     </row>
     <row r="237">
@@ -25024,13 +25024,13 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>0.21332052110136</v>
+        <v>0.211284270734589</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0734208633555086</v>
+        <v>0.0727283511369669</v>
       </c>
       <c r="M237" t="n">
         <v>0</v>
@@ -25051,13 +25051,13 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>-0.0338254618496985</v>
+        <v>-0.0333073621121984</v>
       </c>
       <c r="T237" t="n">
-        <v>0.000440132631366132</v>
+        <v>0.000438032242245689</v>
       </c>
       <c r="U237" t="n">
-        <v>-0.000596662815721709</v>
+        <v>-0.000586800181445484</v>
       </c>
       <c r="V237" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="AC237" t="n">
-        <v>0.286741384456868</v>
+        <v>0.284012621871556</v>
       </c>
       <c r="AD237" t="n">
-        <v>-0.0339819920340541</v>
+        <v>-0.0334561300513982</v>
       </c>
       <c r="AE237" t="n">
-        <v>0.252759392422814</v>
+        <v>0.250556491820158</v>
       </c>
       <c r="AF237" t="n">
-        <v>0.252759392422814</v>
+        <v>0.250556491820158</v>
       </c>
       <c r="AG237" t="n">
-        <v>1.5971333206247</v>
+        <v>1.58680492096724</v>
       </c>
     </row>
     <row r="238">
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>0.21350434096293</v>
+        <v>0.21248178173747</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0717382658642193</v>
+        <v>0.0713946820979732</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
@@ -25152,13 +25152,13 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>-0.0329535507630979</v>
+        <v>-0.0325953617878963</v>
       </c>
       <c r="T238" t="n">
         <v>0</v>
       </c>
       <c r="U238" t="n">
-        <v>-0.000498229107606513</v>
+        <v>-0.000491184148601089</v>
       </c>
       <c r="V238" t="n">
         <v>0</v>
@@ -25182,19 +25182,19 @@
         <v>0</v>
       </c>
       <c r="AC238" t="n">
-        <v>0.285242606827149</v>
+        <v>0.283876463835443</v>
       </c>
       <c r="AD238" t="n">
-        <v>-0.0334517798707044</v>
+        <v>-0.0330865459364974</v>
       </c>
       <c r="AE238" t="n">
-        <v>0.251790826956445</v>
+        <v>0.250789917898946</v>
       </c>
       <c r="AF238" t="n">
-        <v>0.251790826956445</v>
+        <v>0.250789917898946</v>
       </c>
       <c r="AG238" t="n">
-        <v>0.253727847315923</v>
+        <v>0.25092311733249</v>
       </c>
     </row>
     <row r="239">
@@ -25253,13 +25253,13 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>-0.0104390726378308</v>
+        <v>-0.0102384425769539</v>
       </c>
       <c r="T239" t="n">
         <v>0</v>
       </c>
       <c r="U239" t="n">
-        <v>-0.000393528371012856</v>
+        <v>-0.00038886337800323</v>
       </c>
       <c r="V239" t="n">
         <v>0</v>
@@ -25286,16 +25286,16 @@
         <v>0</v>
       </c>
       <c r="AD239" t="n">
-        <v>-0.0108326010088437</v>
+        <v>-0.0106273059549571</v>
       </c>
       <c r="AE239" t="n">
-        <v>-0.0108326010088437</v>
+        <v>-0.0106273059549571</v>
       </c>
       <c r="AF239" t="n">
-        <v>-0.0108326010088437</v>
+        <v>-0.0106273059549571</v>
       </c>
       <c r="AG239" t="n">
-        <v>0.187174410842048</v>
+        <v>0.185572564417665</v>
       </c>
     </row>
     <row r="240">
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>-0.010348254093353</v>
+        <v>-0.0101974863743186</v>
       </c>
       <c r="T240" t="n">
         <v>0</v>
       </c>
       <c r="U240" t="n">
-        <v>-0.00029159818734561</v>
+        <v>-0.000288816249438213</v>
       </c>
       <c r="V240" t="n">
         <v>0</v>
@@ -25387,16 +25387,16 @@
         <v>0</v>
       </c>
       <c r="AD240" t="n">
-        <v>-0.0106398522806986</v>
+        <v>-0.0104863026237568</v>
       </c>
       <c r="AE240" t="n">
-        <v>-0.0106398522806986</v>
+        <v>-0.0104863026237568</v>
       </c>
       <c r="AF240" t="n">
-        <v>-0.0106398522806986</v>
+        <v>-0.0104863026237568</v>
       </c>
       <c r="AG240" t="n">
-        <v>0.120769441522433</v>
+        <v>0.120058200285099</v>
       </c>
     </row>
     <row r="241">
@@ -25455,13 +25455,13 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>-0.0107062066615528</v>
+        <v>-0.0106048896560545</v>
       </c>
       <c r="T241" t="n">
         <v>0</v>
       </c>
       <c r="U241" t="n">
-        <v>-0.000192450503772596</v>
+        <v>-0.000191064728518691</v>
       </c>
       <c r="V241" t="n">
         <v>0</v>
@@ -25488,16 +25488,16 @@
         <v>0</v>
       </c>
       <c r="AD241" t="n">
-        <v>-0.0108986571653254</v>
+        <v>-0.0107959543845732</v>
       </c>
       <c r="AE241" t="n">
-        <v>-0.0108986571653254</v>
+        <v>-0.0107959543845732</v>
       </c>
       <c r="AF241" t="n">
-        <v>-0.0108986571653254</v>
+        <v>-0.0107959543845732</v>
       </c>
       <c r="AG241" t="n">
-        <v>0.0548549291253979</v>
+        <v>0.0547200887339165</v>
       </c>
     </row>
     <row r="242">
@@ -25556,13 +25556,13 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>-0.0103867386457179</v>
+        <v>-0.0103368301256772</v>
       </c>
       <c r="T242" t="n">
         <v>0</v>
       </c>
       <c r="U242" t="n">
-        <v>-0.0000960384429382324</v>
+        <v>-0.0000955769759929711</v>
       </c>
       <c r="V242" t="n">
         <v>0</v>
@@ -25589,16 +25589,16 @@
         <v>0</v>
       </c>
       <c r="AD242" t="n">
-        <v>-0.0104827770886562</v>
+        <v>-0.0104324071016701</v>
       </c>
       <c r="AE242" t="n">
-        <v>-0.0104827770886562</v>
+        <v>-0.0104324071016701</v>
       </c>
       <c r="AF242" t="n">
-        <v>-0.0104827770886562</v>
+        <v>-0.0104324071016701</v>
       </c>
       <c r="AG242" t="n">
-        <v>-0.0107134718858773</v>
+        <v>-0.0105854925162375</v>
       </c>
     </row>
     <row r="243">
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="AG243" t="n">
-        <v>-0.00800532163366641</v>
+        <v>-0.00792866602749823</v>
       </c>
     </row>
     <row r="244">
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="AG244" t="n">
-        <v>-0.00534535856349176</v>
+        <v>-0.00530709037155903</v>
       </c>
     </row>
     <row r="245">
@@ -25901,7 +25901,7 @@
         <v>0</v>
       </c>
       <c r="AG245" t="n">
-        <v>-0.0026206942721604</v>
+        <v>-0.00260810177541573</v>
       </c>
     </row>
     <row r="246">
@@ -26002,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="AG246" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="247">
@@ -26103,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="AG247" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="248">
@@ -26204,7 +26204,7 @@
         <v>0</v>
       </c>
       <c r="AG248" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="249">
@@ -26305,7 +26305,7 @@
         <v>0</v>
       </c>
       <c r="AG249" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="250">
@@ -26406,7 +26406,7 @@
         <v>0</v>
       </c>
       <c r="AG250" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="251">
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
       <c r="AG251" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="252">
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="AG252" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="253">
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="AG253" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="254">
@@ -26810,7 +26810,7 @@
         <v>0</v>
       </c>
       <c r="AG254" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="255">
@@ -26911,7 +26911,7 @@
         <v>0</v>
       </c>
       <c r="AG255" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="256">
@@ -27012,7 +27012,7 @@
         <v>0</v>
       </c>
       <c r="AG256" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="257">
@@ -27113,7 +27113,7 @@
         <v>0</v>
       </c>
       <c r="AG257" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="258">
@@ -27214,7 +27214,7 @@
         <v>0</v>
       </c>
       <c r="AG258" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="259">
@@ -27315,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="AG259" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
     <row r="260">
@@ -27416,7 +27416,7 @@
         <v>0</v>
       </c>
       <c r="AG260" t="n">
-        <v>0.00000000000000364422034215828</v>
+        <v>0.00000000000000180151032980191</v>
       </c>
     </row>
   </sheetData>

--- a/results/07-2024/beta/contributions-07-2024.xlsx
+++ b/results/07-2024/beta/contributions-07-2024.xlsx
@@ -23251,7 +23251,7 @@
         <v>-0.00257510812555391</v>
       </c>
       <c r="Y219" t="n">
-        <v>-0.120931885598694</v>
+        <v>-3.24271824541152</v>
       </c>
       <c r="Z219" t="n">
         <v>0.0915937580995</v>
@@ -23266,16 +23266,16 @@
         <v>0.203639383205674</v>
       </c>
       <c r="AD219" t="n">
-        <v>-0.518073574342654</v>
+        <v>-3.63985993415548</v>
       </c>
       <c r="AE219" t="n">
-        <v>-0.31443419113698</v>
+        <v>-3.4362205509498</v>
       </c>
       <c r="AF219" t="n">
-        <v>-0.792147721191593</v>
+        <v>-3.91393408100442</v>
       </c>
       <c r="AG219" t="n">
-        <v>-0.0793489214949135</v>
+        <v>-0.859795511448119</v>
       </c>
     </row>
     <row r="220">
@@ -23352,7 +23352,7 @@
         <v>-0.000460358230979371</v>
       </c>
       <c r="Y220" t="n">
-        <v>0.088397837426483</v>
+        <v>-3.00857089304738</v>
       </c>
       <c r="Z220" t="n">
         <v>0.0402455803781892</v>
@@ -23367,16 +23367,16 @@
         <v>0.273124597025881</v>
       </c>
       <c r="AD220" t="n">
-        <v>-0.283301574583727</v>
+        <v>-3.38027030505759</v>
       </c>
       <c r="AE220" t="n">
-        <v>-0.0101769775578465</v>
+        <v>-3.10714570803171</v>
       </c>
       <c r="AF220" t="n">
-        <v>-0.416907272604143</v>
+        <v>-3.51387600307801</v>
       </c>
       <c r="AG220" t="n">
-        <v>-0.288164791241573</v>
+        <v>-1.84285356381324</v>
       </c>
     </row>
     <row r="221">
@@ -23408,7 +23408,7 @@
         <v>0.0639536473026019</v>
       </c>
       <c r="J221" t="n">
-        <v>-0.0609488861054173</v>
+        <v>-0.0609488861054172</v>
       </c>
       <c r="K221" t="n">
         <v>0.0314974458604034</v>
@@ -23420,7 +23420,7 @@
         <v>0.0953813358267898</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0665666792477965</v>
+        <v>0.0665666792477964</v>
       </c>
       <c r="O221" t="n">
         <v>0</v>
@@ -23438,7 +23438,7 @@
         <v>-0.101088950824126</v>
       </c>
       <c r="T221" t="n">
-        <v>-0.0280405483059011</v>
+        <v>-0.028040548305901</v>
       </c>
       <c r="U221" t="n">
         <v>-0.0214805665186662</v>
@@ -23453,7 +23453,7 @@
         <v>-0.000427312939056426</v>
       </c>
       <c r="Y221" t="n">
-        <v>0.0428884779630856</v>
+        <v>-3.02947656186133</v>
       </c>
       <c r="Z221" t="n">
         <v>0.163361542193921</v>
@@ -23468,16 +23468,16 @@
         <v>0.233504338998095</v>
       </c>
       <c r="AD221" t="n">
-        <v>0.0628664281438527</v>
+        <v>-3.00949861168056</v>
       </c>
       <c r="AE221" t="n">
-        <v>0.296370767141948</v>
+        <v>-2.77599427268247</v>
       </c>
       <c r="AF221" t="n">
-        <v>0.168918177547001</v>
+        <v>-2.90344686227742</v>
       </c>
       <c r="AG221" t="n">
-        <v>-0.284301312961626</v>
+        <v>-2.6070813454894</v>
       </c>
     </row>
     <row r="222">
@@ -23554,7 +23554,7 @@
         <v>-0.000633207294966489</v>
       </c>
       <c r="Y222" t="n">
-        <v>0.0463959848314359</v>
+        <v>-2.9995609315951</v>
       </c>
       <c r="Z222" t="n">
         <v>0.00166196924893043</v>
@@ -23569,16 +23569,16 @@
         <v>-0.060565971679117</v>
       </c>
       <c r="AD222" t="n">
-        <v>-0.190109689906182</v>
+        <v>-3.23606660633272</v>
       </c>
       <c r="AE222" t="n">
-        <v>-0.250675661585299</v>
+        <v>-3.29663257801184</v>
       </c>
       <c r="AF222" t="n">
-        <v>-0.369115608889997</v>
+        <v>-3.41507252531653</v>
       </c>
       <c r="AG222" t="n">
-        <v>-0.352313106284686</v>
+        <v>-3.4365823679191</v>
       </c>
     </row>
     <row r="223">
@@ -23655,7 +23655,7 @@
         <v>-0.00132113680474515</v>
       </c>
       <c r="Y223" t="n">
-        <v>-0.0149421958634524</v>
+        <v>-0.0491246038173944</v>
       </c>
       <c r="Z223" t="n">
         <v>-0.0242858019237184</v>
@@ -23670,16 +23670,16 @@
         <v>-0.139258186554956</v>
       </c>
       <c r="AD223" t="n">
-        <v>-0.359859513326051</v>
+        <v>-0.394041921279993</v>
       </c>
       <c r="AE223" t="n">
-        <v>-0.499117699881007</v>
+        <v>-0.533300107834949</v>
       </c>
       <c r="AF223" t="n">
-        <v>-0.604018090056283</v>
+        <v>-0.638200498010225</v>
       </c>
       <c r="AG223" t="n">
-        <v>-0.305280698500859</v>
+        <v>-2.61764897217055</v>
       </c>
     </row>
     <row r="224">
@@ -23729,7 +23729,7 @@
         <v>0</v>
       </c>
       <c r="P224" t="n">
-        <v>-0.000981412659284884</v>
+        <v>-0.000981412659284883</v>
       </c>
       <c r="Q224" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>-0.0134766162106087</v>
       </c>
       <c r="V224" t="n">
-        <v>-0.00833393661051035</v>
+        <v>-0.00833393661051034</v>
       </c>
       <c r="W224" t="n">
         <v>0.000199372282329125</v>
@@ -23756,7 +23756,7 @@
         <v>-0.000340721025477894</v>
       </c>
       <c r="Y224" t="n">
-        <v>-0.0259224157996425</v>
+        <v>-0.0527523123288485</v>
       </c>
       <c r="Z224" t="n">
         <v>-0.0260792374631428</v>
@@ -23771,16 +23771,16 @@
         <v>-0.082606882215624</v>
       </c>
       <c r="AD224" t="n">
-        <v>-0.226238838922083</v>
+        <v>-0.253068735451289</v>
       </c>
       <c r="AE224" t="n">
-        <v>-0.308845721137707</v>
+        <v>-0.335675617666913</v>
       </c>
       <c r="AF224" t="n">
-        <v>-0.422335693535425</v>
+        <v>-0.449165590064631</v>
       </c>
       <c r="AG224" t="n">
-        <v>-0.306637803733679</v>
+        <v>-1.8514713689172</v>
       </c>
     </row>
     <row r="225">
@@ -23836,7 +23836,7 @@
         <v>0</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.002946489937161</v>
+        <v>-0.00294648993716099</v>
       </c>
       <c r="S225" t="n">
         <v>-0.0302453020434886</v>
@@ -23857,7 +23857,7 @@
         <v>-0.000333770556234235</v>
       </c>
       <c r="Y225" t="n">
-        <v>-0.00919212637130683</v>
+        <v>-0.0473109382502551</v>
       </c>
       <c r="Z225" t="n">
         <v>-0.0233891774362589</v>
@@ -23869,19 +23869,19 @@
         <v>-0.0517915188428103</v>
       </c>
       <c r="AC225" t="n">
-        <v>-0.0876249557515836</v>
+        <v>-0.0876249557515835</v>
       </c>
       <c r="AD225" t="n">
-        <v>-0.197470921923654</v>
+        <v>-0.235589733802603</v>
       </c>
       <c r="AE225" t="n">
-        <v>-0.285095877675238</v>
+        <v>-0.323214689554186</v>
       </c>
       <c r="AF225" t="n">
-        <v>-0.530841060967046</v>
+        <v>-0.568959872845994</v>
       </c>
       <c r="AG225" t="n">
-        <v>-0.481577613362191</v>
+        <v>-1.26784962155935</v>
       </c>
     </row>
     <row r="226">
@@ -23958,7 +23958,7 @@
         <v>-0.000327241566119516</v>
       </c>
       <c r="Y226" t="n">
-        <v>0.00699042861733471</v>
+        <v>-0.0421640022999755</v>
       </c>
       <c r="Z226" t="n">
         <v>-0.0208446792156265</v>
@@ -23973,16 +23973,16 @@
         <v>-0.0515940386867133</v>
       </c>
       <c r="AD226" t="n">
-        <v>-0.150819031648804</v>
+        <v>-0.199973462566114</v>
       </c>
       <c r="AE226" t="n">
-        <v>-0.202413070335517</v>
+        <v>-0.251567501252828</v>
       </c>
       <c r="AF226" t="n">
-        <v>-0.418539743277965</v>
+        <v>-0.467694174195275</v>
       </c>
       <c r="AG226" t="n">
-        <v>-0.493933646959183</v>
+        <v>-0.531005033779035</v>
       </c>
     </row>
     <row r="227">
@@ -23996,37 +23996,37 @@
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>-25.3603568154121</v>
+        <v>-25.4781758033177</v>
       </c>
       <c r="E227" t="n">
-        <v>-5.36733485897007</v>
+        <v>-5.40045984845628</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.985355729530818</v>
+        <v>-0.991436940977191</v>
       </c>
       <c r="G227" t="n">
-        <v>-43.7535277097379</v>
+        <v>-44.023556538468</v>
       </c>
       <c r="H227" t="n">
-        <v>7.35477245169044</v>
+        <v>7.53026154459898</v>
       </c>
       <c r="I227" t="n">
-        <v>3.83866744040209</v>
+        <v>3.93030718251723</v>
       </c>
       <c r="J227" t="n">
-        <v>0.188315746194788</v>
+        <v>0.200332369438805</v>
       </c>
       <c r="K227" t="n">
-        <v>-1.98546310693755</v>
+        <v>-1.99502961502113</v>
       </c>
       <c r="L227" t="n">
-        <v>0.070196620832928</v>
+        <v>0.0745309205516103</v>
       </c>
       <c r="M227" t="n">
-        <v>-6.34005545484541</v>
+        <v>-6.4609852995825</v>
       </c>
       <c r="N227" t="n">
-        <v>-0.637902877025643</v>
+        <v>-0.650300848509651</v>
       </c>
       <c r="O227" t="n">
         <v>0</v>
@@ -24038,52 +24038,52 @@
         <v>0</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.0600455905134425</v>
+        <v>-0.0613377664214341</v>
       </c>
       <c r="S227" t="n">
-        <v>-0.0701375247421801</v>
+        <v>-0.0729781222825829</v>
       </c>
       <c r="T227" t="n">
-        <v>-0.00220056841775939</v>
+        <v>-0.00222443886692838</v>
       </c>
       <c r="U227" t="n">
-        <v>-0.00962750058489777</v>
+        <v>-0.00976224471265726</v>
       </c>
       <c r="V227" t="n">
-        <v>-0.00631956643125569</v>
+        <v>-0.00641616754572917</v>
       </c>
       <c r="W227" t="n">
-        <v>-0.00710093806495313</v>
+        <v>-0.00725510789376517</v>
       </c>
       <c r="X227" t="n">
-        <v>-0.000253215029984393</v>
+        <v>-0.000259576511377582</v>
       </c>
       <c r="Y227" t="n">
-        <v>-5.02684404812187</v>
+        <v>-1.96516081369773</v>
       </c>
       <c r="Z227" t="n">
-        <v>-0.953307033720652</v>
+        <v>-0.971519413105528</v>
       </c>
       <c r="AA227" t="n">
-        <v>-31.713047403913</v>
+        <v>-31.8700725927512</v>
       </c>
       <c r="AB227" t="n">
-        <v>-37.400837121237</v>
+        <v>-37.6316597490345</v>
       </c>
       <c r="AC227" t="n">
-        <v>9.4664891521827</v>
+        <v>9.74040240208549</v>
       </c>
       <c r="AD227" t="n">
-        <v>-13.113794317498</v>
+        <v>-10.2081997991299</v>
       </c>
       <c r="AE227" t="n">
-        <v>-3.64730516531535</v>
+        <v>-0.467797397044389</v>
       </c>
       <c r="AF227" t="n">
-        <v>-72.7611896904654</v>
+        <v>-69.9695297388301</v>
       </c>
       <c r="AG227" t="n">
-        <v>-18.5332265470615</v>
+        <v>-17.863837343984</v>
       </c>
     </row>
     <row r="228">
@@ -24109,25 +24109,25 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>7.34102095684907</v>
+        <v>7.47914827160228</v>
       </c>
       <c r="I228" t="n">
-        <v>3.82586097335673</v>
+        <v>3.89799988312799</v>
       </c>
       <c r="J228" t="n">
-        <v>0.192008468477482</v>
+        <v>0.202965081576535</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0683531961042187</v>
+        <v>0.0722943589185927</v>
       </c>
       <c r="M228" t="n">
-        <v>-6.27170976280022</v>
+        <v>-6.36084953430071</v>
       </c>
       <c r="N228" t="n">
-        <v>-0.639171165395635</v>
+        <v>-0.648367418331776</v>
       </c>
       <c r="O228" t="n">
         <v>0</v>
@@ -24139,31 +24139,31 @@
         <v>0</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.0504894757300376</v>
+        <v>-0.0514785550967738</v>
       </c>
       <c r="S228" t="n">
-        <v>-0.0599565730315564</v>
+        <v>-0.0624248395369921</v>
       </c>
       <c r="T228" t="n">
-        <v>-0.00280853422538725</v>
+        <v>-0.00282161942035962</v>
       </c>
       <c r="U228" t="n">
-        <v>-0.00660057160309517</v>
+        <v>-0.00668771367451321</v>
       </c>
       <c r="V228" t="n">
-        <v>-0.00568609239530368</v>
+        <v>-0.00575133510412946</v>
       </c>
       <c r="W228" t="n">
-        <v>-0.00599725402969195</v>
+        <v>-0.0061155612675597</v>
       </c>
       <c r="X228" t="n">
-        <v>-0.000249679355496173</v>
+        <v>-0.00025475012858761</v>
       </c>
       <c r="Y228" t="n">
-        <v>-5.00161548367288</v>
+        <v>-1.93541321531867</v>
       </c>
       <c r="Z228" t="n">
-        <v>-0.943381106587583</v>
+        <v>-0.956813049576864</v>
       </c>
       <c r="AA228" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="AC228" t="n">
-        <v>11.4272435947875</v>
+        <v>11.6524075952254</v>
       </c>
       <c r="AD228" t="n">
-        <v>-12.9876656988269</v>
+        <v>-10.0369775917569</v>
       </c>
       <c r="AE228" t="n">
-        <v>-1.56042210403939</v>
+        <v>1.61543000346846</v>
       </c>
       <c r="AF228" t="n">
-        <v>-1.56042210403939</v>
+        <v>1.61543000346846</v>
       </c>
       <c r="AG228" t="n">
-        <v>-18.8177481496875</v>
+        <v>-17.3476884456007</v>
       </c>
     </row>
     <row r="229">
@@ -24210,25 +24210,25 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>3.58949869709541</v>
+        <v>3.69116839388554</v>
       </c>
       <c r="I229" t="n">
-        <v>1.87937445055225</v>
+        <v>1.93251089510046</v>
       </c>
       <c r="J229" t="n">
-        <v>0.194121453611744</v>
+        <v>0.204021192136023</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0746267719807314</v>
+        <v>0.0781911247571371</v>
       </c>
       <c r="M229" t="n">
-        <v>-6.15576603601462</v>
+        <v>-6.21416477588445</v>
       </c>
       <c r="N229" t="n">
-        <v>-0.640332312065784</v>
+        <v>-0.64639407091655</v>
       </c>
       <c r="O229" t="n">
         <v>0</v>
@@ -24240,31 +24240,31 @@
         <v>0</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.0468912806008519</v>
+        <v>-0.0476290650157223</v>
       </c>
       <c r="S229" t="n">
-        <v>-0.0553339920296613</v>
+        <v>-0.0574856453200442</v>
       </c>
       <c r="T229" t="n">
-        <v>-0.000296672217922851</v>
+        <v>-0.000296368724383302</v>
       </c>
       <c r="U229" t="n">
-        <v>-0.00299017072129983</v>
+        <v>-0.00304505368416158</v>
       </c>
       <c r="V229" t="n">
-        <v>-0.00315015642979454</v>
+        <v>-0.00318774760838464</v>
       </c>
       <c r="W229" t="n">
-        <v>-0.00560632495008648</v>
+        <v>-0.00569477124041224</v>
       </c>
       <c r="X229" t="n">
-        <v>-0.000246126469492257</v>
+        <v>-0.000249952018310104</v>
       </c>
       <c r="Y229" t="n">
-        <v>-4.98875249625449</v>
+        <v>-1.90967860308489</v>
       </c>
       <c r="Z229" t="n">
-        <v>-0.935283001405661</v>
+        <v>-0.944090591852492</v>
       </c>
       <c r="AA229" t="n">
         <v>0</v>
@@ -24273,19 +24273,19 @@
         <v>0</v>
       </c>
       <c r="AC229" t="n">
-        <v>5.73762137324014</v>
+        <v>5.90589160587917</v>
       </c>
       <c r="AD229" t="n">
-        <v>-12.8346485691597</v>
+        <v>-9.8319166453498</v>
       </c>
       <c r="AE229" t="n">
-        <v>-7.09702719591952</v>
+        <v>-3.92602503947063</v>
       </c>
       <c r="AF229" t="n">
-        <v>-7.09702719591952</v>
+        <v>-3.92602503947063</v>
       </c>
       <c r="AG229" t="n">
-        <v>-20.4592946834256</v>
+        <v>-18.1869547372569</v>
       </c>
     </row>
     <row r="230">
@@ -24311,25 +24311,25 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>3.59482671248795</v>
+        <v>3.67898526427803</v>
       </c>
       <c r="I230" t="n">
-        <v>1.87161614428843</v>
+        <v>1.91558481981979</v>
       </c>
       <c r="J230" t="n">
-        <v>0.201719884929916</v>
+        <v>0.210642988137611</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0750185918376533</v>
+        <v>0.0782091184917739</v>
       </c>
       <c r="M230" t="n">
-        <v>-6.19421666045563</v>
+        <v>-6.2233653994001</v>
       </c>
       <c r="N230" t="n">
-        <v>-0.641594706452758</v>
+        <v>-0.644613922219932</v>
       </c>
       <c r="O230" t="n">
         <v>0</v>
@@ -24341,31 +24341,31 @@
         <v>0</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.0433750387633546</v>
+        <v>-0.04388804081668</v>
       </c>
       <c r="S230" t="n">
-        <v>-0.0500848040394384</v>
+        <v>-0.0519625805553657</v>
       </c>
       <c r="T230" t="n">
-        <v>-0.000292464280444016</v>
+        <v>-0.000290772093670924</v>
       </c>
       <c r="U230" t="n">
-        <v>-0.00131578199585016</v>
+        <v>-0.00135627825793918</v>
       </c>
       <c r="V230" t="n">
-        <v>-0.00177785492761094</v>
+        <v>-0.00180042581795246</v>
       </c>
       <c r="W230" t="n">
-        <v>-0.00519572632675305</v>
+        <v>-0.00525729602798994</v>
       </c>
       <c r="X230" t="n">
-        <v>-0.000242649783946854</v>
+        <v>-0.00024529579453769</v>
       </c>
       <c r="Y230" t="n">
-        <v>-4.97668487240074</v>
+        <v>-1.88463327271084</v>
       </c>
       <c r="Z230" t="n">
-        <v>-0.927344996192522</v>
+        <v>-0.931708895404838</v>
       </c>
       <c r="AA230" t="n">
         <v>0</v>
@@ -24374,19 +24374,19 @@
         <v>0</v>
       </c>
       <c r="AC230" t="n">
-        <v>5.74318133354395</v>
+        <v>5.8834221907272</v>
       </c>
       <c r="AD230" t="n">
-        <v>-12.8421255556191</v>
+        <v>-9.78912217909984</v>
       </c>
       <c r="AE230" t="n">
-        <v>-7.0989442220751</v>
+        <v>-3.90569998837265</v>
       </c>
       <c r="AF230" t="n">
-        <v>-7.0989442220751</v>
+        <v>-3.90569998837265</v>
       </c>
       <c r="AG230" t="n">
-        <v>-22.1293958031249</v>
+        <v>-19.0464561908012</v>
       </c>
     </row>
     <row r="231">
@@ -24412,19 +24412,19 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>3.56797560038849</v>
+        <v>3.6349763090684</v>
       </c>
       <c r="I231" t="n">
-        <v>1.86366959291199</v>
+        <v>1.89870463611531</v>
       </c>
       <c r="J231" t="n">
-        <v>0.203512880998237</v>
+        <v>0.211458115264035</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0754912038313918</v>
+        <v>0.0783185251358729</v>
       </c>
       <c r="M231" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         <v>0</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.0257943200696954</v>
+        <v>-0.0261020994028258</v>
       </c>
       <c r="S231" t="n">
-        <v>-0.0426156321678845</v>
+        <v>-0.0442518267126678</v>
       </c>
       <c r="T231" t="n">
-        <v>-0.000288415037551126</v>
+        <v>-0.000285357584419228</v>
       </c>
       <c r="U231" t="n">
-        <v>-0.000993036064356082</v>
+        <v>-0.00102721741261374</v>
       </c>
       <c r="V231" t="n">
-        <v>-0.00150650320584166</v>
+        <v>-0.00152065689196695</v>
       </c>
       <c r="W231" t="n">
-        <v>-0.00308802944272969</v>
+        <v>-0.00312501588885578</v>
       </c>
       <c r="X231" t="n">
-        <v>-0.0000808382464693936</v>
+        <v>-0.0000823369980046373</v>
       </c>
       <c r="Y231" t="n">
         <v>0</v>
@@ -24475,19 +24475,19 @@
         <v>0</v>
       </c>
       <c r="AC231" t="n">
-        <v>5.71064927813011</v>
+        <v>5.82345758558363</v>
       </c>
       <c r="AD231" t="n">
-        <v>-0.0743667742345278</v>
+        <v>-0.0763945108913539</v>
       </c>
       <c r="AE231" t="n">
-        <v>5.63628250389558</v>
+        <v>5.74706307469227</v>
       </c>
       <c r="AF231" t="n">
-        <v>5.63628250389558</v>
+        <v>5.74706307469227</v>
       </c>
       <c r="AG231" t="n">
-        <v>-2.53002775453461</v>
+        <v>-0.117307987420642</v>
       </c>
     </row>
     <row r="232">
@@ -24513,19 +24513,19 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>3.54271794870323</v>
+        <v>3.59270603794707</v>
       </c>
       <c r="I232" t="n">
-        <v>1.85560567102224</v>
+        <v>1.88175430149973</v>
       </c>
       <c r="J232" t="n">
-        <v>0.205447474209381</v>
+        <v>0.212404202286098</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0755660779655674</v>
+        <v>0.0780272491649796</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
@@ -24543,25 +24543,25 @@
         <v>0</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.0142221840007382</v>
+        <v>-0.0144077486405538</v>
       </c>
       <c r="S232" t="n">
-        <v>-0.0424678318154382</v>
+        <v>-0.0438971540573117</v>
       </c>
       <c r="T232" t="n">
-        <v>-0.000284477599182361</v>
+        <v>-0.000280082191413928</v>
       </c>
       <c r="U232" t="n">
-        <v>-0.000983210364684009</v>
+        <v>-0.00101258848718434</v>
       </c>
       <c r="V232" t="n">
-        <v>-0.00125123560161194</v>
+        <v>-0.0012582682069139</v>
       </c>
       <c r="W232" t="n">
-        <v>-0.00170545512477903</v>
+        <v>-0.00172780972816472</v>
       </c>
       <c r="X232" t="n">
-        <v>-0.0000797243746749887</v>
+        <v>-0.0000808377625138823</v>
       </c>
       <c r="Y232" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>0</v>
       </c>
       <c r="AC232" t="n">
-        <v>5.67933717190042</v>
+        <v>5.76489179089788</v>
       </c>
       <c r="AD232" t="n">
-        <v>-0.0609941188811087</v>
+        <v>-0.0626644890740562</v>
       </c>
       <c r="AE232" t="n">
-        <v>5.61834305301932</v>
+        <v>5.70222730182382</v>
       </c>
       <c r="AF232" t="n">
-        <v>5.61834305301932</v>
+        <v>5.70222730182382</v>
       </c>
       <c r="AG232" t="n">
-        <v>-0.735336465269932</v>
+        <v>0.904391337168198</v>
       </c>
     </row>
     <row r="233">
@@ -24614,19 +24614,19 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>3.51798426581115</v>
+        <v>3.55127046865678</v>
       </c>
       <c r="I233" t="n">
-        <v>1.84737334931225</v>
+        <v>1.86477390521435</v>
       </c>
       <c r="J233" t="n">
-        <v>0.206557993611421</v>
+        <v>0.212540978085828</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0750701787467338</v>
+        <v>0.0771733197159231</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -24644,25 +24644,25 @@
         <v>0</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.0140270396725678</v>
+        <v>-0.0141455741364896</v>
       </c>
       <c r="S233" t="n">
-        <v>-0.0435622537872699</v>
+        <v>-0.0447903056036093</v>
       </c>
       <c r="T233" t="n">
-        <v>0.000195375965316679</v>
+        <v>0.000201101794547248</v>
       </c>
       <c r="U233" t="n">
-        <v>-0.000982897253508742</v>
+        <v>-0.00100762032322826</v>
       </c>
       <c r="V233" t="n">
-        <v>-0.000243400907868585</v>
+        <v>-0.000244548204408272</v>
       </c>
       <c r="W233" t="n">
-        <v>-0.00169417961741289</v>
+        <v>-0.00170849615728338</v>
       </c>
       <c r="X233" t="n">
-        <v>-0.0000786302761828208</v>
+        <v>-0.0000793678239583342</v>
       </c>
       <c r="Y233" t="n">
         <v>0</v>
@@ -24677,19 +24677,19 @@
         <v>0</v>
       </c>
       <c r="AC233" t="n">
-        <v>5.64698578748156</v>
+        <v>5.70575867167288</v>
       </c>
       <c r="AD233" t="n">
-        <v>-0.0603930255494941</v>
+        <v>-0.0617748104544299</v>
       </c>
       <c r="AE233" t="n">
-        <v>5.58659276193206</v>
+        <v>5.64398386121845</v>
       </c>
       <c r="AF233" t="n">
-        <v>5.58659276193206</v>
+        <v>5.64398386121845</v>
       </c>
       <c r="AG233" t="n">
-        <v>2.43556852419296</v>
+        <v>3.29689356234047</v>
       </c>
     </row>
     <row r="234">
@@ -24715,19 +24715,19 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3.53049854837285</v>
+        <v>3.54722251898612</v>
       </c>
       <c r="I234" t="n">
-        <v>1.83729310096856</v>
+        <v>1.84599635786205</v>
       </c>
       <c r="J234" t="n">
-        <v>0.207682823870142</v>
+        <v>0.212698222991494</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0746923475182203</v>
+        <v>0.0764437491025072</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
@@ -24745,25 +24745,25 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.0110786958734571</v>
+        <v>-0.0111311756526391</v>
       </c>
       <c r="S234" t="n">
-        <v>-0.0425555718373158</v>
+        <v>-0.0435795230456598</v>
       </c>
       <c r="T234" t="n">
-        <v>0.000192670439824647</v>
+        <v>0.000197481144560533</v>
       </c>
       <c r="U234" t="n">
-        <v>-0.000992460186024399</v>
+        <v>-0.00101257451916756</v>
       </c>
       <c r="V234" t="n">
         <v>0</v>
       </c>
       <c r="W234" t="n">
-        <v>-0.00133807996373131</v>
+        <v>-0.00134441844813657</v>
       </c>
       <c r="X234" t="n">
-        <v>-0.0000775508711141996</v>
+        <v>-0.0000779182295684739</v>
       </c>
       <c r="Y234" t="n">
         <v>0</v>
@@ -24778,19 +24778,19 @@
         <v>0</v>
       </c>
       <c r="AC234" t="n">
-        <v>5.65016682072977</v>
+        <v>5.68236084894217</v>
       </c>
       <c r="AD234" t="n">
-        <v>-0.0558496882918182</v>
+        <v>-0.056948128750611</v>
       </c>
       <c r="AE234" t="n">
-        <v>5.59431713243795</v>
+        <v>5.62541272019156</v>
       </c>
       <c r="AF234" t="n">
-        <v>5.59431713243795</v>
+        <v>5.62541272019156</v>
       </c>
       <c r="AG234" t="n">
-        <v>5.60888386282123</v>
+        <v>5.67967173948152</v>
       </c>
     </row>
     <row r="235">
@@ -24822,13 +24822,13 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>0.208901120628369</v>
+        <v>0.212942315570546</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0743339188759051</v>
+        <v>0.0757348270278107</v>
       </c>
       <c r="M235" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>-0.0320677894322871</v>
+        <v>-0.0328921109306041</v>
       </c>
       <c r="T235" t="n">
-        <v>0.000190064068152045</v>
+        <v>0.000193971364641815</v>
       </c>
       <c r="U235" t="n">
-        <v>-0.000582408435796675</v>
+        <v>-0.000597858145735165</v>
       </c>
       <c r="V235" t="n">
         <v>0</v>
@@ -24879,19 +24879,19 @@
         <v>0</v>
       </c>
       <c r="AC235" t="n">
-        <v>0.283235039504274</v>
+        <v>0.288677142598356</v>
       </c>
       <c r="AD235" t="n">
-        <v>-0.0324601337999317</v>
+        <v>-0.0332959977116974</v>
       </c>
       <c r="AE235" t="n">
-        <v>0.250774905704343</v>
+        <v>0.255381144886659</v>
       </c>
       <c r="AF235" t="n">
-        <v>0.250774905704343</v>
+        <v>0.255381144886659</v>
       </c>
       <c r="AG235" t="n">
-        <v>4.26250696327342</v>
+        <v>4.30675125703011</v>
       </c>
     </row>
     <row r="236">
@@ -24923,13 +24923,13 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>0.210090249656128</v>
+        <v>0.213133883917379</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0737190428986672</v>
+        <v>0.0747650089411367</v>
       </c>
       <c r="M236" t="n">
         <v>0</v>
@@ -24950,13 +24950,13 @@
         <v>0</v>
       </c>
       <c r="S236" t="n">
-        <v>-0.0318421166831904</v>
+        <v>-0.0325131794793199</v>
       </c>
       <c r="T236" t="n">
-        <v>0.00018744028906882</v>
+        <v>0.000190439834478947</v>
       </c>
       <c r="U236" t="n">
-        <v>-0.000583462254165791</v>
+        <v>-0.000596128215914088</v>
       </c>
       <c r="V236" t="n">
         <v>0</v>
@@ -24980,19 +24980,19 @@
         <v>0</v>
       </c>
       <c r="AC236" t="n">
-        <v>0.283809292554795</v>
+        <v>0.287898892858515</v>
       </c>
       <c r="AD236" t="n">
-        <v>-0.0322381386482874</v>
+        <v>-0.0329188678607551</v>
       </c>
       <c r="AE236" t="n">
-        <v>0.251571153906508</v>
+        <v>0.25498002499776</v>
       </c>
       <c r="AF236" t="n">
-        <v>0.251571153906508</v>
+        <v>0.25498002499776</v>
       </c>
       <c r="AG236" t="n">
-        <v>2.92081398849522</v>
+        <v>2.9449394378236</v>
       </c>
     </row>
     <row r="237">
@@ -25024,13 +25024,13 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>0.211284270734589</v>
+        <v>0.21332052110136</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>0.0727283511369669</v>
+        <v>0.0734208633555086</v>
       </c>
       <c r="M237" t="n">
         <v>0</v>
@@ -25051,13 +25051,13 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>-0.0333073621121984</v>
+        <v>-0.0338254618496985</v>
       </c>
       <c r="T237" t="n">
-        <v>0.000438032242245689</v>
+        <v>0.000440132631366132</v>
       </c>
       <c r="U237" t="n">
-        <v>-0.000586800181445484</v>
+        <v>-0.000596662815721709</v>
       </c>
       <c r="V237" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="AC237" t="n">
-        <v>0.284012621871556</v>
+        <v>0.286741384456868</v>
       </c>
       <c r="AD237" t="n">
-        <v>-0.0334561300513982</v>
+        <v>-0.0339819920340541</v>
       </c>
       <c r="AE237" t="n">
-        <v>0.250556491820158</v>
+        <v>0.252759392422814</v>
       </c>
       <c r="AF237" t="n">
-        <v>0.250556491820158</v>
+        <v>0.252759392422814</v>
       </c>
       <c r="AG237" t="n">
-        <v>1.58680492096724</v>
+        <v>1.59713332062469</v>
       </c>
     </row>
     <row r="238">
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>0.21248178173747</v>
+        <v>0.21350434096293</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0713946820979732</v>
+        <v>0.0717382658642193</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
@@ -25152,13 +25152,13 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>-0.0325953617878963</v>
+        <v>-0.0329535507630979</v>
       </c>
       <c r="T238" t="n">
         <v>0</v>
       </c>
       <c r="U238" t="n">
-        <v>-0.000491184148601089</v>
+        <v>-0.000498229107606513</v>
       </c>
       <c r="V238" t="n">
         <v>0</v>
@@ -25182,19 +25182,19 @@
         <v>0</v>
       </c>
       <c r="AC238" t="n">
-        <v>0.283876463835443</v>
+        <v>0.285242606827149</v>
       </c>
       <c r="AD238" t="n">
-        <v>-0.0330865459364974</v>
+        <v>-0.0334517798707044</v>
       </c>
       <c r="AE238" t="n">
-        <v>0.250789917898946</v>
+        <v>0.251790826956445</v>
       </c>
       <c r="AF238" t="n">
-        <v>0.250789917898946</v>
+        <v>0.251790826956445</v>
       </c>
       <c r="AG238" t="n">
-        <v>0.25092311733249</v>
+        <v>0.253727847315912</v>
       </c>
     </row>
     <row r="239">
@@ -25253,13 +25253,13 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>-0.0102384425769539</v>
+        <v>-0.0104390726378308</v>
       </c>
       <c r="T239" t="n">
         <v>0</v>
       </c>
       <c r="U239" t="n">
-        <v>-0.00038886337800323</v>
+        <v>-0.000393528371012856</v>
       </c>
       <c r="V239" t="n">
         <v>0</v>
@@ -25286,16 +25286,16 @@
         <v>0</v>
       </c>
       <c r="AD239" t="n">
-        <v>-0.0106273059549571</v>
+        <v>-0.0108326010088437</v>
       </c>
       <c r="AE239" t="n">
-        <v>-0.0106273059549571</v>
+        <v>-0.0108326010088437</v>
       </c>
       <c r="AF239" t="n">
-        <v>-0.0106273059549571</v>
+        <v>-0.0108326010088437</v>
       </c>
       <c r="AG239" t="n">
-        <v>0.185572564417665</v>
+        <v>0.187174410842036</v>
       </c>
     </row>
     <row r="240">
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>-0.0101974863743186</v>
+        <v>-0.010348254093353</v>
       </c>
       <c r="T240" t="n">
         <v>0</v>
       </c>
       <c r="U240" t="n">
-        <v>-0.000288816249438213</v>
+        <v>-0.00029159818734561</v>
       </c>
       <c r="V240" t="n">
         <v>0</v>
@@ -25387,16 +25387,16 @@
         <v>0</v>
       </c>
       <c r="AD240" t="n">
-        <v>-0.0104863026237568</v>
+        <v>-0.0106398522806986</v>
       </c>
       <c r="AE240" t="n">
-        <v>-0.0104863026237568</v>
+        <v>-0.0106398522806986</v>
       </c>
       <c r="AF240" t="n">
-        <v>-0.0104863026237568</v>
+        <v>-0.0106398522806986</v>
       </c>
       <c r="AG240" t="n">
-        <v>0.120058200285099</v>
+        <v>0.120769441522422</v>
       </c>
     </row>
     <row r="241">
@@ -25455,13 +25455,13 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>-0.0106048896560545</v>
+        <v>-0.0107062066615528</v>
       </c>
       <c r="T241" t="n">
         <v>0</v>
       </c>
       <c r="U241" t="n">
-        <v>-0.000191064728518691</v>
+        <v>-0.000192450503772596</v>
       </c>
       <c r="V241" t="n">
         <v>0</v>
@@ -25488,16 +25488,16 @@
         <v>0</v>
       </c>
       <c r="AD241" t="n">
-        <v>-0.0107959543845732</v>
+        <v>-0.0108986571653254</v>
       </c>
       <c r="AE241" t="n">
-        <v>-0.0107959543845732</v>
+        <v>-0.0108986571653254</v>
       </c>
       <c r="AF241" t="n">
-        <v>-0.0107959543845732</v>
+        <v>-0.0108986571653254</v>
       </c>
       <c r="AG241" t="n">
-        <v>0.0547200887339165</v>
+        <v>0.0548549291253868</v>
       </c>
     </row>
     <row r="242">
@@ -25556,13 +25556,13 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>-0.0103368301256772</v>
+        <v>-0.0103867386457179</v>
       </c>
       <c r="T242" t="n">
         <v>0</v>
       </c>
       <c r="U242" t="n">
-        <v>-0.0000955769759929711</v>
+        <v>-0.0000960384429382324</v>
       </c>
       <c r="V242" t="n">
         <v>0</v>
@@ -25589,16 +25589,16 @@
         <v>0</v>
       </c>
       <c r="AD242" t="n">
-        <v>-0.0104324071016701</v>
+        <v>-0.0104827770886562</v>
       </c>
       <c r="AE242" t="n">
-        <v>-0.0104324071016701</v>
+        <v>-0.0104827770886562</v>
       </c>
       <c r="AF242" t="n">
-        <v>-0.0104324071016701</v>
+        <v>-0.0104827770886562</v>
       </c>
       <c r="AG242" t="n">
-        <v>-0.0105854925162375</v>
+        <v>-0.0107134718858884</v>
       </c>
     </row>
     <row r="243">
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="AG243" t="n">
-        <v>-0.00792866602749823</v>
+        <v>-0.00800532163367752</v>
       </c>
     </row>
     <row r="244">
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="AG244" t="n">
-        <v>-0.00530709037155903</v>
+        <v>-0.00534535856350286</v>
       </c>
     </row>
     <row r="245">
@@ -25901,7 +25901,7 @@
         <v>0</v>
       </c>
       <c r="AG245" t="n">
-        <v>-0.00260810177541573</v>
+        <v>-0.0026206942721715</v>
       </c>
     </row>
     <row r="246">
@@ -26002,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="AG246" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="247">
@@ -26103,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="AG247" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="248">
@@ -26204,7 +26204,7 @@
         <v>0</v>
       </c>
       <c r="AG248" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="249">
@@ -26305,7 +26305,7 @@
         <v>0</v>
       </c>
       <c r="AG249" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="250">
@@ -26406,7 +26406,7 @@
         <v>0</v>
       </c>
       <c r="AG250" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="251">
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
       <c r="AG251" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="252">
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="AG252" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="253">
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="AG253" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="254">
@@ -26810,7 +26810,7 @@
         <v>0</v>
       </c>
       <c r="AG254" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="255">
@@ -26911,7 +26911,7 @@
         <v>0</v>
       </c>
       <c r="AG255" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="256">
@@ -27012,7 +27012,7 @@
         <v>0</v>
       </c>
       <c r="AG256" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="257">
@@ -27113,7 +27113,7 @@
         <v>0</v>
       </c>
       <c r="AG257" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="258">
@@ -27214,7 +27214,7 @@
         <v>0</v>
       </c>
       <c r="AG258" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="259">
@@ -27315,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="AG259" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
     <row r="260">
@@ -27416,7 +27416,7 @@
         <v>0</v>
       </c>
       <c r="AG260" t="n">
-        <v>0.00000000000000180151032980191</v>
+        <v>-0.00000000000000746061198930725</v>
       </c>
     </row>
   </sheetData>

--- a/results/07-2024/beta/contributions-07-2024.xlsx
+++ b/results/07-2024/beta/contributions-07-2024.xlsx
@@ -770,10 +770,10 @@
     <t xml:space="preserve">2024 Q2</t>
   </si>
   <si>
+    <t xml:space="preserve">2024 Q3</t>
+  </si>
+  <si>
     <t xml:space="preserve">projection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2024 Q3</t>
   </si>
   <si>
     <t xml:space="preserve">2024 Q4</t>
@@ -23182,43 +23182,43 @@
         <v>251</v>
       </c>
       <c r="B219" t="s">
-        <v>252</v>
+        <v>34</v>
       </c>
       <c r="C219" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>0.0279492709152113</v>
+        <v>0.115426641109984</v>
       </c>
       <c r="E219" t="n">
-        <v>-0.00915388060511806</v>
+        <v>0.0213495782472853</v>
       </c>
       <c r="F219" t="n">
-        <v>-0.0165627919074172</v>
+        <v>-0.00841229468813802</v>
       </c>
       <c r="G219" t="n">
-        <v>-0.183252705496367</v>
+        <v>0.0584823625448953</v>
       </c>
       <c r="H219" t="n">
-        <v>0.204480619338558</v>
+        <v>0.194479203432638</v>
       </c>
       <c r="I219" t="n">
-        <v>0.190804110337713</v>
+        <v>0.185561555981642</v>
       </c>
       <c r="J219" t="n">
-        <v>-0.0531988343104604</v>
+        <v>-0.0534865745908126</v>
       </c>
       <c r="K219" t="n">
-        <v>0.0343320274759174</v>
+        <v>0.0366848996418076</v>
       </c>
       <c r="L219" t="n">
-        <v>-0.0231228664014136</v>
+        <v>-0.0232300873829199</v>
       </c>
       <c r="M219" t="n">
-        <v>0.0794503265832219</v>
+        <v>0.0882092651530837</v>
       </c>
       <c r="N219" t="n">
-        <v>0.0478523737781044</v>
+        <v>-0.012591686958121</v>
       </c>
       <c r="O219" t="n">
         <v>0</v>
@@ -23227,156 +23227,156 @@
         <v>-0.104929405936357</v>
       </c>
       <c r="Q219" t="n">
-        <v>0.000194141410154632</v>
+        <v>-0.00065483910574253</v>
       </c>
       <c r="R219" t="n">
-        <v>-0.00129223973278812</v>
+        <v>-0.000356899088675943</v>
       </c>
       <c r="S219" t="n">
-        <v>-0.294446895031987</v>
+        <v>-0.293399973248863</v>
       </c>
       <c r="T219" t="n">
-        <v>-0.0176894198471784</v>
+        <v>-0.0176883812429932</v>
       </c>
       <c r="U219" t="n">
-        <v>-0.0357568441307092</v>
+        <v>-0.0357529054240686</v>
       </c>
       <c r="V219" t="n">
-        <v>-0.0488511740515331</v>
+        <v>-0.0488351118285673</v>
       </c>
       <c r="W219" t="n">
-        <v>-0.0931683179086759</v>
+        <v>-0.0931584967077159</v>
       </c>
       <c r="X219" t="n">
-        <v>-0.00261741163164872</v>
+        <v>-0.0021264662695237</v>
       </c>
       <c r="Y219" t="n">
-        <v>-0.158486103223233</v>
+        <v>-0.151728603424376</v>
       </c>
       <c r="Z219" t="n">
-        <v>0.110854636619516</v>
+        <v>0.112152881864364</v>
       </c>
       <c r="AA219" t="n">
-        <v>0.00223259840267611</v>
+        <v>0.128363924669132</v>
       </c>
       <c r="AB219" t="n">
-        <v>-0.157536032983832</v>
+        <v>0.045545078985748</v>
       </c>
       <c r="AC219" t="n">
-        <v>0.353295056440314</v>
+        <v>0.340008997082355</v>
       </c>
       <c r="AD219" t="n">
-        <v>-0.518886333103112</v>
+        <v>-0.560860622217557</v>
       </c>
       <c r="AE219" t="n">
-        <v>-0.165591276662798</v>
+        <v>-0.220851625135203</v>
       </c>
       <c r="AF219" t="n">
-        <v>-0.320894711243953</v>
+        <v>-0.0469426214803228</v>
       </c>
       <c r="AG219" t="n">
-        <v>0.149066737256533</v>
+        <v>0.217554759697441</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s">
+        <v>252</v>
+      </c>
+      <c r="B220" t="s">
         <v>253</v>
       </c>
-      <c r="B220" t="s">
-        <v>252</v>
-      </c>
       <c r="C220" t="n">
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.313587498166553</v>
+        <v>-0.313908433215255</v>
       </c>
       <c r="E220" t="n">
-        <v>-0.000868263211866176</v>
+        <v>-0.000869151819026267</v>
       </c>
       <c r="F220" t="n">
-        <v>-0.0117473732878433</v>
+        <v>-0.0117593959094092</v>
       </c>
       <c r="G220" t="n">
-        <v>-0.0651536074647197</v>
+        <v>-0.0652202876618162</v>
       </c>
       <c r="H220" t="n">
-        <v>0.303143948086791</v>
+        <v>0.293578542527128</v>
       </c>
       <c r="I220" t="n">
-        <v>0.0978813610311459</v>
+        <v>0.092804904346207</v>
       </c>
       <c r="J220" t="n">
-        <v>-0.0596759361881238</v>
+        <v>-0.0600211324375351</v>
       </c>
       <c r="K220" t="n">
-        <v>0.0329899161852774</v>
+        <v>0.0330236790757609</v>
       </c>
       <c r="L220" t="n">
-        <v>-0.0163866719464414</v>
+        <v>-0.0165093152916424</v>
       </c>
       <c r="M220" t="n">
-        <v>0.112658428659887</v>
+        <v>0.121422525392554</v>
       </c>
       <c r="N220" t="n">
-        <v>0.0542407360954437</v>
+        <v>0.0556989552299827</v>
       </c>
       <c r="O220" t="n">
         <v>0</v>
       </c>
       <c r="P220" t="n">
-        <v>-0.101647463813208</v>
+        <v>-0.101751492940453</v>
       </c>
       <c r="Q220" t="n">
-        <v>-0.000463143029123872</v>
+        <v>-0.00032884297838877</v>
       </c>
       <c r="R220" t="n">
-        <v>-0.0000591389286745778</v>
+        <v>-0.000121490440341458</v>
       </c>
       <c r="S220" t="n">
-        <v>-0.264478372109838</v>
+        <v>-0.264810460233818</v>
       </c>
       <c r="T220" t="n">
-        <v>-0.0667863712509886</v>
+        <v>-0.0668536969243649</v>
       </c>
       <c r="U220" t="n">
-        <v>-0.0343544346411838</v>
+        <v>-0.0343868160365828</v>
       </c>
       <c r="V220" t="n">
-        <v>-0.0432124205683029</v>
+        <v>-0.04324316427257</v>
       </c>
       <c r="W220" t="n">
-        <v>-0.0548086501794876</v>
+        <v>-0.0548564999824933</v>
       </c>
       <c r="X220" t="n">
-        <v>-0.000487343058014932</v>
+        <v>-0.000558510102538113</v>
       </c>
       <c r="Y220" t="n">
-        <v>0.0691635470173543</v>
+        <v>0.0759068582255419</v>
       </c>
       <c r="Z220" t="n">
-        <v>0.059904249385294</v>
+        <v>0.0612474775922516</v>
       </c>
       <c r="AA220" t="n">
-        <v>-0.326203134666263</v>
+        <v>-0.32653698094369</v>
       </c>
       <c r="AB220" t="n">
-        <v>-0.0525379709650102</v>
+        <v>-0.0525917399333808</v>
       </c>
       <c r="AC220" t="n">
-        <v>0.357952617168649</v>
+        <v>0.342876678219918</v>
       </c>
       <c r="AD220" t="n">
-        <v>-0.270330376420844</v>
+        <v>-0.25263515747122</v>
       </c>
       <c r="AE220" t="n">
-        <v>0.0876222407478053</v>
+        <v>0.0902415207486977</v>
       </c>
       <c r="AF220" t="n">
-        <v>-0.291118864883468</v>
+        <v>-0.288887200128373</v>
       </c>
       <c r="AG220" t="n">
-        <v>-0.0668476306972017</v>
+        <v>0.0021983079324796</v>
       </c>
     </row>
     <row r="221">
@@ -23384,100 +23384,100 @@
         <v>254</v>
       </c>
       <c r="B221" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C221" t="n">
         <v>0</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.0305030066406614</v>
+        <v>-0.0305342243517596</v>
       </c>
       <c r="E221" t="n">
-        <v>0.0039435964146431</v>
+        <v>0.0039476324119797</v>
       </c>
       <c r="F221" t="n">
-        <v>0.0106466587806725</v>
+        <v>0.0106575548973042</v>
       </c>
       <c r="G221" t="n">
-        <v>-0.0634619784856173</v>
+        <v>-0.0635269274178134</v>
       </c>
       <c r="H221" t="n">
-        <v>0.210554810667858</v>
+        <v>0.205885381236198</v>
       </c>
       <c r="I221" t="n">
-        <v>0.0685581178825413</v>
+        <v>0.0660677002717437</v>
       </c>
       <c r="J221" t="n">
-        <v>-0.0528276164894034</v>
+        <v>-0.0531627596080454</v>
       </c>
       <c r="K221" t="n">
-        <v>0.0314804078741684</v>
+        <v>0.0315126258876201</v>
       </c>
       <c r="L221" t="n">
-        <v>0.000592764259184759</v>
+        <v>0.000488632608747897</v>
       </c>
       <c r="M221" t="n">
-        <v>0.108310661610859</v>
+        <v>0.116977637354586</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0630494703994884</v>
+        <v>0.0645016747369498</v>
       </c>
       <c r="O221" t="n">
         <v>0</v>
       </c>
       <c r="P221" t="n">
-        <v>-0.0997020018394068</v>
+        <v>-0.0998040399212916</v>
       </c>
       <c r="Q221" t="n">
-        <v>-0.00021724290465523</v>
+        <v>-0.000168407278836746</v>
       </c>
       <c r="R221" t="n">
-        <v>-0.00218484481891573</v>
+        <v>-0.0021686504319439</v>
       </c>
       <c r="S221" t="n">
-        <v>-0.107950790264199</v>
+        <v>-0.108039786312362</v>
       </c>
       <c r="T221" t="n">
-        <v>-0.029004087876285</v>
+        <v>-0.029033340361915</v>
       </c>
       <c r="U221" t="n">
-        <v>-0.0224071246882031</v>
+        <v>-0.0224273086066712</v>
       </c>
       <c r="V221" t="n">
-        <v>-0.025766078068649</v>
+        <v>-0.0257798956173732</v>
       </c>
       <c r="W221" t="n">
-        <v>-0.0298255615992624</v>
+        <v>-0.0298484109577703</v>
       </c>
       <c r="X221" t="n">
-        <v>-0.000453943809704966</v>
+        <v>-0.00048010593684826</v>
       </c>
       <c r="Y221" t="n">
-        <v>0.0132469502250108</v>
+        <v>0.0198615389538362</v>
       </c>
       <c r="Z221" t="n">
-        <v>0.18108667117246</v>
+        <v>0.182540185482219</v>
       </c>
       <c r="AA221" t="n">
-        <v>-0.0159127514453459</v>
+        <v>-0.0159290370424757</v>
       </c>
       <c r="AB221" t="n">
-        <v>-0.0780522336809329</v>
+        <v>-0.0781321147270974</v>
       </c>
       <c r="AC221" t="n">
-        <v>0.258358484194349</v>
+        <v>0.250791580396264</v>
       </c>
       <c r="AD221" t="n">
-        <v>0.0481820775385372</v>
+        <v>0.0661310911025787</v>
       </c>
       <c r="AE221" t="n">
-        <v>0.306540561732886</v>
+        <v>0.316922671498843</v>
       </c>
       <c r="AF221" t="n">
-        <v>0.212575576606607</v>
+        <v>0.22286151972927</v>
       </c>
       <c r="AG221" t="n">
-        <v>-0.0925533336591953</v>
+        <v>-0.0209359092488484</v>
       </c>
     </row>
     <row r="222">
@@ -23485,100 +23485,100 @@
         <v>255</v>
       </c>
       <c r="B222" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C222" t="n">
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0242745484751063</v>
+        <v>0.024299391791382</v>
       </c>
       <c r="E222" t="n">
-        <v>-0.295596513481577</v>
+        <v>-0.295899036005608</v>
       </c>
       <c r="F222" t="n">
-        <v>-0.0121522534601843</v>
+        <v>-0.0121646904485173</v>
       </c>
       <c r="G222" t="n">
-        <v>-0.10806644570606</v>
+        <v>-0.108177044215945</v>
       </c>
       <c r="H222" t="n">
-        <v>-0.109022120647343</v>
+        <v>-0.113970594719517</v>
       </c>
       <c r="I222" t="n">
-        <v>0.0437047774083243</v>
+        <v>0.0412140954028463</v>
       </c>
       <c r="J222" t="n">
-        <v>-0.0458623242378591</v>
+        <v>-0.0461875757864698</v>
       </c>
       <c r="K222" t="n">
-        <v>0.0296643808796034</v>
+        <v>0.0296947403154162</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0146317397304969</v>
+        <v>0.0145430056058064</v>
       </c>
       <c r="M222" t="n">
-        <v>-0.0355576564240909</v>
+        <v>-0.0271220291706298</v>
       </c>
       <c r="N222" t="n">
-        <v>0.0703338568877382</v>
+        <v>0.0717798750106577</v>
       </c>
       <c r="O222" t="n">
         <v>0</v>
       </c>
       <c r="P222" t="n">
-        <v>-0.096880277565739</v>
+        <v>-0.0969794278085916</v>
       </c>
       <c r="Q222" t="n">
-        <v>-0.0000480843054571453</v>
+        <v>0</v>
       </c>
       <c r="R222" t="n">
-        <v>-0.00312908399280576</v>
+        <v>-0.00311777151683929</v>
       </c>
       <c r="S222" t="n">
-        <v>-0.0600760350330372</v>
+        <v>-0.0601197879653204</v>
       </c>
       <c r="T222" t="n">
-        <v>-0.0281018740369811</v>
+        <v>-0.0281302074080254</v>
       </c>
       <c r="U222" t="n">
-        <v>-0.0152407652346435</v>
+        <v>-0.0152550024988492</v>
       </c>
       <c r="V222" t="n">
-        <v>-0.0103150884246051</v>
+        <v>-0.0103139931528964</v>
       </c>
       <c r="W222" t="n">
-        <v>-0.0295429020796404</v>
+        <v>-0.0295660125777588</v>
       </c>
       <c r="X222" t="n">
-        <v>-0.000654613094203388</v>
+        <v>-0.000680524807471519</v>
       </c>
       <c r="Y222" t="n">
-        <v>0.0397542452811134</v>
+        <v>0.0463310723073205</v>
       </c>
       <c r="Z222" t="n">
-        <v>0.0234671609856324</v>
+        <v>0.0247468960335807</v>
       </c>
       <c r="AA222" t="n">
-        <v>-0.283474218466655</v>
+        <v>-0.283764334662744</v>
       </c>
       <c r="AB222" t="n">
-        <v>0.199682321235701</v>
+        <v>0.199886682238181</v>
       </c>
       <c r="AC222" t="n">
-        <v>-0.0668835468667779</v>
+        <v>-0.0747063291819175</v>
       </c>
       <c r="AD222" t="n">
-        <v>-0.14599111703672</v>
+        <v>-0.128426913554824</v>
       </c>
       <c r="AE222" t="n">
-        <v>-0.212874663903498</v>
+        <v>-0.203133242736741</v>
       </c>
       <c r="AF222" t="n">
-        <v>-0.296666561134451</v>
+        <v>-0.287010895161304</v>
       </c>
       <c r="AG222" t="n">
-        <v>-0.174026140163818</v>
+        <v>-0.0999947992601838</v>
       </c>
     </row>
     <row r="223">
@@ -23586,100 +23586,100 @@
         <v>256</v>
       </c>
       <c r="B223" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C223" t="n">
         <v>0</v>
       </c>
       <c r="D223" t="n">
-        <v>0.0365371038719133</v>
+        <v>0.0365744970629018</v>
       </c>
       <c r="E223" t="n">
-        <v>-0.125137317980377</v>
+        <v>-0.125265387343713</v>
       </c>
       <c r="F223" t="n">
-        <v>-0.0670668327775431</v>
+        <v>-0.067135471028014</v>
       </c>
       <c r="G223" t="n">
-        <v>-0.106551395513561</v>
+        <v>-0.106660443474682</v>
       </c>
       <c r="H223" t="n">
-        <v>-0.104655154659296</v>
+        <v>-0.109550048486844</v>
       </c>
       <c r="I223" t="n">
-        <v>-0.026033241121188</v>
+        <v>-0.0285695521087803</v>
       </c>
       <c r="J223" t="n">
-        <v>-0.0242599754784635</v>
+        <v>-0.0245602926817725</v>
       </c>
       <c r="K223" t="n">
-        <v>0.0285096032945109</v>
+        <v>0.02853878089558</v>
       </c>
       <c r="L223" t="n">
-        <v>-0.00563051329825817</v>
+        <v>-0.00573893143726738</v>
       </c>
       <c r="M223" t="n">
-        <v>-0.0753813095968302</v>
+        <v>-0.0754584571374945</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0144845669768829</v>
+        <v>0.0737299342243676</v>
       </c>
       <c r="O223" t="n">
         <v>0</v>
       </c>
       <c r="P223" t="n">
-        <v>-0.094073687775945</v>
+        <v>-0.0941699656688597</v>
       </c>
       <c r="Q223" t="n">
-        <v>-0.000250159180265797</v>
+        <v>0</v>
       </c>
       <c r="R223" t="n">
-        <v>-0.00283618246089614</v>
+        <v>-0.00305229291859512</v>
       </c>
       <c r="S223" t="n">
-        <v>-0.0947096501618208</v>
+        <v>-0.0948380956054129</v>
       </c>
       <c r="T223" t="n">
-        <v>-0.0265263478885997</v>
+        <v>-0.0265530731529042</v>
       </c>
       <c r="U223" t="n">
-        <v>-0.0138302049317022</v>
+        <v>-0.0138430124000316</v>
       </c>
       <c r="V223" t="n">
-        <v>-0.00983952557423932</v>
+        <v>-0.00984267540133323</v>
       </c>
       <c r="W223" t="n">
-        <v>-0.0233250353506812</v>
+        <v>-0.0233446755420331</v>
       </c>
       <c r="X223" t="n">
-        <v>-0.00133717229597802</v>
+        <v>-0.00138469069866384</v>
       </c>
       <c r="Y223" t="n">
-        <v>0.012843116489513</v>
+        <v>0.0128562605282267</v>
       </c>
       <c r="Z223" t="n">
-        <v>-0.0207758018101161</v>
+        <v>-0.0207970644019117</v>
       </c>
       <c r="AA223" t="n">
-        <v>-0.155667046886007</v>
+        <v>-0.155826361308825</v>
       </c>
       <c r="AB223" t="n">
-        <v>0.0856527552443594</v>
+        <v>0.0857404148970448</v>
       </c>
       <c r="AC223" t="n">
-        <v>-0.132069281262695</v>
+        <v>-0.139880043819084</v>
       </c>
       <c r="AD223" t="n">
-        <v>-0.335557393560679</v>
+        <v>-0.276697808174646</v>
       </c>
       <c r="AE223" t="n">
-        <v>-0.467626674823374</v>
+        <v>-0.41657785199373</v>
       </c>
       <c r="AF223" t="n">
-        <v>-0.537640966465021</v>
+        <v>-0.48666379840551</v>
       </c>
       <c r="AG223" t="n">
-        <v>-0.228212703969084</v>
+        <v>-0.209925093491481</v>
       </c>
     </row>
     <row r="224">
@@ -23687,100 +23687,100 @@
         <v>257</v>
       </c>
       <c r="B224" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C224" t="n">
         <v>0</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0415369779028945</v>
+        <v>0.0415794881180789</v>
       </c>
       <c r="E224" t="n">
-        <v>-0.0262771765184012</v>
+        <v>-0.0263040693855434</v>
       </c>
       <c r="F224" t="n">
-        <v>-0.0111532785660524</v>
+        <v>-0.0111646931728869</v>
       </c>
       <c r="G224" t="n">
-        <v>-0.120013563055343</v>
+        <v>-0.120136388610983</v>
       </c>
       <c r="H224" t="n">
-        <v>-0.0682861450211372</v>
+        <v>-0.0730945354248257</v>
       </c>
       <c r="I224" t="n">
-        <v>0.00569971835599107</v>
+        <v>0.00322171668885812</v>
       </c>
       <c r="J224" t="n">
-        <v>-0.0313923451803699</v>
+        <v>-0.0316971261721691</v>
       </c>
       <c r="K224" t="n">
-        <v>0.0273675737717791</v>
+        <v>0.027395582584862</v>
       </c>
       <c r="L224" t="n">
-        <v>-0.00505034872202343</v>
+        <v>-0.00515711643387423</v>
       </c>
       <c r="M224" t="n">
-        <v>-0.0748325683720228</v>
+        <v>-0.0749091543141134</v>
       </c>
       <c r="N224" t="n">
-        <v>0.0147498395713569</v>
+        <v>0.0147649350088627</v>
       </c>
       <c r="O224" t="n">
         <v>0</v>
       </c>
       <c r="P224" t="n">
-        <v>-0.00101858021815379</v>
+        <v>-0.00101962266434132</v>
       </c>
       <c r="Q224" t="n">
-        <v>-0.0001646233892468</v>
+        <v>0</v>
       </c>
       <c r="R224" t="n">
-        <v>-0.00218707785682872</v>
+        <v>-0.00233365005398452</v>
       </c>
       <c r="S224" t="n">
-        <v>-0.0708071718458687</v>
+        <v>-0.0708275862149756</v>
       </c>
       <c r="T224" t="n">
-        <v>-0.0258328785956326</v>
+        <v>-0.0258588984923155</v>
       </c>
       <c r="U224" t="n">
-        <v>-0.0139537190435213</v>
+        <v>-0.0139666667828971</v>
       </c>
       <c r="V224" t="n">
-        <v>-0.00834123712353133</v>
+        <v>-0.00834596879418591</v>
       </c>
       <c r="W224" t="n">
-        <v>0.000189201448040142</v>
+        <v>0.000191721643312038</v>
       </c>
       <c r="X224" t="n">
-        <v>-0.000348427611235486</v>
+        <v>-0.000351769766428433</v>
       </c>
       <c r="Y224" t="n">
-        <v>-0.0202353726958458</v>
+        <v>-0.0202560821959362</v>
       </c>
       <c r="Z224" t="n">
-        <v>-0.0238346810708362</v>
+        <v>-0.0238590742133402</v>
       </c>
       <c r="AA224" t="n">
-        <v>0.00410652281844098</v>
+        <v>0.00411072555964858</v>
       </c>
       <c r="AB224" t="n">
-        <v>-0.0825831079708898</v>
+        <v>-0.0826676260525528</v>
       </c>
       <c r="AC224" t="n">
-        <v>-0.0716615467957604</v>
+        <v>-0.0793314787571489</v>
       </c>
       <c r="AD224" t="n">
-        <v>-0.226617296803327</v>
+        <v>-0.226771816840343</v>
       </c>
       <c r="AE224" t="n">
-        <v>-0.298278843599087</v>
+        <v>-0.306103295597492</v>
       </c>
       <c r="AF224" t="n">
-        <v>-0.376755428751536</v>
+        <v>-0.384660196090397</v>
       </c>
       <c r="AG224" t="n">
-        <v>-0.249621844936101</v>
+        <v>-0.233868342481987</v>
       </c>
     </row>
     <row r="225">
@@ -23788,100 +23788,100 @@
         <v>258</v>
       </c>
       <c r="B225" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C225" t="n">
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.0920039215058041</v>
+        <v>-0.0920980811365349</v>
       </c>
       <c r="E225" t="n">
-        <v>-0.0773638393681652</v>
+        <v>-0.0774430158905091</v>
       </c>
       <c r="F225" t="n">
-        <v>-0.0110028907801561</v>
+        <v>-0.0110141514755251</v>
       </c>
       <c r="G225" t="n">
-        <v>-0.121391774732743</v>
+        <v>-0.121516010792419</v>
       </c>
       <c r="H225" t="n">
-        <v>-0.0740754703813422</v>
+        <v>-0.0788424406145329</v>
       </c>
       <c r="I225" t="n">
-        <v>0.0191478114252186</v>
+        <v>0.016708390383198</v>
       </c>
       <c r="J225" t="n">
-        <v>-0.0403150626449094</v>
+        <v>-0.0406262511837659</v>
       </c>
       <c r="K225" t="n">
-        <v>0.0264575553293169</v>
+        <v>0.026484632801658</v>
       </c>
       <c r="L225" t="n">
-        <v>0.00112002694786687</v>
+        <v>0.00102058932224835</v>
       </c>
       <c r="M225" t="n">
-        <v>-0.129174934233444</v>
+        <v>-0.129307135816899</v>
       </c>
       <c r="N225" t="n">
-        <v>0.0148405618576446</v>
+        <v>0.0148557501431164</v>
       </c>
       <c r="O225" t="n">
         <v>0</v>
       </c>
       <c r="P225" t="n">
-        <v>-0.000986093993669235</v>
+        <v>-0.000987103192459789</v>
       </c>
       <c r="Q225" t="n">
-        <v>-0.00000214213223808329</v>
+        <v>0</v>
       </c>
       <c r="R225" t="n">
-        <v>-0.00306670370175271</v>
+        <v>-0.00305173299732271</v>
       </c>
       <c r="S225" t="n">
-        <v>-0.0326678805608594</v>
+        <v>-0.0326497820916149</v>
       </c>
       <c r="T225" t="n">
-        <v>-0.00387080743876697</v>
+        <v>-0.00387435485837908</v>
       </c>
       <c r="U225" t="n">
-        <v>-0.0130106371267025</v>
+        <v>-0.0130226330051808</v>
       </c>
       <c r="V225" t="n">
-        <v>-0.00757316523605586</v>
+        <v>-0.00757714885644937</v>
       </c>
       <c r="W225" t="n">
-        <v>0.000131513369542487</v>
+        <v>0.000133951279051296</v>
       </c>
       <c r="X225" t="n">
-        <v>-0.000340010066034549</v>
+        <v>-0.00034331377595608</v>
       </c>
       <c r="Y225" t="n">
-        <v>-0.00626637013995236</v>
+        <v>-0.00627278333505039</v>
       </c>
       <c r="Z225" t="n">
-        <v>-0.021653053680598</v>
+        <v>-0.0216752140788222</v>
       </c>
       <c r="AA225" t="n">
-        <v>-0.180370651654125</v>
+        <v>-0.180555248502569</v>
       </c>
       <c r="AB225" t="n">
-        <v>-0.0330250445844222</v>
+        <v>-0.0330588434263851</v>
       </c>
       <c r="AC225" t="n">
-        <v>-0.0676651393238492</v>
+        <v>-0.0752550792911945</v>
       </c>
       <c r="AD225" t="n">
-        <v>-0.203639723082887</v>
+        <v>-0.203771500585966</v>
       </c>
       <c r="AE225" t="n">
-        <v>-0.271304862406736</v>
+        <v>-0.279026579877161</v>
       </c>
       <c r="AF225" t="n">
-        <v>-0.484700558645283</v>
+        <v>-0.492640671806115</v>
       </c>
       <c r="AG225" t="n">
-        <v>-0.423940878749074</v>
+        <v>-0.412743890365833</v>
       </c>
     </row>
     <row r="226">
@@ -23889,100 +23889,100 @@
         <v>259</v>
       </c>
       <c r="B226" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C226" t="n">
         <v>0</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.0746106608664148</v>
+        <v>-0.0746870197015686</v>
       </c>
       <c r="E226" t="n">
-        <v>-0.0233506572251125</v>
+        <v>-0.0233745550027904</v>
       </c>
       <c r="F226" t="n">
-        <v>-0.0108875432753289</v>
+        <v>-0.0108986859205292</v>
       </c>
       <c r="G226" t="n">
-        <v>-0.108856827426225</v>
+        <v>-0.108968234836966</v>
       </c>
       <c r="H226" t="n">
-        <v>-0.0259014770375749</v>
+        <v>-0.0305750850946892</v>
       </c>
       <c r="I226" t="n">
-        <v>0.0031910303152314</v>
+        <v>0.000758373743556107</v>
       </c>
       <c r="J226" t="n">
-        <v>-0.0381445448756897</v>
+        <v>-0.0384509768642541</v>
       </c>
       <c r="K226" t="n">
-        <v>0.00933741731862908</v>
+        <v>0.00934697351745531</v>
       </c>
       <c r="L226" t="n">
-        <v>0.00644659175199075</v>
+        <v>0.00635355018134651</v>
       </c>
       <c r="M226" t="n">
-        <v>-0.119939656098652</v>
+        <v>-0.120062406015649</v>
       </c>
       <c r="N226" t="n">
-        <v>0.0152430734684407</v>
+        <v>0.0152586736966212</v>
       </c>
       <c r="O226" t="n">
         <v>0</v>
       </c>
       <c r="P226" t="n">
-        <v>-0.000954733111722777</v>
+        <v>-0.000955710214826373</v>
       </c>
       <c r="Q226" t="n">
-        <v>-0.0000415290684768083</v>
+        <v>0</v>
       </c>
       <c r="R226" t="n">
-        <v>-0.00295067625147927</v>
+        <v>-0.00297921694212841</v>
       </c>
       <c r="S226" t="n">
-        <v>-0.0136404889667323</v>
+        <v>-0.0136034012694774</v>
       </c>
       <c r="T226" t="n">
-        <v>-0.00265250503418386</v>
+        <v>-0.0026548094948828</v>
       </c>
       <c r="U226" t="n">
-        <v>-0.0144094884045077</v>
+        <v>-0.0144229283039801</v>
       </c>
       <c r="V226" t="n">
-        <v>-0.0069924643383737</v>
+        <v>-0.00699663535314229</v>
       </c>
       <c r="W226" t="n">
-        <v>-0.00014888998171876</v>
+        <v>-0.000147217014738937</v>
       </c>
       <c r="X226" t="n">
-        <v>-0.000331480211150204</v>
+        <v>-0.000334747431066952</v>
       </c>
       <c r="Y226" t="n">
-        <v>0.0100108888418354</v>
+        <v>0.0100211342920424</v>
       </c>
       <c r="Z226" t="n">
-        <v>-0.0190541484795073</v>
+        <v>-0.0190736490785617</v>
       </c>
       <c r="AA226" t="n">
-        <v>-0.108848861366856</v>
+        <v>-0.108960260624888</v>
       </c>
       <c r="AB226" t="n">
-        <v>-0.0746186269257839</v>
+        <v>-0.0746949939136468</v>
       </c>
       <c r="AC226" t="n">
-        <v>-0.0450709825274134</v>
+        <v>-0.0525671645165854</v>
       </c>
       <c r="AD226" t="n">
-        <v>-0.155862097636228</v>
+        <v>-0.15595091312979</v>
       </c>
       <c r="AE226" t="n">
-        <v>-0.200933080163642</v>
+        <v>-0.208518077646376</v>
       </c>
       <c r="AF226" t="n">
-        <v>-0.384400568456282</v>
+        <v>-0.392173332184911</v>
       </c>
       <c r="AG226" t="n">
-        <v>-0.445874380579532</v>
+        <v>-0.439034499621734</v>
       </c>
     </row>
     <row r="227">
@@ -23990,43 +23990,43 @@
         <v>260</v>
       </c>
       <c r="B227" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C227" t="n">
         <v>0</v>
       </c>
       <c r="D227" t="n">
-        <v>-25.8756663615161</v>
+        <v>-25.9021483108683</v>
       </c>
       <c r="E227" t="n">
-        <v>-5.5750845144171</v>
+        <v>-5.58079022663653</v>
       </c>
       <c r="F227" t="n">
-        <v>-0.984822718777161</v>
+        <v>-0.985830616506059</v>
       </c>
       <c r="G227" t="n">
-        <v>-43.6424551793561</v>
+        <v>-43.6871202044618</v>
       </c>
       <c r="H227" t="n">
-        <v>7.4864500322914</v>
+        <v>7.4941118945141</v>
       </c>
       <c r="I227" t="n">
-        <v>3.94052739620026</v>
+        <v>3.9445602526094</v>
       </c>
       <c r="J227" t="n">
-        <v>0.200916845261599</v>
+        <v>0.200857393265418</v>
       </c>
       <c r="K227" t="n">
-        <v>-1.98438910578723</v>
+        <v>-1.98641999036659</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0747950734417034</v>
+        <v>0.0747728452778162</v>
       </c>
       <c r="M227" t="n">
-        <v>-6.48234448022495</v>
+        <v>-6.48897871007666</v>
       </c>
       <c r="N227" t="n">
-        <v>-0.647165271367948</v>
+        <v>-0.647827600124989</v>
       </c>
       <c r="O227" t="n">
         <v>0</v>
@@ -24035,55 +24035,55 @@
         <v>0</v>
       </c>
       <c r="Q227" t="n">
-        <v>-0.00015794510706083</v>
+        <v>0</v>
       </c>
       <c r="R227" t="n">
-        <v>-0.0610809492404758</v>
+        <v>-0.0613015681073477</v>
       </c>
       <c r="S227" t="n">
-        <v>-0.0723925109326546</v>
+        <v>-0.0725475116591895</v>
       </c>
       <c r="T227" t="n">
-        <v>-0.00222671263613884</v>
+        <v>-0.00222858488261831</v>
       </c>
       <c r="U227" t="n">
-        <v>-0.00987366777659905</v>
+        <v>-0.00988247690669468</v>
       </c>
       <c r="V227" t="n">
-        <v>-0.00641949186203841</v>
+        <v>-0.00642606176659591</v>
       </c>
       <c r="W227" t="n">
-        <v>-0.00722401508045198</v>
+        <v>-0.00723140835870835</v>
       </c>
       <c r="X227" t="n">
-        <v>-0.00026258398263994</v>
+        <v>-0.000327429332277272</v>
       </c>
       <c r="Y227" t="n">
-        <v>-5.10381257273806</v>
+        <v>-5.10903597082048</v>
       </c>
       <c r="Z227" t="n">
-        <v>-0.991920629870226</v>
+        <v>-0.992935791818698</v>
       </c>
       <c r="AA227" t="n">
-        <v>-32.4355735947104</v>
+        <v>-32.4687691540109</v>
       </c>
       <c r="AB227" t="n">
-        <v>-37.0825479461619</v>
+        <v>-37.1204993613192</v>
       </c>
       <c r="AC227" t="n">
-        <v>9.71830024140774</v>
+        <v>9.72788239530015</v>
       </c>
       <c r="AD227" t="n">
-        <v>-13.3848808308192</v>
+        <v>-13.3987231138543</v>
       </c>
       <c r="AE227" t="n">
-        <v>-3.66658058941151</v>
+        <v>-3.67084071855412</v>
       </c>
       <c r="AF227" t="n">
-        <v>-73.1847021302838</v>
+        <v>-73.2601092338842</v>
       </c>
       <c r="AG227" t="n">
-        <v>-18.6076396715342</v>
+        <v>-18.6323958584914</v>
       </c>
     </row>
     <row r="228">
@@ -24091,7 +24091,7 @@
         <v>261</v>
       </c>
       <c r="B228" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C228" t="n">
         <v>0</v>
@@ -24109,25 +24109,25 @@
         <v>0</v>
       </c>
       <c r="H228" t="n">
-        <v>7.4495150214336</v>
+        <v>7.45713908323512</v>
       </c>
       <c r="I228" t="n">
-        <v>3.91215399671427</v>
+        <v>3.91615781491749</v>
       </c>
       <c r="J228" t="n">
-        <v>0.203510104418812</v>
+        <v>0.203455616097685</v>
       </c>
       <c r="K228" t="n">
         <v>0</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0725424916255429</v>
+        <v>0.0725188187494703</v>
       </c>
       <c r="M228" t="n">
-        <v>-6.38101689279858</v>
+        <v>-6.38754742089434</v>
       </c>
       <c r="N228" t="n">
-        <v>-0.645209655620347</v>
+        <v>-0.645869982940344</v>
       </c>
       <c r="O228" t="n">
         <v>0</v>
@@ -24139,31 +24139,31 @@
         <v>0</v>
       </c>
       <c r="R228" t="n">
-        <v>-0.0512677812081671</v>
+        <v>-0.0513202502254431</v>
       </c>
       <c r="S228" t="n">
-        <v>-0.0620237414912851</v>
+        <v>-0.0620470869069511</v>
       </c>
       <c r="T228" t="n">
-        <v>-0.00282028254093768</v>
+        <v>-0.00282276580815021</v>
       </c>
       <c r="U228" t="n">
-        <v>-0.00673398576398523</v>
+        <v>-0.0067401067756584</v>
       </c>
       <c r="V228" t="n">
-        <v>-0.00575331375598581</v>
+        <v>-0.00575920187346902</v>
       </c>
       <c r="W228" t="n">
-        <v>-0.00609005423527493</v>
+        <v>-0.00609628698327674</v>
       </c>
       <c r="X228" t="n">
-        <v>-0.000257083888041818</v>
+        <v>-0.000259648842097867</v>
       </c>
       <c r="Y228" t="n">
-        <v>-5.05484246450805</v>
+        <v>-5.06001574508208</v>
       </c>
       <c r="Z228" t="n">
-        <v>-0.977560933496748</v>
+        <v>-0.97856139929221</v>
       </c>
       <c r="AA228" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="AC228" t="n">
-        <v>11.6377216141922</v>
+        <v>11.6492713329998</v>
       </c>
       <c r="AD228" t="n">
-        <v>-13.1935761893074</v>
+        <v>-13.207039895624</v>
       </c>
       <c r="AE228" t="n">
-        <v>-1.55585457511517</v>
+        <v>-1.55776856262425</v>
       </c>
       <c r="AF228" t="n">
-        <v>-1.55585457511517</v>
+        <v>-1.55776856262425</v>
       </c>
       <c r="AG228" t="n">
-        <v>-18.9024144581251</v>
+        <v>-18.9256729501249</v>
       </c>
     </row>
     <row r="229">
@@ -24192,7 +24192,7 @@
         <v>262</v>
       </c>
       <c r="B229" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C229" t="n">
         <v>0</v>
@@ -24210,25 +24210,25 @@
         <v>0</v>
       </c>
       <c r="H229" t="n">
-        <v>3.6884966724691</v>
+        <v>3.69227159291757</v>
       </c>
       <c r="I229" t="n">
-        <v>1.94244400486308</v>
+        <v>1.94443196154167</v>
       </c>
       <c r="J229" t="n">
-        <v>0.204845412073885</v>
+        <v>0.204794652573815</v>
       </c>
       <c r="K229" t="n">
         <v>0</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0785359114100979</v>
+        <v>0.078519252622395</v>
       </c>
       <c r="M229" t="n">
-        <v>-6.23307845165189</v>
+        <v>-6.23945757501661</v>
       </c>
       <c r="N229" t="n">
-        <v>-0.643202146827087</v>
+        <v>-0.643860419601109</v>
       </c>
       <c r="O229" t="n">
         <v>0</v>
@@ -24240,31 +24240,31 @@
         <v>0</v>
       </c>
       <c r="R229" t="n">
-        <v>-0.0474346821227481</v>
+        <v>-0.0474832282290381</v>
       </c>
       <c r="S229" t="n">
-        <v>-0.0571594585636327</v>
+        <v>-0.0571781864988972</v>
       </c>
       <c r="T229" t="n">
-        <v>-0.000297915771048229</v>
+        <v>-0.000297821194628747</v>
       </c>
       <c r="U229" t="n">
-        <v>-0.00306504171538251</v>
+        <v>-0.0030674147463155</v>
       </c>
       <c r="V229" t="n">
-        <v>-0.00318998736084214</v>
+        <v>-0.0031932520915951</v>
       </c>
       <c r="W229" t="n">
-        <v>-0.0056712417580123</v>
+        <v>-0.00567704588049948</v>
       </c>
       <c r="X229" t="n">
-        <v>-0.000252004453182972</v>
+        <v>-0.000254543515602714</v>
       </c>
       <c r="Y229" t="n">
-        <v>-5.01882654391291</v>
+        <v>-5.02396296469088</v>
       </c>
       <c r="Z229" t="n">
-        <v>-0.965195836511259</v>
+        <v>-0.966183647487806</v>
       </c>
       <c r="AA229" t="n">
         <v>0</v>
@@ -24273,19 +24273,19 @@
         <v>0</v>
       </c>
       <c r="AC229" t="n">
-        <v>5.91432200081617</v>
+        <v>5.92001745965545</v>
       </c>
       <c r="AD229" t="n">
-        <v>-12.977373310648</v>
+        <v>-12.990616098953</v>
       </c>
       <c r="AE229" t="n">
-        <v>-7.06305130983182</v>
+        <v>-7.07059863929753</v>
       </c>
       <c r="AF229" t="n">
-        <v>-7.06305130983182</v>
+        <v>-7.07059863929753</v>
       </c>
       <c r="AG229" t="n">
-        <v>-20.5470021459218</v>
+        <v>-20.5701624419977</v>
       </c>
     </row>
     <row r="230">
@@ -24293,7 +24293,7 @@
         <v>263</v>
       </c>
       <c r="B230" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C230" t="n">
         <v>0</v>
@@ -24311,25 +24311,25 @@
         <v>0</v>
       </c>
       <c r="H230" t="n">
-        <v>3.67438275212426</v>
+        <v>3.67814322795443</v>
       </c>
       <c r="I230" t="n">
-        <v>1.92423486421429</v>
+        <v>1.92620418510071</v>
       </c>
       <c r="J230" t="n">
-        <v>0.210861216229905</v>
+        <v>0.210818958159114</v>
       </c>
       <c r="K230" t="n">
         <v>0</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0783198919017364</v>
+        <v>0.0783038857304531</v>
       </c>
       <c r="M230" t="n">
-        <v>-6.23999255253099</v>
+        <v>-6.24637875199829</v>
       </c>
       <c r="N230" t="n">
-        <v>-0.641300618413374</v>
+        <v>-0.641956945104986</v>
       </c>
       <c r="O230" t="n">
         <v>0</v>
@@ -24341,31 +24341,31 @@
         <v>0</v>
       </c>
       <c r="R230" t="n">
-        <v>-0.043694143254606</v>
+        <v>-0.0437388611788707</v>
       </c>
       <c r="S230" t="n">
-        <v>-0.0515863813622249</v>
+        <v>-0.0515997637341654</v>
       </c>
       <c r="T230" t="n">
-        <v>-0.000291260502732673</v>
+        <v>-0.000291162711940699</v>
       </c>
       <c r="U230" t="n">
-        <v>-0.00136497824116449</v>
+        <v>-0.00136561825253717</v>
       </c>
       <c r="V230" t="n">
-        <v>-0.0018018637802496</v>
+        <v>-0.00180370786282129</v>
       </c>
       <c r="W230" t="n">
-        <v>-0.00523385223062858</v>
+        <v>-0.00523920871527912</v>
       </c>
       <c r="X230" t="n">
-        <v>-0.000246353835379716</v>
+        <v>-0.000248866575381462</v>
       </c>
       <c r="Y230" t="n">
-        <v>-4.98373051975877</v>
+        <v>-4.98883102219087</v>
       </c>
       <c r="Z230" t="n">
-        <v>-0.953041348816851</v>
+        <v>-0.954016720518482</v>
       </c>
       <c r="AA230" t="n">
         <v>0</v>
@@ -24374,19 +24374,19 @@
         <v>0</v>
       </c>
       <c r="AC230" t="n">
-        <v>5.88779872447019</v>
+        <v>5.89347025694471</v>
       </c>
       <c r="AD230" t="n">
-        <v>-12.922283872727</v>
+        <v>-12.9354706288436</v>
       </c>
       <c r="AE230" t="n">
-        <v>-7.03448514825678</v>
+        <v>-7.04200037189891</v>
       </c>
       <c r="AF230" t="n">
-        <v>-7.03448514825678</v>
+        <v>-7.04200037189891</v>
       </c>
       <c r="AG230" t="n">
-        <v>-22.2095232908719</v>
+        <v>-22.2326192019262</v>
       </c>
     </row>
     <row r="231">
@@ -24394,7 +24394,7 @@
         <v>264</v>
       </c>
       <c r="B231" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C231" t="n">
         <v>0</v>
@@ -24412,19 +24412,19 @@
         <v>0</v>
       </c>
       <c r="H231" t="n">
-        <v>3.62885834870484</v>
+        <v>3.63257223346645</v>
       </c>
       <c r="I231" t="n">
-        <v>1.90642107030752</v>
+        <v>1.90837216001174</v>
       </c>
       <c r="J231" t="n">
-        <v>0.211218791166407</v>
+        <v>0.211434958945499</v>
       </c>
       <c r="K231" t="n">
         <v>0</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0782565982265536</v>
+        <v>0.0783366884256524</v>
       </c>
       <c r="M231" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         <v>0</v>
       </c>
       <c r="R231" t="n">
-        <v>-0.0259900494802466</v>
+        <v>-0.0260166484927853</v>
       </c>
       <c r="S231" t="n">
-        <v>-0.0434268499974092</v>
+        <v>-0.0437706549060446</v>
       </c>
       <c r="T231" t="n">
-        <v>-0.000284912122655975</v>
+        <v>-0.000285203710447245</v>
       </c>
       <c r="U231" t="n">
-        <v>-0.0010332813506301</v>
+        <v>-0.001033713599852</v>
       </c>
       <c r="V231" t="n">
-        <v>-0.00152135873278938</v>
+        <v>-0.00152291573790551</v>
       </c>
       <c r="W231" t="n">
-        <v>-0.00311147577184435</v>
+        <v>-0.00311466015143285</v>
       </c>
       <c r="X231" t="n">
-        <v>-0.000082917942610205</v>
+        <v>-0.000243945894346533</v>
       </c>
       <c r="Y231" t="n">
         <v>0</v>
@@ -24475,19 +24475,19 @@
         <v>0</v>
       </c>
       <c r="AC231" t="n">
-        <v>5.82475480840532</v>
+        <v>5.83071604084934</v>
       </c>
       <c r="AD231" t="n">
-        <v>-0.0754508453981859</v>
+        <v>-0.075987742492814</v>
       </c>
       <c r="AE231" t="n">
-        <v>5.74930396300713</v>
+        <v>5.75472829835652</v>
       </c>
       <c r="AF231" t="n">
-        <v>5.74930396300713</v>
+        <v>5.75472829835652</v>
       </c>
       <c r="AG231" t="n">
-        <v>-2.47602176754916</v>
+        <v>-2.47890981886604</v>
       </c>
     </row>
     <row r="232">
@@ -24495,7 +24495,7 @@
         <v>265</v>
       </c>
       <c r="B232" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C232" t="n">
         <v>0</v>
@@ -24513,19 +24513,19 @@
         <v>0</v>
       </c>
       <c r="H232" t="n">
-        <v>3.58500749025487</v>
+        <v>3.58867649670509</v>
       </c>
       <c r="I232" t="n">
-        <v>1.88850323451037</v>
+        <v>1.89043598655273</v>
       </c>
       <c r="J232" t="n">
-        <v>0.212069129670361</v>
+        <v>0.212286167711918</v>
       </c>
       <c r="K232" t="n">
         <v>0</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0779285144465309</v>
+        <v>0.0780082688746421</v>
       </c>
       <c r="M232" t="n">
         <v>0</v>
@@ -24543,25 +24543,25 @@
         <v>0</v>
       </c>
       <c r="R232" t="n">
-        <v>-0.014348116367449</v>
+        <v>-0.0143628006691258</v>
       </c>
       <c r="S232" t="n">
-        <v>-0.0430621427476047</v>
+        <v>-0.0430933043477204</v>
       </c>
       <c r="T232" t="n">
-        <v>-0.000279337598189915</v>
+        <v>-0.000279623480842136</v>
       </c>
       <c r="U232" t="n">
-        <v>-0.00101767945820255</v>
+        <v>-0.00101822510965699</v>
       </c>
       <c r="V232" t="n">
-        <v>-0.00125832627961714</v>
+        <v>-0.00125961408926578</v>
       </c>
       <c r="W232" t="n">
-        <v>-0.00172060770021725</v>
+        <v>-0.00172236862282831</v>
       </c>
       <c r="X232" t="n">
-        <v>-0.0000813056032428949</v>
+        <v>-0.0000821292712246784</v>
       </c>
       <c r="Y232" t="n">
         <v>0</v>
@@ -24576,19 +24576,19 @@
         <v>0</v>
       </c>
       <c r="AC232" t="n">
-        <v>5.76350836888213</v>
+        <v>5.76940691984437</v>
       </c>
       <c r="AD232" t="n">
-        <v>-0.0617675157545235</v>
+        <v>-0.0618180655906641</v>
       </c>
       <c r="AE232" t="n">
-        <v>5.70174085312761</v>
+        <v>5.70758885425371</v>
       </c>
       <c r="AF232" t="n">
-        <v>5.70174085312761</v>
+        <v>5.70758885425371</v>
       </c>
       <c r="AG232" t="n">
-        <v>-0.661622910488465</v>
+        <v>-0.66257046464655</v>
       </c>
     </row>
     <row r="233">
@@ -24596,7 +24596,7 @@
         <v>266</v>
       </c>
       <c r="B233" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C233" t="n">
         <v>0</v>
@@ -24614,19 +24614,19 @@
         <v>0</v>
       </c>
       <c r="H233" t="n">
-        <v>3.54194159359358</v>
+        <v>3.54556652508633</v>
       </c>
       <c r="I233" t="n">
-        <v>1.87053012085925</v>
+        <v>1.8724444786667</v>
       </c>
       <c r="J233" t="n">
-        <v>0.212143487434851</v>
+        <v>0.212360601576421</v>
       </c>
       <c r="K233" t="n">
         <v>0</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0770512921203527</v>
+        <v>0.077130148772272</v>
       </c>
       <c r="M233" t="n">
         <v>0</v>
@@ -24644,25 +24644,25 @@
         <v>0</v>
       </c>
       <c r="R233" t="n">
-        <v>-0.0140803041868102</v>
+        <v>-0.0140947144013001</v>
       </c>
       <c r="S233" t="n">
-        <v>-0.0439655536457457</v>
+        <v>-0.0439977516982846</v>
       </c>
       <c r="T233" t="n">
-        <v>0.000201757887794612</v>
+        <v>0.000201964372995469</v>
       </c>
       <c r="U233" t="n">
-        <v>-0.00101167744077242</v>
+        <v>-0.00101234414072635</v>
       </c>
       <c r="V233" t="n">
-        <v>-0.000244521466260629</v>
+        <v>-0.000244771717017249</v>
       </c>
       <c r="W233" t="n">
-        <v>-0.00170061288176996</v>
+        <v>-0.00170235334107151</v>
       </c>
       <c r="X233" t="n">
-        <v>-0.0000798606087363539</v>
+        <v>-0.0000806763810526921</v>
       </c>
       <c r="Y233" t="n">
         <v>0</v>
@@ -24677,19 +24677,19 @@
         <v>0</v>
       </c>
       <c r="AC233" t="n">
-        <v>5.70166649400803</v>
+        <v>5.70750175410172</v>
       </c>
       <c r="AD233" t="n">
-        <v>-0.0608807723423007</v>
+        <v>-0.060930647306457</v>
       </c>
       <c r="AE233" t="n">
-        <v>5.64078572166573</v>
+        <v>5.64657110679527</v>
       </c>
       <c r="AF233" t="n">
-        <v>5.64078572166573</v>
+        <v>5.64657110679527</v>
       </c>
       <c r="AG233" t="n">
-        <v>2.51433634738592</v>
+        <v>2.51672197187665</v>
       </c>
     </row>
     <row r="234">
@@ -24697,7 +24697,7 @@
         <v>267</v>
       </c>
       <c r="B234" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C234" t="n">
         <v>0</v>
@@ -24715,19 +24715,19 @@
         <v>0</v>
       </c>
       <c r="H234" t="n">
-        <v>3.53674909321989</v>
+        <v>3.54036871054874</v>
       </c>
       <c r="I234" t="n">
-        <v>1.85087544179138</v>
+        <v>1.85276968439838</v>
       </c>
       <c r="J234" t="n">
-        <v>0.212155656068045</v>
+        <v>0.212372782663367</v>
       </c>
       <c r="K234" t="n">
         <v>0</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0762686942321425</v>
+        <v>0.0763467499494172</v>
       </c>
       <c r="M234" t="n">
         <v>0</v>
@@ -24745,25 +24745,25 @@
         <v>0</v>
       </c>
       <c r="R234" t="n">
-        <v>-0.011075958682872</v>
+        <v>-0.0110872941581702</v>
       </c>
       <c r="S234" t="n">
-        <v>-0.0427124436743467</v>
+        <v>-0.0427434706441616</v>
       </c>
       <c r="T234" t="n">
-        <v>0.000197993569335178</v>
+        <v>0.000198196202017248</v>
       </c>
       <c r="U234" t="n">
-        <v>-0.00101567675445082</v>
+        <v>-0.00101647258062486</v>
       </c>
       <c r="V234" t="n">
         <v>0</v>
       </c>
       <c r="W234" t="n">
-        <v>-0.00133774936706897</v>
+        <v>-0.0013391184607375</v>
       </c>
       <c r="X234" t="n">
-        <v>-0.0000781239682923242</v>
+        <v>-0.0000789315743194783</v>
       </c>
       <c r="Y234" t="n">
         <v>0</v>
@@ -24778,19 +24778,19 @@
         <v>0</v>
       </c>
       <c r="AC234" t="n">
-        <v>5.67604888531145</v>
+        <v>5.68185792755991</v>
       </c>
       <c r="AD234" t="n">
-        <v>-0.0560219588776956</v>
+        <v>-0.0560670912159963</v>
       </c>
       <c r="AE234" t="n">
-        <v>5.62002692643375</v>
+        <v>5.62579083634391</v>
       </c>
       <c r="AF234" t="n">
-        <v>5.62002692643375</v>
+        <v>5.62579083634391</v>
       </c>
       <c r="AG234" t="n">
-        <v>5.67796436605856</v>
+        <v>5.68366977393735</v>
       </c>
     </row>
     <row r="235">
@@ -24798,7 +24798,7 @@
         <v>268</v>
       </c>
       <c r="B235" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C235" t="n">
         <v>0</v>
@@ -24822,13 +24822,13 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>0.212184666833026</v>
+        <v>0.212401823118853</v>
       </c>
       <c r="K235" t="n">
         <v>0</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0754831207954428</v>
+        <v>0.0755603725328056</v>
       </c>
       <c r="M235" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="S235" t="n">
-        <v>-0.0319518157034457</v>
+        <v>-0.0321353475518663</v>
       </c>
       <c r="T235" t="n">
-        <v>0.000194276032745992</v>
+        <v>0.000194474860787273</v>
       </c>
       <c r="U235" t="n">
-        <v>-0.000599872205572972</v>
+        <v>-0.000600365375839933</v>
       </c>
       <c r="V235" t="n">
         <v>0</v>
@@ -24864,7 +24864,7 @@
         <v>0</v>
       </c>
       <c r="X235" t="n">
-        <v>0</v>
+        <v>-0.0000773494265437505</v>
       </c>
       <c r="Y235" t="n">
         <v>0</v>
@@ -24879,19 +24879,19 @@
         <v>0</v>
       </c>
       <c r="AC235" t="n">
-        <v>0.287667787628469</v>
+        <v>0.287962195651659</v>
       </c>
       <c r="AD235" t="n">
-        <v>-0.0323574118762727</v>
+        <v>-0.0326185874934627</v>
       </c>
       <c r="AE235" t="n">
-        <v>0.255310375752196</v>
+        <v>0.255343608158196</v>
       </c>
       <c r="AF235" t="n">
-        <v>0.255310375752196</v>
+        <v>0.255343608158196</v>
       </c>
       <c r="AG235" t="n">
-        <v>4.30446596924482</v>
+        <v>4.30882360138777</v>
       </c>
     </row>
     <row r="236">
@@ -24899,7 +24899,7 @@
         <v>269</v>
       </c>
       <c r="B236" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C236" t="n">
         <v>0</v>
@@ -24923,13 +24923,13 @@
         <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>0.212245223050373</v>
+        <v>0.212462441311288</v>
       </c>
       <c r="K236" t="n">
         <v>0</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0744670831559213</v>
+        <v>0.0745432950492494</v>
       </c>
       <c r="M236" t="n">
         <v>0</v>
@@ -24950,13 +24950,13 @@
         <v>0</v>
       </c>
       <c r="S236" t="n">
-        <v>-0.0315659597119268</v>
+        <v>-0.0315982652817492</v>
       </c>
       <c r="T236" t="n">
-        <v>0.000190618496672512</v>
+        <v>0.00019081358147937</v>
       </c>
       <c r="U236" t="n">
-        <v>-0.000597465951939578</v>
+        <v>-0.000598077416891159</v>
       </c>
       <c r="V236" t="n">
         <v>0</v>
@@ -24980,19 +24980,19 @@
         <v>0</v>
       </c>
       <c r="AC236" t="n">
-        <v>0.286712306206294</v>
+        <v>0.287005736360537</v>
       </c>
       <c r="AD236" t="n">
-        <v>-0.0319728071671939</v>
+        <v>-0.032005529117161</v>
       </c>
       <c r="AE236" t="n">
-        <v>0.2547394990391</v>
+        <v>0.255000207243376</v>
       </c>
       <c r="AF236" t="n">
-        <v>0.2547394990391</v>
+        <v>0.255000207243376</v>
       </c>
       <c r="AG236" t="n">
-        <v>2.94271563072269</v>
+        <v>2.94567643963519</v>
       </c>
     </row>
     <row r="237">
@@ -25000,7 +25000,7 @@
         <v>270</v>
       </c>
       <c r="B237" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C237" t="n">
         <v>0</v>
@@ -25024,13 +25024,13 @@
         <v>0</v>
       </c>
       <c r="J237" t="n">
-        <v>0.212330161489519</v>
+        <v>0.212547466679033</v>
       </c>
       <c r="K237" t="n">
         <v>0</v>
       </c>
       <c r="L237" t="n">
-        <v>0.073087878252101</v>
+        <v>0.0731626786248947</v>
       </c>
       <c r="M237" t="n">
         <v>0</v>
@@ -25051,13 +25051,13 @@
         <v>0</v>
       </c>
       <c r="S237" t="n">
-        <v>-0.0328780460871357</v>
+        <v>-0.0329116944863349</v>
       </c>
       <c r="T237" t="n">
-        <v>0.000440076988060572</v>
+        <v>0.000440527376326754</v>
       </c>
       <c r="U237" t="n">
-        <v>-0.000597571135814069</v>
+        <v>-0.000598182708414049</v>
       </c>
       <c r="V237" t="n">
         <v>0</v>
@@ -25081,19 +25081,19 @@
         <v>0</v>
       </c>
       <c r="AC237" t="n">
-        <v>0.28541803974162</v>
+        <v>0.285710145303928</v>
       </c>
       <c r="AD237" t="n">
-        <v>-0.0330355402348892</v>
+        <v>-0.0330693498184222</v>
       </c>
       <c r="AE237" t="n">
-        <v>0.252382499506731</v>
+        <v>0.252640795485506</v>
       </c>
       <c r="AF237" t="n">
-        <v>0.252382499506731</v>
+        <v>0.252640795485506</v>
       </c>
       <c r="AG237" t="n">
-        <v>1.59561482518294</v>
+        <v>1.59719386180775</v>
       </c>
     </row>
     <row r="238">
@@ -25101,7 +25101,7 @@
         <v>271</v>
       </c>
       <c r="B238" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C238" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
-        <v>0.212436676767511</v>
+        <v>0.212654090968023</v>
       </c>
       <c r="K238" t="n">
         <v>0</v>
       </c>
       <c r="L238" t="n">
-        <v>0.0713795266575163</v>
+        <v>0.0714525786509729</v>
       </c>
       <c r="M238" t="n">
         <v>0</v>
@@ -25152,13 +25152,13 @@
         <v>0</v>
       </c>
       <c r="S238" t="n">
-        <v>-0.0320051888249726</v>
+        <v>-0.0320379439153199</v>
       </c>
       <c r="T238" t="n">
         <v>0</v>
       </c>
       <c r="U238" t="n">
-        <v>-0.000498821898175628</v>
+        <v>-0.000499332407781784</v>
       </c>
       <c r="V238" t="n">
         <v>0</v>
@@ -25182,19 +25182,19 @@
         <v>0</v>
       </c>
       <c r="AC238" t="n">
-        <v>0.283816203425027</v>
+        <v>0.284106669618995</v>
       </c>
       <c r="AD238" t="n">
-        <v>-0.0325040107231482</v>
+        <v>-0.0325372763231017</v>
       </c>
       <c r="AE238" t="n">
-        <v>0.251312192701879</v>
+        <v>0.251569393295894</v>
       </c>
       <c r="AF238" t="n">
-        <v>0.251312192701879</v>
+        <v>0.251569393295894</v>
       </c>
       <c r="AG238" t="n">
-        <v>0.253436141749976</v>
+        <v>0.253638501045744</v>
       </c>
     </row>
     <row r="239">
@@ -25202,7 +25202,7 @@
         <v>272</v>
       </c>
       <c r="B239" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C239" t="n">
         <v>0</v>
@@ -25253,13 +25253,13 @@
         <v>0</v>
       </c>
       <c r="S239" t="n">
-        <v>-0.0101298328833171</v>
+        <v>-0.0101402000644985</v>
       </c>
       <c r="T239" t="n">
         <v>0</v>
       </c>
       <c r="U239" t="n">
-        <v>-0.000393850137066904</v>
+        <v>-0.000394253215358161</v>
       </c>
       <c r="V239" t="n">
         <v>0</v>
@@ -25286,16 +25286,16 @@
         <v>0</v>
       </c>
       <c r="AD239" t="n">
-        <v>-0.010523683020384</v>
+        <v>-0.0105344532798567</v>
       </c>
       <c r="AE239" t="n">
-        <v>-0.010523683020384</v>
+        <v>-0.0105344532798567</v>
       </c>
       <c r="AF239" t="n">
-        <v>-0.010523683020384</v>
+        <v>-0.0105344532798567</v>
       </c>
       <c r="AG239" t="n">
-        <v>0.186977627056831</v>
+        <v>0.187168985686231</v>
       </c>
     </row>
     <row r="240">
@@ -25303,7 +25303,7 @@
         <v>273</v>
       </c>
       <c r="B240" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C240" t="n">
         <v>0</v>
@@ -25354,13 +25354,13 @@
         <v>0</v>
       </c>
       <c r="S240" t="n">
-        <v>-0.0100390605961659</v>
+        <v>-0.010049334878209</v>
       </c>
       <c r="T240" t="n">
         <v>0</v>
       </c>
       <c r="U240" t="n">
-        <v>-0.000291753106598129</v>
+        <v>-0.000292051695661858</v>
       </c>
       <c r="V240" t="n">
         <v>0</v>
@@ -25387,16 +25387,16 @@
         <v>0</v>
       </c>
       <c r="AD240" t="n">
-        <v>-0.010330813702764</v>
+        <v>-0.0103413865738709</v>
       </c>
       <c r="AE240" t="n">
-        <v>-0.010330813702764</v>
+        <v>-0.0103413865738709</v>
       </c>
       <c r="AF240" t="n">
-        <v>-0.010330813702764</v>
+        <v>-0.0103413865738709</v>
       </c>
       <c r="AG240" t="n">
-        <v>0.120710048871365</v>
+        <v>0.120833587231919</v>
       </c>
     </row>
     <row r="241">
@@ -25404,7 +25404,7 @@
         <v>274</v>
       </c>
       <c r="B241" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C241" t="n">
         <v>0</v>
@@ -25455,13 +25455,13 @@
         <v>0</v>
       </c>
       <c r="S241" t="n">
-        <v>-0.0103973296646899</v>
+        <v>-0.0104079706102691</v>
       </c>
       <c r="T241" t="n">
         <v>0</v>
       </c>
       <c r="U241" t="n">
-        <v>-0.000192500948243721</v>
+        <v>-0.000192697959609164</v>
       </c>
       <c r="V241" t="n">
         <v>0</v>
@@ -25488,16 +25488,16 @@
         <v>0</v>
       </c>
       <c r="AD241" t="n">
-        <v>-0.0105898306129336</v>
+        <v>-0.0106006685698782</v>
       </c>
       <c r="AE241" t="n">
-        <v>-0.0105898306129336</v>
+        <v>-0.0106006685698782</v>
       </c>
       <c r="AF241" t="n">
-        <v>-0.0105898306129336</v>
+        <v>-0.0106006685698782</v>
       </c>
       <c r="AG241" t="n">
-        <v>0.0549669663414493</v>
+        <v>0.0550232212180733</v>
       </c>
     </row>
     <row r="242">
@@ -25505,7 +25505,7 @@
         <v>275</v>
       </c>
       <c r="B242" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C242" t="n">
         <v>0</v>
@@ -25556,13 +25556,13 @@
         <v>0</v>
       </c>
       <c r="S242" t="n">
-        <v>-0.0100787888891693</v>
+        <v>-0.0100891038303641</v>
       </c>
       <c r="T242" t="n">
         <v>0</v>
       </c>
       <c r="U242" t="n">
-        <v>-0.0000960396789392872</v>
+        <v>-0.0000961379688877636</v>
       </c>
       <c r="V242" t="n">
         <v>0</v>
@@ -25589,16 +25589,16 @@
         <v>0</v>
       </c>
       <c r="AD242" t="n">
-        <v>-0.0101748285681086</v>
+        <v>-0.0101852417992518</v>
       </c>
       <c r="AE242" t="n">
-        <v>-0.0101748285681086</v>
+        <v>-0.0101852417992518</v>
       </c>
       <c r="AF242" t="n">
-        <v>-0.0101748285681086</v>
+        <v>-0.0101852417992518</v>
       </c>
       <c r="AG242" t="n">
-        <v>-0.0104047889760476</v>
+        <v>-0.010415437555713</v>
       </c>
     </row>
     <row r="243">
@@ -25606,7 +25606,7 @@
         <v>276</v>
       </c>
       <c r="B243" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C243" t="n">
         <v>0</v>
@@ -25699,7 +25699,7 @@
         <v>0</v>
       </c>
       <c r="AG243" t="n">
-        <v>-0.00777386822095162</v>
+        <v>-0.00778182423574885</v>
       </c>
     </row>
     <row r="244">
@@ -25707,7 +25707,7 @@
         <v>277</v>
       </c>
       <c r="B244" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C244" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="AG244" t="n">
-        <v>-0.00519116479526061</v>
+        <v>-0.00519647759228114</v>
       </c>
     </row>
     <row r="245">
@@ -25808,7 +25808,7 @@
         <v>278</v>
       </c>
       <c r="B245" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C245" t="n">
         <v>0</v>
@@ -25901,7 +25901,7 @@
         <v>0</v>
       </c>
       <c r="AG245" t="n">
-        <v>-0.00254370714202721</v>
+        <v>-0.00254631044981158</v>
       </c>
     </row>
     <row r="246">
@@ -25909,7 +25909,7 @@
         <v>279</v>
       </c>
       <c r="B246" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C246" t="n">
         <v>0</v>
@@ -26002,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="AG246" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="247">
@@ -26010,7 +26010,7 @@
         <v>280</v>
       </c>
       <c r="B247" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C247" t="n">
         <v>0</v>
@@ -26103,7 +26103,7 @@
         <v>0</v>
       </c>
       <c r="AG247" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="248">
@@ -26111,7 +26111,7 @@
         <v>281</v>
       </c>
       <c r="B248" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C248" t="n">
         <v>0</v>
@@ -26204,7 +26204,7 @@
         <v>0</v>
       </c>
       <c r="AG248" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="249">
@@ -26212,7 +26212,7 @@
         <v>282</v>
       </c>
       <c r="B249" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C249" t="n">
         <v>0</v>
@@ -26305,7 +26305,7 @@
         <v>0</v>
       </c>
       <c r="AG249" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="250">
@@ -26313,7 +26313,7 @@
         <v>283</v>
       </c>
       <c r="B250" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C250" t="n">
         <v>0</v>
@@ -26406,7 +26406,7 @@
         <v>0</v>
       </c>
       <c r="AG250" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="251">
@@ -26414,7 +26414,7 @@
         <v>284</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C251" t="n">
         <v>0</v>
@@ -26507,7 +26507,7 @@
         <v>0</v>
       </c>
       <c r="AG251" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="252">
@@ -26515,7 +26515,7 @@
         <v>285</v>
       </c>
       <c r="B252" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C252" t="n">
         <v>0</v>
@@ -26608,7 +26608,7 @@
         <v>0</v>
       </c>
       <c r="AG252" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="253">
@@ -26616,7 +26616,7 @@
         <v>286</v>
       </c>
       <c r="B253" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C253" t="n">
         <v>0</v>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="AG253" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="254">
@@ -26717,7 +26717,7 @@
         <v>287</v>
       </c>
       <c r="B254" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C254" t="n">
         <v>0</v>
@@ -26810,7 +26810,7 @@
         <v>0</v>
       </c>
       <c r="AG254" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="255">
@@ -26818,7 +26818,7 @@
         <v>288</v>
       </c>
       <c r="B255" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C255" t="n">
         <v>0</v>
@@ -26911,7 +26911,7 @@
         <v>0</v>
       </c>
       <c r="AG255" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="256">
@@ -26919,7 +26919,7 @@
         <v>289</v>
       </c>
       <c r="B256" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C256" t="n">
         <v>0</v>
@@ -27012,7 +27012,7 @@
         <v>0</v>
       </c>
       <c r="AG256" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="257">
@@ -27020,7 +27020,7 @@
         <v>290</v>
       </c>
       <c r="B257" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C257" t="n">
         <v>0</v>
@@ -27113,7 +27113,7 @@
         <v>0</v>
       </c>
       <c r="AG257" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="258">
@@ -27121,7 +27121,7 @@
         <v>291</v>
       </c>
       <c r="B258" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C258" t="n">
         <v>0</v>
@@ -27214,7 +27214,7 @@
         <v>0</v>
       </c>
       <c r="AG258" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="259">
@@ -27222,7 +27222,7 @@
         <v>292</v>
       </c>
       <c r="B259" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C259" t="n">
         <v>0</v>
@@ -27315,7 +27315,7 @@
         <v>0</v>
       </c>
       <c r="AG259" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
     <row r="260">
@@ -27323,7 +27323,7 @@
         <v>293</v>
       </c>
       <c r="B260" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C260" t="n">
         <v>0</v>
@@ -27416,7 +27416,7 @@
         <v>0</v>
       </c>
       <c r="AG260" t="n">
-        <v>-0.0000000000000000503069808033274</v>
+        <v>0.00000000000000137693675905659</v>
       </c>
     </row>
   </sheetData>

--- a/results/07-2024/beta/contributions-07-2024.xlsx
+++ b/results/07-2024/beta/contributions-07-2024.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoja\dev\FIM\results\07-2024\beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{374AACC6-FE3D-4660-8874-B5CA6517B7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC3B58A-7E81-4228-877F-3507F8CBD935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3390" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="297">
   <si>
     <t>date</t>
   </si>
@@ -903,6 +916,15 @@
   <si>
     <t>2034 Q3</t>
   </si>
+  <si>
+    <t>taxes</t>
+  </si>
+  <si>
+    <t>transfers</t>
+  </si>
+  <si>
+    <t>purchases</t>
+  </si>
 </sst>
 </file>
 
@@ -925,12 +947,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -945,12 +973,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -966,6 +996,1520 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet 1'!$A$118:$A$226</c:f>
+              <c:strCache>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>1999 Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1999 Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1999 Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999 Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000 Q1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000 Q2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000 Q3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2000 Q4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2001 Q1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2001 Q2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2001 Q3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2001 Q4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2002 Q1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2002 Q2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2002 Q3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2002 Q4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2003 Q1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2003 Q2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2003 Q3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2003 Q4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2004 Q1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2004 Q2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2004 Q3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2004 Q4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2005 Q1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005 Q2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2005 Q3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2005 Q4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2006 Q1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2006 Q2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2006 Q3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2006 Q4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2007 Q1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2007 Q2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2007 Q3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2007 Q4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2008 Q1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2008 Q2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2008 Q3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2008 Q4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2009 Q1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2009 Q2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2009 Q3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2009 Q4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2010 Q1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2010 Q2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2010 Q3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2010 Q4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2011 Q1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011 Q2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2011 Q3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2011 Q4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2012 Q1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2012 Q2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2012 Q3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2012 Q4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2013 Q1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2013 Q2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2013 Q3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2013 Q4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2014 Q1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2014 Q2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2014 Q3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2014 Q4</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2015 Q1</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2015 Q2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2015 Q3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2015 Q4</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2016 Q1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2016 Q2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2016 Q3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2016 Q4</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2017 Q1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2017 Q2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2017 Q3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2017 Q4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2018 Q1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2018 Q2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2018 Q3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2018 Q4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2019 Q1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2019 Q2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2019 Q3</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2019 Q4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2020 Q1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2020 Q2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2020 Q3</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2020 Q4</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2021 Q1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2021 Q2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2021 Q3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2021 Q4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2022 Q1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2022 Q2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2022 Q3</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2022 Q4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2023 Q1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2023 Q2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2023 Q3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2023 Q4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2024 Q1</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2024 Q2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2024 Q3</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2024 Q4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2025 Q1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2025 Q2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2025 Q3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2025 Q4</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2026 Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet 1'!$AG$117:$AG$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>-0.878002041870376</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.62451083333410395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.804351614971206</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.63007617754999801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.39493656859412901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.669439108656252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.54353916298458504</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.76958554611128005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.82753085657738501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.20305771141961701</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.10772518922584701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.53006044976175903</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.02547498866681</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.38998145113688</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.6282198999637401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.8159423337893601</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6667322001760001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.32536961460698</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1846565048479001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0009096743148</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86901003763364204</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.694660666960492</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.34838146203421999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.4719155523004103E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.21725615701624701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.39485281756041002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.644596676002128</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.71811933546429696</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.79453206135004895</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.66891278343862404</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.67525902306837304</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.71301206242681103</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.55016061526008797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.677534262407816</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.41597203256381299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.245308838255449</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.2810491213219201E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.8346934059760198E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.714578281301818</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1275821695286199</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3448012660711699</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1810294014909601</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.1755523713942102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.3986535648379999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.6240563873557901</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1715436754222499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.82596025421214</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.29286652267334</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.788786333634524</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.9903065841844701E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.62140848518054403</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.2150699699455001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.51010120204523</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.48491412322974</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.4880637595367401</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.1931053136635099</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.34466461799679</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.46095083962633</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.4433476392940101</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.4886761521159799</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.4332553122288301</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.2891711901379801</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.14677972036988</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.91186775179969504</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.70764971788959996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.36278009946733603</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.103009928978021</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-6.9642260017968902E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.19508943942569E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.10910306042437</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-6.4164516420920401E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-8.5524995448747101E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.104239486120491</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.27143492884703901</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.171952141229093</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.18222972189161099</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-8.5947076596532196E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-2.64766959336796E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.8937955495017203E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.1767584425074</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>8.6740731706107299E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.28423328270884801</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.36595873023476799</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.45688807188180303</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.60318122254769602</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.54247135811618996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.8524246988152302</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.3677265654337498</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.3893299987914798</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.2265350132628701</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.17083630261236</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.20633775097170201</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-6.4328321473236194E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-2.9143988061179198</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-3.4809074504106499</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-3.3197260181094701</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-2.7086739544471601</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-1.7964252022868501</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.73868968017418901</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-8.8817960160580106E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.7703332922429105E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.4185756637695403E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8.7407479180845293E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.100278871413472</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-8.3394881334591997E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.13305209920910799</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.22833805070117899</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.24603293506985899</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.42974772428299202</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.45617076850865201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DEDD-492C-835F-49AE7BF027C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1421742384"/>
+        <c:axId val="1421746704"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1421742384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1421746704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1421746704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1421742384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C86EE45-1297-034E-ADFB-2719D691C412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1247,13 +2791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG260"/>
+  <dimension ref="A1:AK260"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L175" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="W205" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA1" sqref="AA1"/>
+      <selection pane="bottomRight" activeCell="AF221" sqref="AF221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1261,7 +2805,7 @@
     <col min="1" max="1" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="2" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1361,8 +2905,17 @@
       <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="AI1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>296</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
@@ -1373,7 +2926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -1470,8 +3023,20 @@
       <c r="AF3">
         <v>-6.74292076780951</v>
       </c>
+      <c r="AI3">
+        <f>AC3</f>
+        <v>-11.2455612642545</v>
+      </c>
+      <c r="AJ3">
+        <f>AD3</f>
+        <v>6.3634931983265703</v>
+      </c>
+      <c r="AK3">
+        <f>AB3+AA3</f>
+        <v>-1.8608527018815542</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
@@ -1568,8 +3133,20 @@
       <c r="AF4">
         <v>0.201423999284668</v>
       </c>
+      <c r="AI4">
+        <f t="shared" ref="AI4:AI67" si="0">AC4</f>
+        <v>-5.4167636002562896</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" ref="AJ4:AJ67" si="1">AD4</f>
+        <v>5.9696325851595402</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" ref="AK4:AK67" si="2">AB4+AA4</f>
+        <v>-0.35144498561857995</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -1666,8 +3243,20 @@
       <c r="AF5">
         <v>0.113766380313492</v>
       </c>
+      <c r="AI5">
+        <f t="shared" si="0"/>
+        <v>-5.1536206617918499</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="1"/>
+        <v>5.9613793295636102</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="2"/>
+        <v>-0.69399228745826824</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>38</v>
       </c>
@@ -1767,8 +3356,20 @@
       <c r="AG6">
         <v>-3.2615657751085601</v>
       </c>
+      <c r="AI6">
+        <f t="shared" si="0"/>
+        <v>-5.4146335435458299</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="1"/>
+        <v>0.98428099515588996</v>
+      </c>
+      <c r="AK6">
+        <f t="shared" si="2"/>
+        <v>-2.188180163832929</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -1868,8 +3469,20 @@
       <c r="AG7">
         <v>-2.9290415836008399</v>
       </c>
+      <c r="AI7">
+        <f t="shared" si="0"/>
+        <v>-5.1457374426083602</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="1"/>
+        <v>0.69449880851628798</v>
+      </c>
+      <c r="AK7">
+        <f t="shared" si="2"/>
+        <v>-0.96158536768659597</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
@@ -1969,8 +3582,20 @@
       <c r="AG8">
         <v>-4.3170125964636199</v>
       </c>
+      <c r="AI8">
+        <f t="shared" si="0"/>
+        <v>-5.0934746628844296</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="1"/>
+        <v>0.61519692692026196</v>
+      </c>
+      <c r="AK8">
+        <f t="shared" si="2"/>
+        <v>-0.87218231620224729</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>41</v>
       </c>
@@ -2070,8 +3695,20 @@
       <c r="AG9">
         <v>-5.8858483287118402</v>
       </c>
+      <c r="AI9">
+        <f t="shared" si="0"/>
+        <v>-5.2212731843447102</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="1"/>
+        <v>0.50949613836464902</v>
+      </c>
+      <c r="AK9">
+        <f t="shared" si="2"/>
+        <v>-1.449799502699336</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
@@ -2171,8 +3808,20 @@
       <c r="AG10">
         <v>-4.3891559168744996</v>
       </c>
+      <c r="AI10">
+        <f t="shared" si="0"/>
+        <v>-0.83651249672733197</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="1"/>
+        <v>0.47919007198284602</v>
+      </c>
+      <c r="AK10">
+        <f t="shared" si="2"/>
+        <v>-0.27444064012902919</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>43</v>
       </c>
@@ -2272,8 +3921,20 @@
       <c r="AG11">
         <v>-3.3897703158857402</v>
       </c>
+      <c r="AI11">
+        <f t="shared" si="0"/>
+        <v>-1.13165674392666</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="1"/>
+        <v>8.4190981144059401E-2</v>
+      </c>
+      <c r="AK11">
+        <f t="shared" si="2"/>
+        <v>-0.36781583504101045</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
@@ -2373,8 +4034,20 @@
       <c r="AG12">
         <v>-2.8119947426177299</v>
       </c>
+      <c r="AI12">
+        <f t="shared" si="0"/>
+        <v>-0.71668169246445801</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="1"/>
+        <v>5.4291470973994498E-2</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="2"/>
+        <v>-2.376967537603949</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>45</v>
       </c>
@@ -2474,8 +4147,20 @@
       <c r="AG13">
         <v>-1.31135957592422</v>
       </c>
+      <c r="AI13">
+        <f t="shared" si="0"/>
+        <v>-0.83187276871895699</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="1"/>
+        <v>0.60027829107073705</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="2"/>
+        <v>7.2558595742863941E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>46</v>
       </c>
@@ -2575,8 +4260,20 @@
       <c r="AG14">
         <v>-1.19408724654513</v>
       </c>
+      <c r="AI14">
+        <f t="shared" si="0"/>
+        <v>-0.70336055804495801</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="1"/>
+        <v>0.44761732432503198</v>
+      </c>
+      <c r="AK14">
+        <f t="shared" si="2"/>
+        <v>9.3069486362769002E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>47</v>
       </c>
@@ -2676,8 +4373,20 @@
       <c r="AG15">
         <v>-1.13974964942989</v>
       </c>
+      <c r="AI15">
+        <f t="shared" si="0"/>
+        <v>-0.24351753685633701</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="1"/>
+        <v>0.39704545923571799</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="2"/>
+        <v>-1.3514591317420219</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>48</v>
       </c>
@@ -2777,8 +4486,20 @@
       <c r="AG16">
         <v>-0.76739503332159598</v>
       </c>
+      <c r="AI16">
+        <f t="shared" si="0"/>
+        <v>-0.14434364498431501</v>
+      </c>
+      <c r="AJ16">
+        <f t="shared" si="1"/>
+        <v>0.37659877977740602</v>
+      </c>
+      <c r="AK16">
+        <f t="shared" si="2"/>
+        <v>-1.7821944294543171</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,8 +4599,20 @@
       <c r="AG17">
         <v>-0.82526028205345303</v>
       </c>
+      <c r="AI17">
+        <f t="shared" si="0"/>
+        <v>-0.104162335376608</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" si="1"/>
+        <v>-0.21530944221451701</v>
+      </c>
+      <c r="AK17">
+        <f t="shared" si="2"/>
+        <v>-7.102509924165909E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>50</v>
       </c>
@@ -2979,8 +4712,20 @@
       <c r="AG18">
         <v>-0.48660779325060899</v>
       </c>
+      <c r="AI18">
+        <f t="shared" si="0"/>
+        <v>0.69814694015645296</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="1"/>
+        <v>-0.30803861529488302</v>
+      </c>
+      <c r="AK18">
+        <f t="shared" si="2"/>
+        <v>0.80182788299264907</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>51</v>
       </c>
@@ -3080,8 +4825,20 @@
       <c r="AG19">
         <v>-0.11415366202213301</v>
       </c>
+      <c r="AI19">
+        <f t="shared" si="0"/>
+        <v>0.54414778667441399</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="1"/>
+        <v>5.9054682394362297E-2</v>
+      </c>
+      <c r="AK19">
+        <f t="shared" si="2"/>
+        <v>-0.31131715351751399</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>52</v>
       </c>
@@ -3181,8 +4938,20 @@
       <c r="AG20">
         <v>0.28731860212458799</v>
       </c>
+      <c r="AI20">
+        <f t="shared" si="0"/>
+        <v>0.319760876057197</v>
+      </c>
+      <c r="AJ20">
+        <f t="shared" si="1"/>
+        <v>0.32015078657801999</v>
+      </c>
+      <c r="AK20">
+        <f t="shared" si="2"/>
+        <v>-0.583961900709557</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>53</v>
       </c>
@@ -3282,8 +5051,20 @@
       <c r="AG21">
         <v>0.57161780473008295</v>
       </c>
+      <c r="AI21">
+        <f t="shared" si="0"/>
+        <v>0.48638629393889199</v>
+      </c>
+      <c r="AJ21">
+        <f t="shared" si="1"/>
+        <v>0.53966826888525998</v>
+      </c>
+      <c r="AK21">
+        <f t="shared" si="2"/>
+        <v>-0.27935462923495902</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>54</v>
       </c>
@@ -3383,8 +5164,20 @@
       <c r="AG22">
         <v>0.75403533982369997</v>
       </c>
+      <c r="AI22">
+        <f t="shared" si="0"/>
+        <v>0.52391911910517197</v>
+      </c>
+      <c r="AJ22">
+        <f t="shared" si="1"/>
+        <v>1.14983916677562</v>
+      </c>
+      <c r="AK22">
+        <f t="shared" si="2"/>
+        <v>0.24784806234789492</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>55</v>
       </c>
@@ -3484,8 +5277,20 @@
       <c r="AG23">
         <v>1.05184410933275</v>
       </c>
+      <c r="AI23">
+        <f t="shared" si="0"/>
+        <v>1.23585145060781</v>
+      </c>
+      <c r="AJ23">
+        <f t="shared" si="1"/>
+        <v>1.7499382279387301</v>
+      </c>
+      <c r="AK23">
+        <f t="shared" si="2"/>
+        <v>-1.5026692849590861</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -3585,8 +5390,20 @@
       <c r="AG24">
         <v>1.66150386565013</v>
       </c>
+      <c r="AI24">
+        <f t="shared" si="0"/>
+        <v>0.52214182748068905</v>
+      </c>
+      <c r="AJ24">
+        <f t="shared" si="1"/>
+        <v>0.95885972733519398</v>
+      </c>
+      <c r="AK24">
+        <f t="shared" si="2"/>
+        <v>1.0135872323793231</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>57</v>
       </c>
@@ -3686,8 +5503,20 @@
       <c r="AG25">
         <v>1.5777797016408399</v>
       </c>
+      <c r="AI25">
+        <f t="shared" si="0"/>
+        <v>-0.193386885449193</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" si="1"/>
+        <v>0.48943512499370401</v>
+      </c>
+      <c r="AK25">
+        <f t="shared" si="2"/>
+        <v>0.11575503800751702</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -3787,8 +5616,20 @@
       <c r="AG26">
         <v>1.0442839834614901</v>
       </c>
+      <c r="AI26">
+        <f t="shared" si="0"/>
+        <v>-0.16034728966400999</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="1"/>
+        <v>0.48820369664742502</v>
+      </c>
+      <c r="AK26">
+        <f t="shared" si="2"/>
+        <v>-0.54023293147211804</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -3888,8 +5729,20 @@
       <c r="AG27">
         <v>0.17547730254204399</v>
       </c>
+      <c r="AI27">
+        <f t="shared" si="0"/>
+        <v>-0.28441916521430499</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="1"/>
+        <v>-5.47894276141008E-2</v>
+      </c>
+      <c r="AK27">
+        <f t="shared" si="2"/>
+        <v>-1.6528977372619509</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
@@ -3989,8 +5842,20 @@
       <c r="AG28">
         <v>-0.67562776129075597</v>
       </c>
+      <c r="AI28">
+        <f t="shared" si="0"/>
+        <v>9.0405054261136597E-2</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="1"/>
+        <v>-7.02389651265721E-2</v>
+      </c>
+      <c r="AK28">
+        <f t="shared" si="2"/>
+        <v>-0.92999755727055922</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>61</v>
       </c>
@@ -4090,8 +5955,20 @@
       <c r="AG29">
         <v>-0.979537776383409</v>
       </c>
+      <c r="AI29">
+        <f t="shared" si="0"/>
+        <v>6.1580524088740297E-2</v>
+      </c>
+      <c r="AJ29">
+        <f t="shared" si="1"/>
+        <v>-0.15010784885826101</v>
+      </c>
+      <c r="AK29">
+        <f t="shared" si="2"/>
+        <v>-0.71530945804906199</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -4191,8 +6068,20 @@
       <c r="AG30">
         <v>-1.00441940551725</v>
       </c>
+      <c r="AI30">
+        <f t="shared" si="0"/>
+        <v>-2.0594499185841199E-2</v>
+      </c>
+      <c r="AJ30">
+        <f t="shared" si="1"/>
+        <v>-0.34761354987078402</v>
+      </c>
+      <c r="AK30">
+        <f t="shared" si="2"/>
+        <v>5.6305008032556003E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>63</v>
       </c>
@@ -4292,8 +6181,20 @@
       <c r="AG31">
         <v>-0.70172699937482796</v>
       </c>
+      <c r="AI31">
+        <f t="shared" si="0"/>
+        <v>-0.60676936300671802</v>
+      </c>
+      <c r="AJ31">
+        <f t="shared" si="1"/>
+        <v>-0.25483184120443397</v>
+      </c>
+      <c r="AK31">
+        <f t="shared" si="2"/>
+        <v>8.0264498690492597E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
@@ -4393,8 +6294,20 @@
       <c r="AG32">
         <v>-0.68486506213640497</v>
       </c>
+      <c r="AI32">
+        <f t="shared" si="0"/>
+        <v>-0.198517105434212</v>
+      </c>
+      <c r="AJ32">
+        <f t="shared" si="1"/>
+        <v>-0.293592337724075</v>
+      </c>
+      <c r="AK32">
+        <f t="shared" si="2"/>
+        <v>-0.350274276024019</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>65</v>
       </c>
@@ -4494,8 +6407,20 @@
       <c r="AG33">
         <v>-0.82447752351332504</v>
       </c>
+      <c r="AI33">
+        <f t="shared" si="0"/>
+        <v>-0.31175263208419302</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" si="1"/>
+        <v>-0.15730324104013299</v>
+      </c>
+      <c r="AK33">
+        <f t="shared" si="2"/>
+        <v>-0.8932307552019364</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -4595,8 +6520,20 @@
       <c r="AG34">
         <v>-1.02894831851658</v>
       </c>
+      <c r="AI34">
+        <f t="shared" si="0"/>
+        <v>-0.23556559066050201</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="1"/>
+        <v>-0.19302735450706199</v>
+      </c>
+      <c r="AK34">
+        <f t="shared" si="2"/>
+        <v>-0.70119327586951297</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>67</v>
       </c>
@@ -4696,8 +6633,20 @@
       <c r="AG35">
         <v>-0.64461043873099999</v>
       </c>
+      <c r="AI35">
+        <f t="shared" si="0"/>
+        <v>-0.21751684270167701</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="1"/>
+        <v>-0.41032133219399802</v>
+      </c>
+      <c r="AK35">
+        <f t="shared" si="2"/>
+        <v>1.3838529885173241</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -4797,8 +6746,20 @@
       <c r="AG36">
         <v>-0.54567630921663901</v>
       </c>
+      <c r="AI36">
+        <f t="shared" si="0"/>
+        <v>-0.288515943637699</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="1"/>
+        <v>-0.217238581596188</v>
+      </c>
+      <c r="AK36">
+        <f t="shared" si="2"/>
+        <v>5.9107324109027803E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>69</v>
       </c>
@@ -4898,8 +6859,20 @@
       <c r="AG37">
         <v>-0.31411879046160901</v>
       </c>
+      <c r="AI37">
+        <f t="shared" si="0"/>
+        <v>-0.24718888540765199</v>
+      </c>
+      <c r="AJ37">
+        <f t="shared" si="1"/>
+        <v>-0.190296031863918</v>
+      </c>
+      <c r="AK37">
+        <f t="shared" si="2"/>
+        <v>1.4283639654270042E-3</v>
+      </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>70</v>
       </c>
@@ -4999,8 +6972,20 @@
       <c r="AG38">
         <v>-0.49503915337540699</v>
       </c>
+      <c r="AI38">
+        <f t="shared" si="0"/>
+        <v>-0.154247952055932</v>
+      </c>
+      <c r="AJ38">
+        <f t="shared" si="1"/>
+        <v>-0.16276639585842001</v>
+      </c>
+      <c r="AK38">
+        <f t="shared" si="2"/>
+        <v>-1.5364533247779231</v>
+      </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>71</v>
       </c>
@@ -5100,8 +7085,20 @@
       <c r="AG39">
         <v>-0.65181226638564504</v>
       </c>
+      <c r="AI39">
+        <f t="shared" si="0"/>
+        <v>0.36805875849706099</v>
+      </c>
+      <c r="AJ39">
+        <f t="shared" si="1"/>
+        <v>-0.33617783021667302</v>
+      </c>
+      <c r="AK39">
+        <f t="shared" si="2"/>
+        <v>9.7041433300308011E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>72</v>
       </c>
@@ -5201,8 +7198,20 @@
       <c r="AG40">
         <v>-0.62811231635970499</v>
       </c>
+      <c r="AI40">
+        <f t="shared" si="0"/>
+        <v>0.11309865875526801</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" si="1"/>
+        <v>-5.1168857761085901E-2</v>
+      </c>
+      <c r="AK40">
+        <f t="shared" si="2"/>
+        <v>-0.41377720201527801</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>73</v>
       </c>
@@ -5302,8 +7311,20 @@
       <c r="AG41">
         <v>-0.50393778744831397</v>
       </c>
+      <c r="AI41">
+        <f t="shared" si="0"/>
+        <v>5.1843192544924102E-2</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="1"/>
+        <v>8.4494579691165694E-2</v>
+      </c>
+      <c r="AK41">
+        <f t="shared" si="2"/>
+        <v>-7.5696209896667699E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -5403,8 +7424,20 @@
       <c r="AG42">
         <v>0.292722278465191</v>
       </c>
+      <c r="AI42">
+        <f t="shared" si="0"/>
+        <v>0.53648575514083097</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" si="1"/>
+        <v>0.116933570051467</v>
+      </c>
+      <c r="AK42">
+        <f t="shared" si="2"/>
+        <v>0.67975326576945216</v>
+      </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -5504,8 +7537,20 @@
       <c r="AG43">
         <v>0.36217681756880399</v>
       </c>
+      <c r="AI43">
+        <f t="shared" si="0"/>
+        <v>0.42422916528631799</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="1"/>
+        <v>0.30985011520260702</v>
+      </c>
+      <c r="AK43">
+        <f t="shared" si="2"/>
+        <v>-0.32733876249377897</v>
+      </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>76</v>
       </c>
@@ -5605,8 +7650,20 @@
       <c r="AG44">
         <v>0.30133503961026797</v>
       </c>
+      <c r="AI44">
+        <f t="shared" si="0"/>
+        <v>0.14618171666405999</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="1"/>
+        <v>0.85456557919831599</v>
+      </c>
+      <c r="AK44">
+        <f t="shared" si="2"/>
+        <v>-1.5959618087176168</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>77</v>
       </c>
@@ -5706,8 +7763,20 @@
       <c r="AG45">
         <v>0.31061066348927902</v>
       </c>
+      <c r="AI45">
+        <f t="shared" si="0"/>
+        <v>5.84562559738247E-2</v>
+      </c>
+      <c r="AJ45">
+        <f t="shared" si="1"/>
+        <v>0.51732214226284701</v>
+      </c>
+      <c r="AK45">
+        <f t="shared" si="2"/>
+        <v>-0.47803434038120357</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>78</v>
       </c>
@@ -5807,8 +7876,20 @@
       <c r="AG46">
         <v>9.9239892703950103E-2</v>
       </c>
+      <c r="AI46">
+        <f t="shared" si="0"/>
+        <v>-0.32175652774073099</v>
+      </c>
+      <c r="AJ46">
+        <f t="shared" si="1"/>
+        <v>0.171364845173232</v>
+      </c>
+      <c r="AK46">
+        <f t="shared" si="2"/>
+        <v>0.63808119038793198</v>
+      </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>79</v>
       </c>
@@ -5908,8 +7989,20 @@
       <c r="AG47">
         <v>-0.12784524648592799</v>
       </c>
+      <c r="AI47">
+        <f t="shared" si="0"/>
+        <v>-0.581860899895286</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" si="1"/>
+        <v>0.443547621974135</v>
+      </c>
+      <c r="AK47">
+        <f t="shared" si="2"/>
+        <v>-0.36328676084321887</v>
+      </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>80</v>
       </c>
@@ -6009,8 +8102,20 @@
       <c r="AG48">
         <v>-0.244269559199525</v>
       </c>
+      <c r="AI48">
+        <f t="shared" si="0"/>
+        <v>-0.325250835609943</v>
+      </c>
+      <c r="AJ48">
+        <f t="shared" si="1"/>
+        <v>0.12711953382731001</v>
+      </c>
+      <c r="AK48">
+        <f t="shared" si="2"/>
+        <v>-0.86278046192699598</v>
+      </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>81</v>
       </c>
@@ -6110,8 +8215,20 @@
       <c r="AG49">
         <v>-0.119322958467716</v>
       </c>
+      <c r="AI49">
+        <f t="shared" si="0"/>
+        <v>1.1869716102647501E-2</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" si="1"/>
+        <v>0.11206002066580199</v>
+      </c>
+      <c r="AK49">
+        <f t="shared" si="2"/>
+        <v>0.4736007240142559</v>
+      </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>82</v>
       </c>
@@ -6211,8 +8328,20 @@
       <c r="AG50">
         <v>-0.35208900541224802</v>
       </c>
+      <c r="AI50">
+        <f t="shared" si="0"/>
+        <v>9.2994603344208199E-2</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="1"/>
+        <v>0.16120650534581901</v>
+      </c>
+      <c r="AK50">
+        <f t="shared" si="2"/>
+        <v>-0.69757578864772407</v>
+      </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>83</v>
       </c>
@@ -6312,8 +8441,20 @@
       <c r="AG51">
         <v>-0.22504489538417499</v>
       </c>
+      <c r="AI51">
+        <f t="shared" si="0"/>
+        <v>-9.9512094316436303E-2</v>
+      </c>
+      <c r="AJ51">
+        <f t="shared" si="1"/>
+        <v>0.40801565611673501</v>
+      </c>
+      <c r="AK51">
+        <f t="shared" si="2"/>
+        <v>-0.30192716045237289</v>
+      </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
@@ -6413,8 +8554,20 @@
       <c r="AG52">
         <v>0.195547597921823</v>
       </c>
+      <c r="AI52">
+        <f t="shared" si="0"/>
+        <v>0.51404290077091597</v>
+      </c>
+      <c r="AJ52">
+        <f t="shared" si="1"/>
+        <v>6.7105872477989395E-2</v>
+      </c>
+      <c r="AK52">
+        <f t="shared" si="2"/>
+        <v>4.0309436265459964E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>85</v>
       </c>
@@ -6514,8 +8667,20 @@
       <c r="AG53">
         <v>0.45432383703721202</v>
       </c>
+      <c r="AI53">
+        <f t="shared" si="0"/>
+        <v>0.37121009267470301</v>
+      </c>
+      <c r="AJ53">
+        <f t="shared" si="1"/>
+        <v>0.57608875887803501</v>
+      </c>
+      <c r="AK53">
+        <f t="shared" si="2"/>
+        <v>0.68533656569152213</v>
+      </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
@@ -6615,8 +8780,20 @@
       <c r="AG54">
         <v>0.869522963133319</v>
       </c>
+      <c r="AI54">
+        <f t="shared" si="0"/>
+        <v>0.46794550574369798</v>
+      </c>
+      <c r="AJ54">
+        <f t="shared" si="1"/>
+        <v>0.57316534889576198</v>
+      </c>
+      <c r="AK54">
+        <f t="shared" si="2"/>
+        <v>0.17631096978726896</v>
+      </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
@@ -6716,8 +8893,20 @@
       <c r="AG55">
         <v>1.0435592889871299</v>
       </c>
+      <c r="AI55">
+        <f t="shared" si="0"/>
+        <v>0.28308159646993097</v>
+      </c>
+      <c r="AJ55">
+        <f t="shared" si="1"/>
+        <v>0.388345359463241</v>
+      </c>
+      <c r="AK55">
+        <f t="shared" si="2"/>
+        <v>3.1294748829990005E-2</v>
+      </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>88</v>
       </c>
@@ -6817,8 +9006,20 @@
       <c r="AG56">
         <v>1.1881994858968199</v>
       </c>
+      <c r="AI56">
+        <f t="shared" si="0"/>
+        <v>0.74943103300243297</v>
+      </c>
+      <c r="AJ56">
+        <f t="shared" si="1"/>
+        <v>-0.357846107259015</v>
+      </c>
+      <c r="AK56">
+        <f t="shared" si="2"/>
+        <v>0.80843407140971102</v>
+      </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>89</v>
       </c>
@@ -6918,8 +9119,20 @@
       <c r="AG57">
         <v>0.22080711554070201</v>
       </c>
+      <c r="AI57">
+        <f t="shared" si="0"/>
+        <v>0.256371491197602</v>
+      </c>
+      <c r="AJ57">
+        <f t="shared" si="1"/>
+        <v>-0.42545473042822601</v>
+      </c>
+      <c r="AK57">
+        <f t="shared" si="2"/>
+        <v>-2.0678508249495837</v>
+      </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>90</v>
       </c>
@@ -7019,8 +9232,20 @@
       <c r="AG58">
         <v>-0.11617730645808</v>
       </c>
+      <c r="AI58">
+        <f t="shared" si="0"/>
+        <v>9.1376671036437498E-2</v>
+      </c>
+      <c r="AJ58">
+        <f t="shared" si="1"/>
+        <v>-0.39468709884889902</v>
+      </c>
+      <c r="AK58">
+        <f t="shared" si="2"/>
+        <v>0.17279456424406281</v>
+      </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>91</v>
       </c>
@@ -7120,8 +9345,20 @@
       <c r="AG59">
         <v>-0.122653301246716</v>
       </c>
+      <c r="AI59">
+        <f t="shared" si="0"/>
+        <v>-2.5484381422523201E-2</v>
+      </c>
+      <c r="AJ59">
+        <f t="shared" si="1"/>
+        <v>-0.36112520441531898</v>
+      </c>
+      <c r="AK59">
+        <f t="shared" si="2"/>
+        <v>1.063427311446459</v>
+      </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>92</v>
       </c>
@@ -7221,8 +9458,20 @@
       <c r="AG60">
         <v>-0.54452870309797996</v>
       </c>
+      <c r="AI60">
+        <f t="shared" si="0"/>
+        <v>-0.18170047622059099</v>
+      </c>
+      <c r="AJ60">
+        <f t="shared" si="1"/>
+        <v>-0.24385384941640401</v>
+      </c>
+      <c r="AK60">
+        <f t="shared" si="2"/>
+        <v>-6.1928284614932994E-2</v>
+      </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>93</v>
       </c>
@@ -7322,8 +9571,20 @@
       <c r="AG61">
         <v>0.14816193762658</v>
       </c>
+      <c r="AI61">
+        <f t="shared" si="0"/>
+        <v>-0.32688777183488099</v>
+      </c>
+      <c r="AJ61">
+        <f t="shared" si="1"/>
+        <v>-0.13343614363192799</v>
+      </c>
+      <c r="AK61">
+        <f t="shared" si="2"/>
+        <v>0.99415241418484168</v>
+      </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
@@ -7423,8 +9684,20 @@
       <c r="AG62">
         <v>5.9844201138890801E-2</v>
       </c>
+      <c r="AI62">
+        <f t="shared" si="0"/>
+        <v>-0.459333796619524</v>
+      </c>
+      <c r="AJ62">
+        <f t="shared" si="1"/>
+        <v>-0.193171304687875</v>
+      </c>
+      <c r="AK62">
+        <f t="shared" si="2"/>
+        <v>0.16871829178824499</v>
+      </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
@@ -7524,8 +9797,20 @@
       <c r="AG63">
         <v>0.14626338873160799</v>
       </c>
+      <c r="AI63">
+        <f t="shared" si="0"/>
+        <v>3.9144644974334897E-2</v>
+      </c>
+      <c r="AJ63">
+        <f t="shared" si="1"/>
+        <v>-0.118773875027995</v>
+      </c>
+      <c r="AK63">
+        <f t="shared" si="2"/>
+        <v>1.1021237060331459</v>
+      </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>96</v>
       </c>
@@ -7625,8 +9910,20 @@
       <c r="AG64">
         <v>0.49549889110247602</v>
       </c>
+      <c r="AI64">
+        <f t="shared" si="0"/>
+        <v>-0.21153376703531099</v>
+      </c>
+      <c r="AJ64">
+        <f t="shared" si="1"/>
+        <v>-6.2994463046596394E-2</v>
+      </c>
+      <c r="AK64">
+        <f t="shared" si="2"/>
+        <v>1.1839876293134521</v>
+      </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>97</v>
       </c>
@@ -7726,8 +10023,20 @@
       <c r="AG65">
         <v>0.113663228547354</v>
       </c>
+      <c r="AI65">
+        <f t="shared" si="0"/>
+        <v>-0.49094826401250202</v>
+      </c>
+      <c r="AJ65">
+        <f t="shared" si="1"/>
+        <v>-0.10096549051291499</v>
+      </c>
+      <c r="AK65">
+        <f t="shared" si="2"/>
+        <v>-0.40160039697703903</v>
+      </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>98</v>
       </c>
@@ -7827,8 +10136,20 @@
       <c r="AG66">
         <v>0.170299502962521</v>
       </c>
+      <c r="AI66">
+        <f t="shared" si="0"/>
+        <v>-0.16820887054077599</v>
+      </c>
+      <c r="AJ66">
+        <f t="shared" si="1"/>
+        <v>-3.4278649756336099E-2</v>
+      </c>
+      <c r="AK66">
+        <f t="shared" si="2"/>
+        <v>-5.4754191561370069E-2</v>
+      </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>99</v>
       </c>
@@ -7928,8 +10249,20 @@
       <c r="AG67">
         <v>0.12683040742121901</v>
       </c>
+      <c r="AI67">
+        <f t="shared" si="0"/>
+        <v>-0.46607093306025599</v>
+      </c>
+      <c r="AJ67">
+        <f t="shared" si="1"/>
+        <v>0.28042614345408301</v>
+      </c>
+      <c r="AK67">
+        <f t="shared" si="2"/>
+        <v>1.0342628834204428</v>
+      </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>100</v>
       </c>
@@ -8029,8 +10362,20 @@
       <c r="AG68">
         <v>0.174053042277591</v>
       </c>
+      <c r="AI68">
+        <f t="shared" ref="AI68:AI131" si="3">AC68</f>
+        <v>-0.14770444449289899</v>
+      </c>
+      <c r="AJ68">
+        <f t="shared" ref="AJ68:AJ131" si="4">AD68</f>
+        <v>9.9084555740738503E-2</v>
+      </c>
+      <c r="AK68">
+        <f t="shared" ref="AK68:AK131" si="5">AB68+AA68</f>
+        <v>1.1469698274091895</v>
+      </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>101</v>
       </c>
@@ -8130,8 +10475,20 @@
       <c r="AG69">
         <v>0.10974772886640401</v>
       </c>
+      <c r="AI69">
+        <f t="shared" si="3"/>
+        <v>-0.24345107321810999</v>
+      </c>
+      <c r="AJ69">
+        <f t="shared" si="4"/>
+        <v>6.52073551969891E-2</v>
+      </c>
+      <c r="AK69">
+        <f t="shared" si="5"/>
+        <v>-1.0724916871260879</v>
+      </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>102</v>
       </c>
@@ -8231,8 +10588,20 @@
       <c r="AG70">
         <v>0.15646561730480499</v>
       </c>
+      <c r="AI70">
+        <f t="shared" si="3"/>
+        <v>0.31121963343227099</v>
+      </c>
+      <c r="AJ70">
+        <f t="shared" si="4"/>
+        <v>-0.175566133105519</v>
+      </c>
+      <c r="AK70">
+        <f t="shared" si="5"/>
+        <v>-0.2060236584316294</v>
+      </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>103</v>
       </c>
@@ -8332,8 +10701,20 @@
       <c r="AG71">
         <v>-0.229235478244044</v>
       </c>
+      <c r="AI71">
+        <f t="shared" si="3"/>
+        <v>-0.50674820726315695</v>
+      </c>
+      <c r="AJ71">
+        <f t="shared" si="4"/>
+        <v>-0.16976734173191799</v>
+      </c>
+      <c r="AK71">
+        <f t="shared" si="5"/>
+        <v>-1.7670739386048018E-2</v>
+      </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>104</v>
       </c>
@@ -8433,8 +10814,20 @@
       <c r="AG72">
         <v>-0.75825169444858498</v>
       </c>
+      <c r="AI72">
+        <f t="shared" si="3"/>
+        <v>-0.19170388576917699</v>
+      </c>
+      <c r="AJ72">
+        <f t="shared" si="4"/>
+        <v>-0.23685710036879401</v>
+      </c>
+      <c r="AK72">
+        <f t="shared" si="5"/>
+        <v>-0.58915394002316102</v>
+      </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>105</v>
       </c>
@@ -8534,8 +10927,20 @@
       <c r="AG73">
         <v>-0.360689724304741</v>
       </c>
+      <c r="AI73">
+        <f t="shared" si="3"/>
+        <v>-5.61442660716895E-2</v>
+      </c>
+      <c r="AJ73">
+        <f t="shared" si="4"/>
+        <v>-0.20551899325310899</v>
+      </c>
+      <c r="AK73">
+        <f t="shared" si="5"/>
+        <v>0.60117573475297104</v>
+      </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>106</v>
       </c>
@@ -8635,8 +11040,20 @@
       <c r="AG74">
         <v>-0.754052809845145</v>
       </c>
+      <c r="AI74">
+        <f t="shared" si="3"/>
+        <v>-0.28614826521116299</v>
+      </c>
+      <c r="AJ74">
+        <f t="shared" si="4"/>
+        <v>1.51295733256219E-2</v>
+      </c>
+      <c r="AK74">
+        <f t="shared" si="5"/>
+        <v>-1.3728038083809571</v>
+      </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>107</v>
       </c>
@@ -8736,8 +11153,20 @@
       <c r="AG75">
         <v>-0.72204197225914601</v>
       </c>
+      <c r="AI75">
+        <f t="shared" si="3"/>
+        <v>-2.2203680954877E-2</v>
+      </c>
+      <c r="AJ75">
+        <f t="shared" si="4"/>
+        <v>-0.139023159486766</v>
+      </c>
+      <c r="AK75">
+        <f t="shared" si="5"/>
+        <v>-0.40491609759548503</v>
+      </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>108</v>
       </c>
@@ -8837,8 +11266,20 @@
       <c r="AG76">
         <v>-0.641644081193534</v>
       </c>
+      <c r="AI76">
+        <f t="shared" si="3"/>
+        <v>7.7699966892988304E-2</v>
+      </c>
+      <c r="AJ76">
+        <f t="shared" si="4"/>
+        <v>-0.14110438290713501</v>
+      </c>
+      <c r="AK76">
+        <f t="shared" si="5"/>
+        <v>-0.63271894588453503</v>
+      </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>109</v>
       </c>
@@ -8938,8 +11379,20 @@
       <c r="AG77">
         <v>-0.51816054228126596</v>
       </c>
+      <c r="AI77">
+        <f t="shared" si="3"/>
+        <v>-9.4131076991569307E-2</v>
+      </c>
+      <c r="AJ77">
+        <f t="shared" si="4"/>
+        <v>-3.2088482504880098E-2</v>
+      </c>
+      <c r="AK77">
+        <f t="shared" si="5"/>
+        <v>0.95966619057369096</v>
+      </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>110</v>
       </c>
@@ -9039,8 +11492,20 @@
       <c r="AG78">
         <v>-0.432423412914688</v>
       </c>
+      <c r="AI78">
+        <f t="shared" si="3"/>
+        <v>-0.32286592101878597</v>
+      </c>
+      <c r="AJ78">
+        <f t="shared" si="4"/>
+        <v>1.8553043697794099E-2</v>
+      </c>
+      <c r="AK78">
+        <f t="shared" si="5"/>
+        <v>-0.99656110547918852</v>
+      </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>111</v>
       </c>
@@ -9140,8 +11605,20 @@
       <c r="AG79">
         <v>-0.11494803949100001</v>
       </c>
+      <c r="AI79">
+        <f t="shared" si="3"/>
+        <v>6.1150075973574303E-2</v>
+      </c>
+      <c r="AJ79">
+        <f t="shared" si="4"/>
+        <v>9.1762899256577404E-3</v>
+      </c>
+      <c r="AK79">
+        <f t="shared" si="5"/>
+        <v>0.63343218975839399</v>
+      </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>112</v>
       </c>
@@ -9241,8 +11718,20 @@
       <c r="AG80">
         <v>0.100586178991995</v>
       </c>
+      <c r="AI80">
+        <f t="shared" si="3"/>
+        <v>-0.35863123488634102</v>
+      </c>
+      <c r="AJ80">
+        <f t="shared" si="4"/>
+        <v>0.32737272966043501</v>
+      </c>
+      <c r="AK80">
+        <f t="shared" si="5"/>
+        <v>0.19727201725920451</v>
+      </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>113</v>
       </c>
@@ -9342,8 +11831,20 @@
       <c r="AG81">
         <v>-9.2392191809862897E-2</v>
       </c>
+      <c r="AI81">
+        <f t="shared" si="3"/>
+        <v>-2.4037468771601001E-2</v>
+      </c>
+      <c r="AJ81">
+        <f t="shared" si="4"/>
+        <v>0.29737701861898802</v>
+      </c>
+      <c r="AK81">
+        <f t="shared" si="5"/>
+        <v>-0.211806401977576</v>
+      </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>114</v>
       </c>
@@ -9443,8 +11944,20 @@
       <c r="AG82">
         <v>0.49133431178505999</v>
       </c>
+      <c r="AI82">
+        <f t="shared" si="3"/>
+        <v>0.29561868180484602</v>
+      </c>
+      <c r="AJ82">
+        <f t="shared" si="4"/>
+        <v>2.0220713042089101E-2</v>
+      </c>
+      <c r="AK82">
+        <f t="shared" si="5"/>
+        <v>0.71819263673257794</v>
+      </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>115</v>
       </c>
@@ -9544,8 +12057,20 @@
       <c r="AG83">
         <v>0.246854458649928</v>
       </c>
+      <c r="AI83">
+        <f t="shared" si="3"/>
+        <v>-3.9502437434878898E-2</v>
+      </c>
+      <c r="AJ83">
+        <f t="shared" si="4"/>
+        <v>0.235132562579078</v>
+      </c>
+      <c r="AK83">
+        <f t="shared" si="5"/>
+        <v>-0.46979098202710101</v>
+      </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>116</v>
       </c>
@@ -9645,8 +12170,20 @@
       <c r="AG84">
         <v>0.17732698789363099</v>
       </c>
+      <c r="AI84">
+        <f t="shared" si="3"/>
+        <v>0.19630486428789501</v>
+      </c>
+      <c r="AJ84">
+        <f t="shared" si="4"/>
+        <v>0.13415217214976399</v>
+      </c>
+      <c r="AK84">
+        <f t="shared" si="5"/>
+        <v>-0.44255340742955013</v>
+      </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>117</v>
       </c>
@@ -9746,8 +12283,20 @@
       <c r="AG85">
         <v>0.30157742071008098</v>
       </c>
+      <c r="AI85">
+        <f t="shared" si="3"/>
+        <v>0.29607218300264398</v>
+      </c>
+      <c r="AJ85">
+        <f t="shared" si="4"/>
+        <v>0.24291120221822199</v>
+      </c>
+      <c r="AK85">
+        <f t="shared" si="5"/>
+        <v>1.9551493914744006E-2</v>
+      </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>118</v>
       </c>
@@ -9847,8 +12396,20 @@
       <c r="AG86">
         <v>0.22574921979796</v>
       </c>
+      <c r="AI86">
+        <f t="shared" si="3"/>
+        <v>0.16533966123034299</v>
+      </c>
+      <c r="AJ86">
+        <f t="shared" si="4"/>
+        <v>0.59996282301988202</v>
+      </c>
+      <c r="AK86">
+        <f t="shared" si="5"/>
+        <v>-3.4583256319196981E-2</v>
+      </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>119</v>
       </c>
@@ -9948,8 +12509,20 @@
       <c r="AG87">
         <v>0.47160599010936499</v>
       </c>
+      <c r="AI87">
+        <f t="shared" si="3"/>
+        <v>0.18150596030955099</v>
+      </c>
+      <c r="AJ87">
+        <f t="shared" si="4"/>
+        <v>0.71268675689291305</v>
+      </c>
+      <c r="AK87">
+        <f t="shared" si="5"/>
+        <v>-0.18492649283974791</v>
+      </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>120</v>
       </c>
@@ -10049,8 +12622,20 @@
       <c r="AG88">
         <v>0.49879096383618998</v>
       </c>
+      <c r="AI88">
+        <f t="shared" si="3"/>
+        <v>0.15405135983992299</v>
+      </c>
+      <c r="AJ88">
+        <f t="shared" si="4"/>
+        <v>0.59488043646503597</v>
+      </c>
+      <c r="AK88">
+        <f t="shared" si="5"/>
+        <v>-0.75228827238954621</v>
+      </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>121</v>
       </c>
@@ -10150,8 +12735,20 @@
       <c r="AG89">
         <v>0.29005586980115</v>
       </c>
+      <c r="AI89">
+        <f t="shared" si="3"/>
+        <v>0.13554173088399099</v>
+      </c>
+      <c r="AJ89">
+        <f t="shared" si="4"/>
+        <v>0.71063522637117305</v>
+      </c>
+      <c r="AK89">
+        <f t="shared" si="5"/>
+        <v>-1.122582454259716</v>
+      </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>122</v>
       </c>
@@ -10251,8 +12848,20 @@
       <c r="AG90">
         <v>0.43550496670454603</v>
       </c>
+      <c r="AI90">
+        <f t="shared" si="3"/>
+        <v>0.189324162794892</v>
+      </c>
+      <c r="AJ90">
+        <f t="shared" si="4"/>
+        <v>0.88290680501043195</v>
+      </c>
+      <c r="AK90">
+        <f t="shared" si="5"/>
+        <v>0.2402846477392892</v>
+      </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>123</v>
       </c>
@@ -10352,8 +12961,20 @@
       <c r="AG91">
         <v>0.32147635150563197</v>
       </c>
+      <c r="AI91">
+        <f t="shared" si="3"/>
+        <v>0.121850932864402</v>
+      </c>
+      <c r="AJ91">
+        <f t="shared" si="4"/>
+        <v>0.79345321849448702</v>
+      </c>
+      <c r="AK91">
+        <f t="shared" si="5"/>
+        <v>-0.66215238779183294</v>
+      </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>124</v>
       </c>
@@ -10453,8 +13074,20 @@
       <c r="AG92">
         <v>0.50997726470291904</v>
       </c>
+      <c r="AI92">
+        <f t="shared" si="3"/>
+        <v>9.6964419151802497E-2</v>
+      </c>
+      <c r="AJ92">
+        <f t="shared" si="4"/>
+        <v>0.62346789492922605</v>
+      </c>
+      <c r="AK92">
+        <f t="shared" si="5"/>
+        <v>3.0214862623534983E-2</v>
+      </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>125</v>
       </c>
@@ -10554,8 +13187,20 @@
       <c r="AG93">
         <v>0.54031155123627705</v>
       </c>
+      <c r="AI93">
+        <f t="shared" si="3"/>
+        <v>0.10153098823189401</v>
+      </c>
+      <c r="AJ93">
+        <f t="shared" si="4"/>
+        <v>0.25384919744560702</v>
+      </c>
+      <c r="AK93">
+        <f t="shared" si="5"/>
+        <v>-0.51044853654861999</v>
+      </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>126</v>
       </c>
@@ -10655,8 +13300,20 @@
       <c r="AG94">
         <v>-6.6579565276537495E-2</v>
       </c>
+      <c r="AI94">
+        <f t="shared" si="3"/>
+        <v>9.8588357991939296E-2</v>
+      </c>
+      <c r="AJ94">
+        <f t="shared" si="4"/>
+        <v>0.30325463918849899</v>
+      </c>
+      <c r="AK94">
+        <f t="shared" si="5"/>
+        <v>-1.5168918476870799</v>
+      </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>127</v>
       </c>
@@ -10756,8 +13413,20 @@
       <c r="AG95">
         <v>-0.21736831254598199</v>
       </c>
+      <c r="AI95">
+        <f t="shared" si="3"/>
+        <v>3.7769767469489998E-2</v>
+      </c>
+      <c r="AJ95">
+        <f t="shared" si="4"/>
+        <v>0.111048789052934</v>
+      </c>
+      <c r="AK95">
+        <f t="shared" si="5"/>
+        <v>-0.49882178203314664</v>
+      </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>128</v>
       </c>
@@ -10857,8 +13526,20 @@
       <c r="AG96">
         <v>-0.49696889296970798</v>
       </c>
+      <c r="AI96">
+        <f t="shared" si="3"/>
+        <v>-0.20057190611623699</v>
+      </c>
+      <c r="AJ96">
+        <f t="shared" si="4"/>
+        <v>0.22150379254125299</v>
+      </c>
+      <c r="AK96">
+        <f t="shared" si="5"/>
+        <v>-0.38868703141535599</v>
+      </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>129</v>
       </c>
@@ -10958,8 +13639,20 @@
       <c r="AG97">
         <v>-0.53954327533522795</v>
       </c>
+      <c r="AI97">
+        <f t="shared" si="3"/>
+        <v>-0.208965088689786</v>
+      </c>
+      <c r="AJ97">
+        <f t="shared" si="4"/>
+        <v>0.10965601251092801</v>
+      </c>
+      <c r="AK97">
+        <f t="shared" si="5"/>
+        <v>-0.2260568041543381</v>
+      </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>130</v>
       </c>
@@ -11059,8 +13752,20 @@
       <c r="AG98">
         <v>-0.70567604703346698</v>
       </c>
+      <c r="AI98">
+        <f t="shared" si="3"/>
+        <v>-0.33440272949015698</v>
+      </c>
+      <c r="AJ98">
+        <f t="shared" si="4"/>
+        <v>4.71708505261055E-2</v>
+      </c>
+      <c r="AK98">
+        <f t="shared" si="5"/>
+        <v>-1.4923480583355506</v>
+      </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>131</v>
       </c>
@@ -11160,8 +13865,20 @@
       <c r="AG99">
         <v>-0.73100392611365606</v>
       </c>
+      <c r="AI99">
+        <f t="shared" si="3"/>
+        <v>-0.30890716294202603</v>
+      </c>
+      <c r="AJ99">
+        <f t="shared" si="4"/>
+        <v>-3.09667853640208E-2</v>
+      </c>
+      <c r="AK99">
+        <f t="shared" si="5"/>
+        <v>-0.11144079352543101</v>
+      </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>132</v>
       </c>
@@ -11261,8 +13978,20 @@
       <c r="AG100">
         <v>-0.52137332322449303</v>
       </c>
+      <c r="AI100">
+        <f t="shared" si="3"/>
+        <v>-0.147119343607132</v>
+      </c>
+      <c r="AJ100">
+        <f t="shared" si="4"/>
+        <v>-0.18079730249925199</v>
+      </c>
+      <c r="AK100">
+        <f t="shared" si="5"/>
+        <v>0.79868391267269601</v>
+      </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>133</v>
       </c>
@@ -11362,8 +14091,20 @@
       <c r="AG101">
         <v>-0.76228534056912101</v>
       </c>
+      <c r="AI101">
+        <f t="shared" si="3"/>
+        <v>-0.215069453644647</v>
+      </c>
+      <c r="AJ101">
+        <f t="shared" si="4"/>
+        <v>0.116058379071544</v>
+      </c>
+      <c r="AK101">
+        <f t="shared" si="5"/>
+        <v>-1.190002875138606</v>
+      </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>134</v>
       </c>
@@ -11463,8 +14204,20 @@
       <c r="AG102">
         <v>-0.40653205269234399</v>
       </c>
+      <c r="AI102">
+        <f t="shared" si="3"/>
+        <v>-0.32787113616982699</v>
+      </c>
+      <c r="AJ102">
+        <f t="shared" si="4"/>
+        <v>0.20088852800853299</v>
+      </c>
+      <c r="AK102">
+        <f t="shared" si="5"/>
+        <v>-0.22958417763120301</v>
+      </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>135</v>
       </c>
@@ -11564,8 +14317,20 @@
       <c r="AG103">
         <v>-0.36924922813614702</v>
       </c>
+      <c r="AI103">
+        <f t="shared" si="3"/>
+        <v>-0.221709544045468</v>
+      </c>
+      <c r="AJ103">
+        <f t="shared" si="4"/>
+        <v>0.168998416763121</v>
+      </c>
+      <c r="AK103">
+        <f t="shared" si="5"/>
+        <v>-0.249472316324344</v>
+      </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>136</v>
       </c>
@@ -11665,8 +14430,20 @@
       <c r="AG104">
         <v>-0.67098651996035297</v>
       </c>
+      <c r="AI104">
+        <f t="shared" si="3"/>
+        <v>-0.25911630601096403</v>
+      </c>
+      <c r="AJ104">
+        <f t="shared" si="4"/>
+        <v>0.243862672668681</v>
+      </c>
+      <c r="AK104">
+        <f t="shared" si="5"/>
+        <v>-0.72092826738822602</v>
+      </c>
     </row>
-    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>137</v>
       </c>
@@ -11766,8 +14543,20 @@
       <c r="AG105">
         <v>-0.74779242843370097</v>
       </c>
+      <c r="AI105">
+        <f t="shared" si="3"/>
+        <v>-0.17994094481843301</v>
+      </c>
+      <c r="AJ105">
+        <f t="shared" si="4"/>
+        <v>-9.7880530818741401E-2</v>
+      </c>
+      <c r="AK105">
+        <f t="shared" si="5"/>
+        <v>-1.3184161079679224</v>
+      </c>
     </row>
-    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>138</v>
       </c>
@@ -11867,8 +14656,20 @@
       <c r="AG106">
         <v>-0.74862021282485003</v>
       </c>
+      <c r="AI106">
+        <f t="shared" si="3"/>
+        <v>-0.22624008378753199</v>
+      </c>
+      <c r="AJ106">
+        <f t="shared" si="4"/>
+        <v>-0.104842725877669</v>
+      </c>
+      <c r="AK106">
+        <f t="shared" si="5"/>
+        <v>-2.8795113691892027E-2</v>
+      </c>
     </row>
-    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>139</v>
       </c>
@@ -11968,8 +14769,20 @@
       <c r="AG107">
         <v>-0.644042551650574</v>
       </c>
+      <c r="AI107">
+        <f t="shared" si="3"/>
+        <v>-0.22489316203902401</v>
+      </c>
+      <c r="AJ107">
+        <f t="shared" si="4"/>
+        <v>-3.4136618660015897E-2</v>
+      </c>
+      <c r="AK107">
+        <f t="shared" si="5"/>
+        <v>0.37515698178945378</v>
+      </c>
     </row>
-    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>140</v>
       </c>
@@ -12069,8 +14882,20 @@
       <c r="AG108">
         <v>-0.69222879122278702</v>
       </c>
+      <c r="AI108">
+        <f t="shared" si="3"/>
+        <v>-0.275805872876419</v>
+      </c>
+      <c r="AJ108">
+        <f t="shared" si="4"/>
+        <v>-7.6172798877238906E-2</v>
+      </c>
+      <c r="AK108">
+        <f t="shared" si="5"/>
+        <v>-0.57694818726570296</v>
+      </c>
     </row>
-    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>141</v>
       </c>
@@ -12170,8 +14995,20 @@
       <c r="AG109">
         <v>-0.35593584697088998</v>
       </c>
+      <c r="AI109">
+        <f t="shared" si="3"/>
+        <v>-4.11524113802074E-2</v>
+      </c>
+      <c r="AJ109">
+        <f t="shared" si="4"/>
+        <v>-0.105388806840691</v>
+      </c>
+      <c r="AK109">
+        <f t="shared" si="5"/>
+        <v>-0.10452458837661399</v>
+      </c>
     </row>
-    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>142</v>
       </c>
@@ -12271,8 +15108,20 @@
       <c r="AG110">
         <v>-0.63714146426681495</v>
       </c>
+      <c r="AI110">
+        <f t="shared" si="3"/>
+        <v>-0.34400734754621098</v>
+      </c>
+      <c r="AJ110">
+        <f t="shared" si="4"/>
+        <v>-0.11509383990047201</v>
+      </c>
+      <c r="AK110">
+        <f t="shared" si="5"/>
+        <v>-1.025599205094113</v>
+      </c>
     </row>
-    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>143</v>
       </c>
@@ -12372,8 +15221,20 @@
       <c r="AG111">
         <v>-0.77169660357815695</v>
       </c>
+      <c r="AI111">
+        <f t="shared" si="3"/>
+        <v>-0.434343048681258</v>
+      </c>
+      <c r="AJ111">
+        <f t="shared" si="4"/>
+        <v>-0.271465593086607</v>
+      </c>
+      <c r="AK111">
+        <f t="shared" si="5"/>
+        <v>0.28371528561290971</v>
+      </c>
     </row>
-    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>144</v>
       </c>
@@ -12473,8 +15334,20 @@
       <c r="AG112">
         <v>-0.779313454863787</v>
       </c>
+      <c r="AI112">
+        <f t="shared" si="3"/>
+        <v>-0.41531157291843201</v>
+      </c>
+      <c r="AJ112">
+        <f t="shared" si="4"/>
+        <v>-0.18590109589628601</v>
+      </c>
+      <c r="AK112">
+        <f t="shared" si="5"/>
+        <v>-0.35818159534716271</v>
+      </c>
     </row>
-    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>145</v>
       </c>
@@ -12574,8 +15447,20 @@
       <c r="AG113">
         <v>-0.943839986401519</v>
       </c>
+      <c r="AI113">
+        <f t="shared" si="3"/>
+        <v>-0.390236505474096</v>
+      </c>
+      <c r="AJ113">
+        <f t="shared" si="4"/>
+        <v>-0.176188163848264</v>
+      </c>
+      <c r="AK113">
+        <f t="shared" si="5"/>
+        <v>-0.34274726342607997</v>
+      </c>
     </row>
-    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>146</v>
       </c>
@@ -12675,8 +15560,20 @@
       <c r="AG114">
         <v>-0.99575696215065601</v>
       </c>
+      <c r="AI114">
+        <f t="shared" si="3"/>
+        <v>-0.53939826630050702</v>
+      </c>
+      <c r="AJ114">
+        <f t="shared" si="4"/>
+        <v>-0.17331946708816701</v>
+      </c>
+      <c r="AK114">
+        <f t="shared" si="5"/>
+        <v>-0.97965056214867152</v>
+      </c>
     </row>
-    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>147</v>
       </c>
@@ -12776,8 +15673,20 @@
       <c r="AG115">
         <v>-0.90760757266255498</v>
       </c>
+      <c r="AI115">
+        <f t="shared" si="3"/>
+        <v>-0.355039474320274</v>
+      </c>
+      <c r="AJ115">
+        <f t="shared" si="4"/>
+        <v>-0.21830381589916301</v>
+      </c>
+      <c r="AK115">
+        <f t="shared" si="5"/>
+        <v>0.50384749201688661</v>
+      </c>
     </row>
-    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>148</v>
       </c>
@@ -12877,8 +15786,20 @@
       <c r="AG116">
         <v>-0.87698723239259102</v>
       </c>
+      <c r="AI116">
+        <f t="shared" si="3"/>
+        <v>-0.29907125872660101</v>
+      </c>
+      <c r="AJ116">
+        <f t="shared" si="4"/>
+        <v>-0.31890125166635902</v>
+      </c>
+      <c r="AK116">
+        <f t="shared" si="5"/>
+        <v>-0.21894039268906279</v>
+      </c>
     </row>
-    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>149</v>
       </c>
@@ -12978,8 +15899,20 @@
       <c r="AG117">
         <v>-0.878002041870376</v>
       </c>
+      <c r="AI117">
+        <f t="shared" si="3"/>
+        <v>-0.30192980414652898</v>
+      </c>
+      <c r="AJ117">
+        <f t="shared" si="4"/>
+        <v>-0.26579362218291203</v>
+      </c>
+      <c r="AK117">
+        <f t="shared" si="5"/>
+        <v>-0.3455077443301397</v>
+      </c>
     </row>
-    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>150</v>
       </c>
@@ -13079,8 +16012,20 @@
       <c r="AG118">
         <v>-0.62451083333410395</v>
       </c>
+      <c r="AI118">
+        <f t="shared" si="3"/>
+        <v>-0.238840811086412</v>
+      </c>
+      <c r="AJ118">
+        <f t="shared" si="4"/>
+        <v>-0.17092836553802501</v>
+      </c>
+      <c r="AK118">
+        <f t="shared" si="5"/>
+        <v>-0.26863428476782103</v>
+      </c>
     </row>
-    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>151</v>
       </c>
@@ -13180,8 +16125,20 @@
       <c r="AG119">
         <v>-0.804351614971206</v>
       </c>
+      <c r="AI119">
+        <f t="shared" si="3"/>
+        <v>6.5305951306792107E-2</v>
+      </c>
+      <c r="AJ119">
+        <f t="shared" si="4"/>
+        <v>-0.330744832749296</v>
+      </c>
+      <c r="AK119">
+        <f t="shared" si="5"/>
+        <v>-0.52342004330845204</v>
+      </c>
     </row>
-    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>152</v>
       </c>
@@ -13281,8 +16238,20 @@
       <c r="AG120">
         <v>-0.63007617754999801</v>
       </c>
+      <c r="AI120">
+        <f t="shared" si="3"/>
+        <v>1.264439597658E-2</v>
+      </c>
+      <c r="AJ120">
+        <f t="shared" si="4"/>
+        <v>-0.237356374739493</v>
+      </c>
+      <c r="AK120">
+        <f t="shared" si="5"/>
+        <v>8.4900825365723021E-2</v>
+      </c>
     </row>
-    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>153</v>
       </c>
@@ -13382,8 +16351,20 @@
       <c r="AG121">
         <v>-0.39493656859412901</v>
       </c>
+      <c r="AI121">
+        <f t="shared" si="3"/>
+        <v>-3.1593765096280202E-2</v>
+      </c>
+      <c r="AJ121">
+        <f t="shared" si="4"/>
+        <v>-0.27481289461684999</v>
+      </c>
+      <c r="AK121">
+        <f t="shared" si="5"/>
+        <v>0.33373392487702302</v>
+      </c>
     </row>
-    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>154</v>
       </c>
@@ -13483,8 +16464,20 @@
       <c r="AG122">
         <v>-0.669439108656252</v>
       </c>
+      <c r="AI122">
+        <f t="shared" si="3"/>
+        <v>-9.2312579020437602E-2</v>
+      </c>
+      <c r="AJ122">
+        <f t="shared" si="4"/>
+        <v>-0.38017993680045098</v>
+      </c>
+      <c r="AK122">
+        <f t="shared" si="5"/>
+        <v>-1.3039211058198583</v>
+      </c>
     </row>
-    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>155</v>
       </c>
@@ -13584,8 +16577,20 @@
       <c r="AG123">
         <v>-0.54353916298458504</v>
       </c>
+      <c r="AI123">
+        <f t="shared" si="3"/>
+        <v>-0.21142600071793399</v>
+      </c>
+      <c r="AJ123">
+        <f t="shared" si="4"/>
+        <v>-2.67453437164051E-2</v>
+      </c>
+      <c r="AK123">
+        <f t="shared" si="5"/>
+        <v>-4.7087797629947969E-2</v>
+      </c>
     </row>
-    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>156</v>
       </c>
@@ -13685,8 +16690,20 @@
       <c r="AG124">
         <v>-0.76958554611128005</v>
       </c>
+      <c r="AI124">
+        <f t="shared" si="3"/>
+        <v>3.7975153459815399E-2</v>
+      </c>
+      <c r="AJ124">
+        <f t="shared" si="4"/>
+        <v>-7.0221174987885604E-2</v>
+      </c>
+      <c r="AK124">
+        <f t="shared" si="5"/>
+        <v>-1.0117506643759</v>
+      </c>
     </row>
-    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>157</v>
       </c>
@@ -13786,8 +16803,20 @@
       <c r="AG125">
         <v>-0.82753085657738501</v>
       </c>
+      <c r="AI125">
+        <f t="shared" si="3"/>
+        <v>1.6313988525494E-2</v>
+      </c>
+      <c r="AJ125">
+        <f t="shared" si="4"/>
+        <v>4.3453699968661399E-3</v>
+      </c>
+      <c r="AK125">
+        <f t="shared" si="5"/>
+        <v>-0.22511333522288732</v>
+      </c>
     </row>
-    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>158</v>
       </c>
@@ -13887,8 +16916,20 @@
       <c r="AG126">
         <v>-0.20305771141961701</v>
       </c>
+      <c r="AI126">
+        <f t="shared" si="3"/>
+        <v>-9.0202754651526103E-3</v>
+      </c>
+      <c r="AJ126">
+        <f t="shared" si="4"/>
+        <v>0.23470621666597999</v>
+      </c>
+      <c r="AK126">
+        <f t="shared" si="5"/>
+        <v>0.4957930177894932</v>
+      </c>
     </row>
-    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>159</v>
       </c>
@@ -13988,8 +17029,20 @@
       <c r="AG127">
         <v>0.10772518922584701</v>
       </c>
+      <c r="AI127">
+        <f t="shared" si="3"/>
+        <v>-0.109057344631834</v>
+      </c>
+      <c r="AJ127">
+        <f t="shared" si="4"/>
+        <v>0.400563434688672</v>
+      </c>
+      <c r="AK127">
+        <f t="shared" si="5"/>
+        <v>0.6663663704607321</v>
+      </c>
     </row>
-    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>160</v>
       </c>
@@ -14089,8 +17142,20 @@
       <c r="AG128">
         <v>0.53006044976175903</v>
       </c>
+      <c r="AI128">
+        <f t="shared" si="3"/>
+        <v>0.76884261147186295</v>
+      </c>
+      <c r="AJ128">
+        <f t="shared" si="4"/>
+        <v>0.51200046639880303</v>
+      </c>
+      <c r="AK128">
+        <f t="shared" si="5"/>
+        <v>-0.63549872163098708</v>
+      </c>
     </row>
-    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>161</v>
       </c>
@@ -14190,8 +17255,20 @@
       <c r="AG129">
         <v>1.02547498866681</v>
       </c>
+      <c r="AI129">
+        <f t="shared" si="3"/>
+        <v>0.29602528815345402</v>
+      </c>
+      <c r="AJ129">
+        <f t="shared" si="4"/>
+        <v>0.78353972622193202</v>
+      </c>
+      <c r="AK129">
+        <f t="shared" si="5"/>
+        <v>0.69763916454428399</v>
+      </c>
     </row>
-    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>162</v>
       </c>
@@ -14291,8 +17368,20 @@
       <c r="AG130">
         <v>1.38998145113688</v>
       </c>
+      <c r="AI130">
+        <f t="shared" si="3"/>
+        <v>0.76720176203748303</v>
+      </c>
+      <c r="AJ130">
+        <f t="shared" si="4"/>
+        <v>0.60518612966348195</v>
+      </c>
+      <c r="AK130">
+        <f t="shared" si="5"/>
+        <v>0.80711691716963996</v>
+      </c>
     </row>
-    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>163</v>
       </c>
@@ -14392,8 +17481,20 @@
       <c r="AG131">
         <v>1.6282198999637401</v>
       </c>
+      <c r="AI131">
+        <f t="shared" si="3"/>
+        <v>1.4709464808100401</v>
+      </c>
+      <c r="AJ131">
+        <f t="shared" si="4"/>
+        <v>0.347877865092236</v>
+      </c>
+      <c r="AK131">
+        <f t="shared" si="5"/>
+        <v>9.2001909922724973E-2</v>
+      </c>
     </row>
-    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>164</v>
       </c>
@@ -14493,8 +17594,20 @@
       <c r="AG132">
         <v>1.8159423337893601</v>
       </c>
+      <c r="AI132">
+        <f t="shared" ref="AI132:AI195" si="6">AC132</f>
+        <v>1.0030795249691</v>
+      </c>
+      <c r="AJ132">
+        <f t="shared" ref="AJ132:AJ195" si="7">AD132</f>
+        <v>0.482974957555449</v>
+      </c>
+      <c r="AK132">
+        <f t="shared" ref="AK132:AK195" si="8">AB132+AA132</f>
+        <v>-8.9820390982389295E-2</v>
+      </c>
     </row>
-    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>165</v>
       </c>
@@ -14594,8 +17707,20 @@
       <c r="AG133">
         <v>1.6667322001760001</v>
       </c>
+      <c r="AI133">
+        <f t="shared" si="6"/>
+        <v>0.94646954072035505</v>
+      </c>
+      <c r="AJ133">
+        <f t="shared" si="7"/>
+        <v>0.14313362133075999</v>
+      </c>
+      <c r="AK133">
+        <f t="shared" si="8"/>
+        <v>9.0760482415103982E-2</v>
+      </c>
     </row>
-    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>166</v>
       </c>
@@ -14695,8 +17820,20 @@
       <c r="AG134">
         <v>1.32536961460698</v>
       </c>
+      <c r="AI134">
+        <f t="shared" si="6"/>
+        <v>1.2645414272361699</v>
+      </c>
+      <c r="AJ134">
+        <f t="shared" si="7"/>
+        <v>-3.9991537341244297E-2</v>
+      </c>
+      <c r="AK134">
+        <f t="shared" si="8"/>
+        <v>-0.4104954233003848</v>
+      </c>
     </row>
-    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>167</v>
       </c>
@@ -14796,8 +17933,20 @@
       <c r="AG135">
         <v>1.1846565048479001</v>
       </c>
+      <c r="AI135">
+        <f t="shared" si="6"/>
+        <v>0.79458864165740895</v>
+      </c>
+      <c r="AJ135">
+        <f t="shared" si="7"/>
+        <v>0.316291863621321</v>
+      </c>
+      <c r="AK135">
+        <f t="shared" si="8"/>
+        <v>0.23709331150998003</v>
+      </c>
     </row>
-    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>168</v>
       </c>
@@ -14897,8 +18046,20 @@
       <c r="AG136">
         <v>1.0009096743148</v>
       </c>
+      <c r="AI136">
+        <f t="shared" si="6"/>
+        <v>0.84371349831385301</v>
+      </c>
+      <c r="AJ136">
+        <f t="shared" si="7"/>
+        <v>0.11620809481491801</v>
+      </c>
+      <c r="AK136">
+        <f t="shared" si="8"/>
+        <v>-0.29867482371903797</v>
+      </c>
     </row>
-    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>169</v>
       </c>
@@ -14998,8 +18159,20 @@
       <c r="AG137">
         <v>0.86901003763364204</v>
       </c>
+      <c r="AI137">
+        <f t="shared" si="6"/>
+        <v>0.65127228382129398</v>
+      </c>
+      <c r="AJ137">
+        <f t="shared" si="7"/>
+        <v>1.4854433648657401E-2</v>
+      </c>
+      <c r="AK137">
+        <f t="shared" si="8"/>
+        <v>-1.336161972834693E-2</v>
+      </c>
     </row>
-    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>170</v>
       </c>
@@ -15099,8 +18272,20 @@
       <c r="AG138">
         <v>0.694660666960492</v>
       </c>
+      <c r="AI138">
+        <f t="shared" si="6"/>
+        <v>0.23662365528947599</v>
+      </c>
+      <c r="AJ138">
+        <f t="shared" si="7"/>
+        <v>8.5790310352360805E-3</v>
+      </c>
+      <c r="AK138">
+        <f t="shared" si="8"/>
+        <v>-0.12854570242277902</v>
+      </c>
     </row>
-    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>171</v>
       </c>
@@ -15200,8 +18385,20 @@
       <c r="AG139">
         <v>0.34838146203421999</v>
       </c>
+      <c r="AI139">
+        <f t="shared" si="6"/>
+        <v>0.16080251972284701</v>
+      </c>
+      <c r="AJ139">
+        <f t="shared" si="7"/>
+        <v>8.25642399198349E-2</v>
+      </c>
+      <c r="AK139">
+        <f t="shared" si="8"/>
+        <v>-0.28050976255906679</v>
+      </c>
     </row>
-    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>172</v>
       </c>
@@ -15301,8 +18498,20 @@
       <c r="AG140">
         <v>8.4719155523004103E-2</v>
       </c>
+      <c r="AI140">
+        <f t="shared" si="6"/>
+        <v>-0.14345529321918901</v>
+      </c>
+      <c r="AJ140">
+        <f t="shared" si="7"/>
+        <v>0.102251173312857</v>
+      </c>
+      <c r="AK140">
+        <f t="shared" si="8"/>
+        <v>-0.35219833672879802</v>
+      </c>
     </row>
-    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>173</v>
       </c>
@@ -15402,8 +18611,20 @@
       <c r="AG141">
         <v>-0.21725615701624701</v>
       </c>
+      <c r="AI141">
+        <f t="shared" si="6"/>
+        <v>-8.0666128728846903E-2</v>
+      </c>
+      <c r="AJ141">
+        <f t="shared" si="7"/>
+        <v>7.7780159899948104E-2</v>
+      </c>
+      <c r="AK141">
+        <f t="shared" si="8"/>
+        <v>-0.55225018358650002</v>
+      </c>
     </row>
-    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>174</v>
       </c>
@@ -15503,8 +18724,20 @@
       <c r="AG142">
         <v>-0.39485281756041002</v>
       </c>
+      <c r="AI142">
+        <f t="shared" si="6"/>
+        <v>-0.61889660561194104</v>
+      </c>
+      <c r="AJ142">
+        <f t="shared" si="7"/>
+        <v>0.13170192568415001</v>
+      </c>
+      <c r="AK142">
+        <f t="shared" si="8"/>
+        <v>-0.10653497834692939</v>
+      </c>
     </row>
-    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>175</v>
       </c>
@@ -15604,8 +18837,20 @@
       <c r="AG143">
         <v>-0.644596676002128</v>
       </c>
+      <c r="AI143">
+        <f t="shared" si="6"/>
+        <v>-0.61786711785701398</v>
+      </c>
+      <c r="AJ143">
+        <f t="shared" si="7"/>
+        <v>9.3581789827995698E-2</v>
+      </c>
+      <c r="AK143">
+        <f t="shared" si="8"/>
+        <v>-0.51183310865423892</v>
+      </c>
     </row>
-    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>176</v>
       </c>
@@ -15705,8 +18950,20 @@
       <c r="AG144">
         <v>-0.71811933546429696</v>
       </c>
+      <c r="AI144">
+        <f t="shared" si="6"/>
+        <v>-0.43890859899527201</v>
+      </c>
+      <c r="AJ144">
+        <f t="shared" si="7"/>
+        <v>-4.05592960456264E-2</v>
+      </c>
+      <c r="AK144">
+        <f t="shared" si="8"/>
+        <v>-0.20802519944290582</v>
+      </c>
     </row>
-    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>177</v>
       </c>
@@ -15806,8 +19063,20 @@
       <c r="AG145">
         <v>-0.79453206135004895</v>
       </c>
+      <c r="AI145">
+        <f t="shared" si="6"/>
+        <v>-0.52761060511188596</v>
+      </c>
+      <c r="AJ145">
+        <f t="shared" si="7"/>
+        <v>4.5212365131759399E-2</v>
+      </c>
+      <c r="AK145">
+        <f t="shared" si="8"/>
+        <v>-0.378388815978279</v>
+      </c>
     </row>
-    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>178</v>
       </c>
@@ -15907,8 +19176,20 @@
       <c r="AG146">
         <v>-0.66891278343862404</v>
       </c>
+      <c r="AI146">
+        <f t="shared" si="6"/>
+        <v>-0.88255014604148196</v>
+      </c>
+      <c r="AJ146">
+        <f t="shared" si="7"/>
+        <v>0.24987032754784899</v>
+      </c>
+      <c r="AK146">
+        <f t="shared" si="8"/>
+        <v>0.54142727186460993</v>
+      </c>
     </row>
-    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>179</v>
       </c>
@@ -16008,8 +19289,20 @@
       <c r="AG147">
         <v>-0.67525902306837304</v>
       </c>
+      <c r="AI147">
+        <f t="shared" si="6"/>
+        <v>-0.66337137952166603</v>
+      </c>
+      <c r="AJ147">
+        <f t="shared" si="7"/>
+        <v>4.2945111317920497E-2</v>
+      </c>
+      <c r="AK147">
+        <f t="shared" si="8"/>
+        <v>-0.44107712699850748</v>
+      </c>
     </row>
-    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>180</v>
       </c>
@@ -16109,8 +19402,20 @@
       <c r="AG148">
         <v>-0.71301206242681103</v>
       </c>
+      <c r="AI148">
+        <f t="shared" si="6"/>
+        <v>-0.52882811809535102</v>
+      </c>
+      <c r="AJ148">
+        <f t="shared" si="7"/>
+        <v>0.20412924852015699</v>
+      </c>
+      <c r="AK148">
+        <f t="shared" si="8"/>
+        <v>-0.51380638234236198</v>
+      </c>
     </row>
-    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>181</v>
       </c>
@@ -16210,8 +19515,20 @@
       <c r="AG149">
         <v>-0.55016061526008797</v>
       </c>
+      <c r="AI149">
+        <f t="shared" si="6"/>
+        <v>-1.01188732536118</v>
+      </c>
+      <c r="AJ149">
+        <f t="shared" si="7"/>
+        <v>0.54188131952740604</v>
+      </c>
+      <c r="AK149">
+        <f t="shared" si="8"/>
+        <v>0.26062473854226292</v>
+      </c>
     </row>
-    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>182</v>
       </c>
@@ -16311,8 +19628,20 @@
       <c r="AG150">
         <v>-0.677534262407816</v>
       </c>
+      <c r="AI150">
+        <f t="shared" si="6"/>
+        <v>-0.47245010559934802</v>
+      </c>
+      <c r="AJ150">
+        <f t="shared" si="7"/>
+        <v>0.14685985905663301</v>
+      </c>
+      <c r="AK150">
+        <f t="shared" si="8"/>
+        <v>-0.27515688867722099</v>
+      </c>
     </row>
-    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>183</v>
       </c>
@@ -16412,8 +19741,20 @@
       <c r="AG151">
         <v>-0.41597203256381299</v>
       </c>
+      <c r="AI151">
+        <f t="shared" si="6"/>
+        <v>-0.39742316668115402</v>
+      </c>
+      <c r="AJ151">
+        <f t="shared" si="7"/>
+        <v>5.6628309231249001E-2</v>
+      </c>
+      <c r="AK151">
+        <f t="shared" si="8"/>
+        <v>0.325540381623666</v>
+      </c>
     </row>
-    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>184</v>
       </c>
@@ -16513,8 +19854,20 @@
       <c r="AG152">
         <v>-0.245308838255449</v>
       </c>
+      <c r="AI152">
+        <f t="shared" si="6"/>
+        <v>-0.25009259309851001</v>
+      </c>
+      <c r="AJ152">
+        <f t="shared" si="7"/>
+        <v>0.12972762912812</v>
+      </c>
+      <c r="AK152">
+        <f t="shared" si="8"/>
+        <v>-3.5487510713708606E-2</v>
+      </c>
     </row>
-    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>185</v>
       </c>
@@ -16614,8 +19967,20 @@
       <c r="AG153">
         <v>-9.2810491213219201E-2</v>
       </c>
+      <c r="AI153">
+        <f t="shared" si="6"/>
+        <v>7.7276351807239699E-2</v>
+      </c>
+      <c r="AJ153">
+        <f t="shared" si="7"/>
+        <v>8.1692558803899099E-2</v>
+      </c>
+      <c r="AK153">
+        <f t="shared" si="8"/>
+        <v>0.24164321026626601</v>
+      </c>
     </row>
-    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>186</v>
       </c>
@@ -16715,8 +20080,20 @@
       <c r="AG154">
         <v>4.8346934059760198E-2</v>
       </c>
+      <c r="AI154">
+        <f t="shared" si="6"/>
+        <v>0.17283940650108501</v>
+      </c>
+      <c r="AJ154">
+        <f t="shared" si="7"/>
+        <v>-7.3009350417910799E-3</v>
+      </c>
+      <c r="AK154">
+        <f t="shared" si="8"/>
+        <v>-0.201655905587313</v>
+      </c>
     </row>
-    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>187</v>
       </c>
@@ -16816,8 +20193,20 @@
       <c r="AG155">
         <v>0.714578281301818</v>
       </c>
+      <c r="AI155">
+        <f t="shared" si="6"/>
+        <v>0.31257831229317901</v>
+      </c>
+      <c r="AJ155">
+        <f t="shared" si="7"/>
+        <v>2.02588524862565</v>
+      </c>
+      <c r="AK155">
+        <f t="shared" si="8"/>
+        <v>0.31120735222316698</v>
+      </c>
     </row>
-    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>188</v>
       </c>
@@ -16917,8 +20306,20 @@
       <c r="AG156">
         <v>1.1275821695286199</v>
       </c>
+      <c r="AI156">
+        <f t="shared" si="6"/>
+        <v>0.61748337827899402</v>
+      </c>
+      <c r="AJ156">
+        <f t="shared" si="7"/>
+        <v>0.59516137572451799</v>
+      </c>
+      <c r="AK156">
+        <f t="shared" si="8"/>
+        <v>0.28351832421959922</v>
+      </c>
     </row>
-    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>189</v>
       </c>
@@ -17018,8 +20419,20 @@
       <c r="AG157">
         <v>1.3448012660711699</v>
       </c>
+      <c r="AI157">
+        <f t="shared" si="6"/>
+        <v>-0.51738804071917499</v>
+      </c>
+      <c r="AJ157">
+        <f t="shared" si="7"/>
+        <v>1.5828612315022601</v>
+      </c>
+      <c r="AK157">
+        <f t="shared" si="8"/>
+        <v>0.20401531626452801</v>
+      </c>
     </row>
-    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>190</v>
       </c>
@@ -17119,8 +20532,20 @@
       <c r="AG158">
         <v>2.1810294014909601</v>
       </c>
+      <c r="AI158">
+        <f t="shared" si="6"/>
+        <v>1.10690120099261</v>
+      </c>
+      <c r="AJ158">
+        <f t="shared" si="7"/>
+        <v>1.6057374856156501</v>
+      </c>
+      <c r="AK158">
+        <f t="shared" si="8"/>
+        <v>0.59615642094287702</v>
+      </c>
     </row>
-    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>191</v>
       </c>
@@ -17220,8 +20645,20 @@
       <c r="AG159">
         <v>2.1755523713942102</v>
       </c>
+      <c r="AI159">
+        <f t="shared" si="6"/>
+        <v>1.9122005571349401</v>
+      </c>
+      <c r="AJ159">
+        <f t="shared" si="7"/>
+        <v>-0.19287462696346599</v>
+      </c>
+      <c r="AK159">
+        <f t="shared" si="8"/>
+        <v>0.90843686258352196</v>
+      </c>
     </row>
-    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>192</v>
       </c>
@@ -17321,8 +20758,20 @@
       <c r="AG160">
         <v>2.3986535648379999</v>
       </c>
+      <c r="AI160">
+        <f t="shared" si="6"/>
+        <v>1.5483814906673901</v>
+      </c>
+      <c r="AJ160">
+        <f t="shared" si="7"/>
+        <v>0.91234231981664404</v>
+      </c>
+      <c r="AK160">
+        <f t="shared" si="8"/>
+        <v>-7.215595848578904E-2</v>
+      </c>
     </row>
-    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>193</v>
       </c>
@@ -17422,8 +20871,20 @@
       <c r="AG161">
         <v>2.6240563873557901</v>
       </c>
+      <c r="AI161">
+        <f t="shared" si="6"/>
+        <v>1.3837536542386999</v>
+      </c>
+      <c r="AJ161">
+        <f t="shared" si="7"/>
+        <v>0.91959232025923998</v>
+      </c>
+      <c r="AK161">
+        <f t="shared" si="8"/>
+        <v>-0.13224617737916899</v>
+      </c>
     </row>
-    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>194</v>
       </c>
@@ -17523,8 +20984,20 @@
       <c r="AG162">
         <v>2.1715436754222499</v>
       </c>
+      <c r="AI162">
+        <f t="shared" si="6"/>
+        <v>1.01446527936463</v>
+      </c>
+      <c r="AJ162">
+        <f t="shared" si="7"/>
+        <v>1.14787563417731</v>
+      </c>
+      <c r="AK162">
+        <f t="shared" si="8"/>
+        <v>-0.66359665372493604</v>
+      </c>
     </row>
-    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>195</v>
       </c>
@@ -17624,8 +21097,20 @@
       <c r="AG163">
         <v>1.82596025421214</v>
       </c>
+      <c r="AI163">
+        <f t="shared" si="6"/>
+        <v>0.79282623118000894</v>
+      </c>
+      <c r="AJ163">
+        <f t="shared" si="7"/>
+        <v>0.49670980449752999</v>
+      </c>
+      <c r="AK163">
+        <f t="shared" si="8"/>
+        <v>-4.4106927763004011E-2</v>
+      </c>
     </row>
-    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>196</v>
       </c>
@@ -17725,8 +21210,20 @@
       <c r="AG164">
         <v>1.29286652267334</v>
       </c>
+      <c r="AI164">
+        <f t="shared" si="6"/>
+        <v>0.60895541321764302</v>
+      </c>
+      <c r="AJ164">
+        <f t="shared" si="7"/>
+        <v>0.560224679859888</v>
+      </c>
+      <c r="AK164">
+        <f t="shared" si="8"/>
+        <v>-0.91298716723446061</v>
+      </c>
     </row>
-    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>197</v>
       </c>
@@ -17826,8 +21323,20 @@
       <c r="AG165">
         <v>0.788786333634524</v>
       </c>
+      <c r="AI165">
+        <f t="shared" si="6"/>
+        <v>0.65714747649981697</v>
+      </c>
+      <c r="AJ165">
+        <f t="shared" si="7"/>
+        <v>0.353183976027028</v>
+      </c>
+      <c r="AK165">
+        <f t="shared" si="8"/>
+        <v>-0.85555241156334305</v>
+      </c>
     </row>
-    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>198</v>
       </c>
@@ -17927,8 +21436,20 @@
       <c r="AG166">
         <v>2.9903065841844701E-2</v>
       </c>
+      <c r="AI166">
+        <f t="shared" si="6"/>
+        <v>9.6036757592896593E-2</v>
+      </c>
+      <c r="AJ166">
+        <f t="shared" si="7"/>
+        <v>-0.28135226686383102</v>
+      </c>
+      <c r="AK166">
+        <f t="shared" si="8"/>
+        <v>-1.3514733020827829</v>
+      </c>
     </row>
-    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>199</v>
       </c>
@@ -18028,8 +21549,20 @@
       <c r="AG167">
         <v>-0.62140848518054403</v>
       </c>
+      <c r="AI167">
+        <f t="shared" si="6"/>
+        <v>3.0054316346133699E-2</v>
+      </c>
+      <c r="AJ167">
+        <f t="shared" si="7"/>
+        <v>-0.48055702098094399</v>
+      </c>
+      <c r="AK167">
+        <f t="shared" si="8"/>
+        <v>-0.90931439154020999</v>
+      </c>
     </row>
-    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>200</v>
       </c>
@@ -18129,8 +21662,20 @@
       <c r="AG168">
         <v>-1.2150699699455001</v>
       </c>
+      <c r="AI168">
+        <f t="shared" si="6"/>
+        <v>-0.186086790476369</v>
+      </c>
+      <c r="AJ168">
+        <f t="shared" si="7"/>
+        <v>-0.42449127706102502</v>
+      </c>
+      <c r="AK168">
+        <f t="shared" si="8"/>
+        <v>-1.5078749456793741</v>
+      </c>
     </row>
-    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>201</v>
       </c>
@@ -18230,8 +21775,20 @@
       <c r="AG169">
         <v>-1.51010120204523</v>
       </c>
+      <c r="AI169">
+        <f t="shared" si="6"/>
+        <v>-0.28579726077297202</v>
+      </c>
+      <c r="AJ169">
+        <f t="shared" si="7"/>
+        <v>-0.33887173094842299</v>
+      </c>
+      <c r="AK169">
+        <f t="shared" si="8"/>
+        <v>-0.40067689571401699</v>
+      </c>
     </row>
-    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>202</v>
       </c>
@@ -18331,8 +21888,20 @@
       <c r="AG170">
         <v>-1.48491412322974</v>
       </c>
+      <c r="AI170">
+        <f t="shared" si="6"/>
+        <v>-8.88590622979918E-2</v>
+      </c>
+      <c r="AJ170">
+        <f t="shared" si="7"/>
+        <v>-0.66052668004168402</v>
+      </c>
+      <c r="AK170">
+        <f t="shared" si="8"/>
+        <v>-0.68665475375207496</v>
+      </c>
     </row>
-    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>203</v>
       </c>
@@ -18432,8 +22001,20 @@
       <c r="AG171">
         <v>-1.4880637595367401</v>
       </c>
+      <c r="AI171">
+        <f t="shared" si="6"/>
+        <v>-0.29688177635468799</v>
+      </c>
+      <c r="AJ171">
+        <f t="shared" si="7"/>
+        <v>-0.314865647366874</v>
+      </c>
+      <c r="AK171">
+        <f t="shared" si="8"/>
+        <v>-0.7606682176814521</v>
+      </c>
     </row>
-    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>204</v>
       </c>
@@ -18533,8 +22114,20 @@
       <c r="AG172">
         <v>-1.1931053136635099</v>
       </c>
+      <c r="AI172">
+        <f t="shared" si="6"/>
+        <v>-0.191747346438563</v>
+      </c>
+      <c r="AJ172">
+        <f t="shared" si="7"/>
+        <v>-0.28559782716326498</v>
+      </c>
+      <c r="AK172">
+        <f t="shared" si="8"/>
+        <v>-0.46127405612203143</v>
+      </c>
     </row>
-    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>205</v>
       </c>
@@ -18634,8 +22227,20 @@
       <c r="AG173">
         <v>-1.34466461799679</v>
       </c>
+      <c r="AI173">
+        <f t="shared" si="6"/>
+        <v>-0.20489981835024201</v>
+      </c>
+      <c r="AJ173">
+        <f t="shared" si="7"/>
+        <v>-0.32168763568499598</v>
+      </c>
+      <c r="AK173">
+        <f t="shared" si="8"/>
+        <v>-1.104995650733275</v>
+      </c>
     </row>
-    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>206</v>
       </c>
@@ -18735,8 +22340,20 @@
       <c r="AG174">
         <v>-1.46095083962633</v>
       </c>
+      <c r="AI174">
+        <f t="shared" si="6"/>
+        <v>-0.83355483453564805</v>
+      </c>
+      <c r="AJ174">
+        <f t="shared" si="7"/>
+        <v>-1.01177457492865E-2</v>
+      </c>
+      <c r="AK174">
+        <f t="shared" si="8"/>
+        <v>-1.0575128023249958</v>
+      </c>
     </row>
-    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>207</v>
       </c>
@@ -18836,8 +22453,20 @@
       <c r="AG175">
         <v>-1.4433476392940101</v>
       </c>
+      <c r="AI175">
+        <f t="shared" si="6"/>
+        <v>-0.914581601494726</v>
+      </c>
+      <c r="AJ175">
+        <f t="shared" si="7"/>
+        <v>4.86851849482208E-2</v>
+      </c>
+      <c r="AK175">
+        <f t="shared" si="8"/>
+        <v>-0.43610642352722473</v>
+      </c>
     </row>
-    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>208</v>
       </c>
@@ -18937,8 +22566,20 @@
       <c r="AG176">
         <v>-1.4886761521159799</v>
       </c>
+      <c r="AI176">
+        <f t="shared" si="6"/>
+        <v>-0.33944257985181597</v>
+      </c>
+      <c r="AJ176">
+        <f t="shared" si="7"/>
+        <v>-7.3037785563324104E-2</v>
+      </c>
+      <c r="AK176">
+        <f t="shared" si="8"/>
+        <v>-0.70745291559659518</v>
+      </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>209</v>
       </c>
@@ -19038,8 +22679,20 @@
       <c r="AG177">
         <v>-1.4332553122288301</v>
       </c>
+      <c r="AI177">
+        <f t="shared" si="6"/>
+        <v>-0.386352752997833</v>
+      </c>
+      <c r="AJ177">
+        <f t="shared" si="7"/>
+        <v>-0.108824713348689</v>
+      </c>
+      <c r="AK177">
+        <f t="shared" si="8"/>
+        <v>-0.91472227887338375</v>
+      </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>210</v>
       </c>
@@ -19139,8 +22792,20 @@
       <c r="AG178">
         <v>-1.2891711901379801</v>
       </c>
+      <c r="AI178">
+        <f t="shared" si="6"/>
+        <v>-0.53640368610556</v>
+      </c>
+      <c r="AJ178">
+        <f t="shared" si="7"/>
+        <v>-0.13182683222401501</v>
+      </c>
+      <c r="AK178">
+        <f t="shared" si="8"/>
+        <v>-0.65661837591697592</v>
+      </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>211</v>
       </c>
@@ -19240,8 +22905,20 @@
       <c r="AG179">
         <v>-1.14677972036988</v>
       </c>
+      <c r="AI179">
+        <f t="shared" si="6"/>
+        <v>-0.55755960520690195</v>
+      </c>
+      <c r="AJ179">
+        <f t="shared" si="7"/>
+        <v>6.21291634745606E-2</v>
+      </c>
+      <c r="AK179">
+        <f t="shared" si="8"/>
+        <v>-0.2370065192689591</v>
+      </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>212</v>
       </c>
@@ -19341,8 +23018,20 @@
       <c r="AG180">
         <v>-0.91186775179969504</v>
       </c>
+      <c r="AI180">
+        <f t="shared" si="6"/>
+        <v>-0.65687216635253598</v>
+      </c>
+      <c r="AJ180">
+        <f t="shared" si="7"/>
+        <v>0.32789556075458698</v>
+      </c>
+      <c r="AK180">
+        <f t="shared" si="8"/>
+        <v>0.1486911988669351</v>
+      </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>213</v>
       </c>
@@ -19442,8 +23131,20 @@
       <c r="AG181">
         <v>-0.70764971788959996</v>
       </c>
+      <c r="AI181">
+        <f t="shared" si="6"/>
+        <v>-0.83151011500590899</v>
+      </c>
+      <c r="AJ181">
+        <f t="shared" si="7"/>
+        <v>0.62945531444009295</v>
+      </c>
+      <c r="AK181">
+        <f t="shared" si="8"/>
+        <v>-0.39097280901370801</v>
+      </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>214</v>
       </c>
@@ -19543,8 +23244,20 @@
       <c r="AG182">
         <v>-0.36278009946733603</v>
       </c>
+      <c r="AI182">
+        <f t="shared" si="6"/>
+        <v>-0.84417955537657996</v>
+      </c>
+      <c r="AJ182">
+        <f t="shared" si="7"/>
+        <v>0.80506257307774098</v>
+      </c>
+      <c r="AK182">
+        <f t="shared" si="8"/>
+        <v>9.3746561741343909E-2</v>
+      </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>215</v>
       </c>
@@ -19644,8 +23357,20 @@
       <c r="AG183">
         <v>-0.103009928978021</v>
       </c>
+      <c r="AI183">
+        <f t="shared" si="6"/>
+        <v>-0.289415925794406</v>
+      </c>
+      <c r="AJ183">
+        <f t="shared" si="7"/>
+        <v>0.23109925718851301</v>
+      </c>
+      <c r="AK183">
+        <f t="shared" si="8"/>
+        <v>0.36496038956185017</v>
+      </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>216</v>
       </c>
@@ -19745,8 +23470,20 @@
       <c r="AG184">
         <v>-6.9642260017968902E-2</v>
       </c>
+      <c r="AI184">
+        <f t="shared" si="6"/>
+        <v>-0.320573352656497</v>
+      </c>
+      <c r="AJ184">
+        <f t="shared" si="7"/>
+        <v>0.230479228157809</v>
+      </c>
+      <c r="AK184">
+        <f t="shared" si="8"/>
+        <v>4.3279393607883201E-2</v>
+      </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>217</v>
       </c>
@@ -19846,8 +23583,20 @@
       <c r="AG185">
         <v>4.19508943942569E-2</v>
       </c>
+      <c r="AI185">
+        <f t="shared" si="6"/>
+        <v>-0.45389477679831303</v>
+      </c>
+      <c r="AJ185">
+        <f t="shared" si="7"/>
+        <v>0.33221925699800298</v>
+      </c>
+      <c r="AK185">
+        <f t="shared" si="8"/>
+        <v>-2.4979472130311001E-2</v>
+      </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>218</v>
       </c>
@@ -19947,8 +23696,20 @@
       <c r="AG186">
         <v>0.10910306042437</v>
       </c>
+      <c r="AI186">
+        <f t="shared" si="6"/>
+        <v>-0.161986758131728</v>
+      </c>
+      <c r="AJ186">
+        <f t="shared" si="7"/>
+        <v>0.169206915132255</v>
+      </c>
+      <c r="AK186">
+        <f t="shared" si="8"/>
+        <v>0.31601808656243024</v>
+      </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>219</v>
       </c>
@@ -20048,8 +23809,20 @@
       <c r="AG187">
         <v>-6.4164516420920401E-2</v>
       </c>
+      <c r="AI187">
+        <f t="shared" si="6"/>
+        <v>0.205166340832897</v>
+      </c>
+      <c r="AJ187">
+        <f t="shared" si="7"/>
+        <v>-0.21495648266914999</v>
+      </c>
+      <c r="AK187">
+        <f t="shared" si="8"/>
+        <v>-0.37663644458895124</v>
+      </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>220</v>
       </c>
@@ -20149,8 +23922,20 @@
       <c r="AG188">
         <v>-8.5524995448747101E-2</v>
       </c>
+      <c r="AI188">
+        <f t="shared" si="6"/>
+        <v>-8.4239718372239397E-2</v>
+      </c>
+      <c r="AJ188">
+        <f t="shared" si="7"/>
+        <v>-3.5106084364840202E-2</v>
+      </c>
+      <c r="AK188">
+        <f t="shared" si="8"/>
+        <v>-1.29108442650313E-2</v>
+      </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>221</v>
       </c>
@@ -20250,8 +24035,20 @@
       <c r="AG189">
         <v>-0.104239486120491</v>
       </c>
+      <c r="AI189">
+        <f t="shared" si="6"/>
+        <v>2.1809314439182301E-2</v>
+      </c>
+      <c r="AJ189">
+        <f t="shared" si="7"/>
+        <v>-4.9568438343616503E-2</v>
+      </c>
+      <c r="AK189">
+        <f t="shared" si="8"/>
+        <v>-0.1937538307131611</v>
+      </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>222</v>
       </c>
@@ -20351,8 +24148,20 @@
       <c r="AG190">
         <v>-0.27143492884703901</v>
       </c>
+      <c r="AI190">
+        <f t="shared" si="6"/>
+        <v>0.26852686613269899</v>
+      </c>
+      <c r="AJ190">
+        <f t="shared" si="7"/>
+        <v>-9.9635980571267796E-2</v>
+      </c>
+      <c r="AK190">
+        <f t="shared" si="8"/>
+        <v>-0.51443441290466596</v>
+      </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>223</v>
       </c>
@@ -20452,8 +24261,20 @@
       <c r="AG191">
         <v>-0.171952141229093</v>
       </c>
+      <c r="AI191">
+        <f t="shared" si="6"/>
+        <v>8.7597337373262502E-2</v>
+      </c>
+      <c r="AJ191">
+        <f t="shared" si="7"/>
+        <v>4.5230578381790697E-2</v>
+      </c>
+      <c r="AK191">
+        <f t="shared" si="8"/>
+        <v>-0.1213233517084721</v>
+      </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>224</v>
       </c>
@@ -20553,8 +24374,20 @@
       <c r="AG192">
         <v>-0.18222972189161099</v>
       </c>
+      <c r="AI192">
+        <f t="shared" si="6"/>
+        <v>4.4510129363697901E-2</v>
+      </c>
+      <c r="AJ192">
+        <f t="shared" si="7"/>
+        <v>2.4999395376333899E-2</v>
+      </c>
+      <c r="AK192">
+        <f t="shared" si="8"/>
+        <v>-0.24287649439221659</v>
+      </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>225</v>
       </c>
@@ -20654,8 +24487,20 @@
       <c r="AG193">
         <v>-8.5947076596532196E-2</v>
       </c>
+      <c r="AI193">
+        <f t="shared" si="6"/>
+        <v>2.6068059249297101E-2</v>
+      </c>
+      <c r="AJ193">
+        <f t="shared" si="7"/>
+        <v>-0.15245428485326201</v>
+      </c>
+      <c r="AK193">
+        <f t="shared" si="8"/>
+        <v>0.29000385216668512</v>
+      </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>226</v>
       </c>
@@ -20755,8 +24600,20 @@
       <c r="AG194">
         <v>-2.64766959336796E-2</v>
       </c>
+      <c r="AI194">
+        <f t="shared" si="6"/>
+        <v>0.18692580894851099</v>
+      </c>
+      <c r="AJ194">
+        <f t="shared" si="7"/>
+        <v>-9.7033313453737197E-2</v>
+      </c>
+      <c r="AK194">
+        <f t="shared" si="8"/>
+        <v>-0.19755450018659859</v>
+      </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>227</v>
       </c>
@@ -20856,8 +24713,20 @@
       <c r="AG195">
         <v>6.8937955495017203E-2</v>
       </c>
+      <c r="AI195">
+        <f t="shared" si="6"/>
+        <v>0.21816267543877099</v>
+      </c>
+      <c r="AJ195">
+        <f t="shared" si="7"/>
+        <v>3.0233269238882799E-2</v>
+      </c>
+      <c r="AK195">
+        <f t="shared" si="8"/>
+        <v>0.14476722508371431</v>
+      </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>228</v>
       </c>
@@ -20957,8 +24826,20 @@
       <c r="AG196">
         <v>0.1767584425074</v>
       </c>
+      <c r="AI196">
+        <f t="shared" ref="AI196:AI253" si="9">AC196</f>
+        <v>1.2459902521146799E-2</v>
+      </c>
+      <c r="AJ196">
+        <f t="shared" ref="AJ196:AJ253" si="10">AD196</f>
+        <v>5.3104964509488997E-2</v>
+      </c>
+      <c r="AK196">
+        <f t="shared" ref="AK196:AK253" si="11">AB196+AA196</f>
+        <v>0.1923501113667116</v>
+      </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>229</v>
       </c>
@@ -21058,8 +24939,20 @@
       <c r="AG197">
         <v>8.6740731706107299E-2</v>
       </c>
+      <c r="AI197">
+        <f t="shared" si="9"/>
+        <v>-1.4315174833308599E-2</v>
+      </c>
+      <c r="AJ197">
+        <f t="shared" si="10"/>
+        <v>8.5482180413443395E-2</v>
+      </c>
+      <c r="AK197">
+        <f t="shared" si="11"/>
+        <v>-0.26762022222258647</v>
+      </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>230</v>
       </c>
@@ -21159,8 +25052,20 @@
       <c r="AG198">
         <v>0.28423328270884801</v>
       </c>
+      <c r="AI198">
+        <f t="shared" si="9"/>
+        <v>-0.210698590814</v>
+      </c>
+      <c r="AJ198">
+        <f t="shared" si="10"/>
+        <v>0.31690207691202299</v>
+      </c>
+      <c r="AK198">
+        <f t="shared" si="11"/>
+        <v>0.57610471322111501</v>
+      </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>231</v>
       </c>
@@ -21260,8 +25165,20 @@
       <c r="AG199">
         <v>0.36595873023476799</v>
       </c>
+      <c r="AI199">
+        <f t="shared" si="9"/>
+        <v>-0.13645880542681099</v>
+      </c>
+      <c r="AJ199">
+        <f t="shared" si="10"/>
+        <v>0.160464486260845</v>
+      </c>
+      <c r="AK199">
+        <f t="shared" si="11"/>
+        <v>0.69605927903101295</v>
+      </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>232</v>
       </c>
@@ -21361,8 +25278,20 @@
       <c r="AG200">
         <v>0.45688807188180303</v>
       </c>
+      <c r="AI200">
+        <f t="shared" si="9"/>
+        <v>-9.9896745551819502E-2</v>
+      </c>
+      <c r="AJ200">
+        <f t="shared" si="10"/>
+        <v>0.30209598333474402</v>
+      </c>
+      <c r="AK200">
+        <f t="shared" si="11"/>
+        <v>0.41943310720256399</v>
+      </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>233</v>
       </c>
@@ -21462,8 +25391,20 @@
       <c r="AG201">
         <v>0.60318122254769602</v>
       </c>
+      <c r="AI201">
+        <f t="shared" si="9"/>
+        <v>6.9734484728009999E-2</v>
+      </c>
+      <c r="AJ201">
+        <f t="shared" si="10"/>
+        <v>0.22645796422327899</v>
+      </c>
+      <c r="AK201">
+        <f t="shared" si="11"/>
+        <v>9.2526937069831311E-2</v>
+      </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>234</v>
       </c>
@@ -21563,8 +25504,20 @@
       <c r="AG202">
         <v>0.54247135811618996</v>
       </c>
+      <c r="AI202">
+        <f t="shared" si="9"/>
+        <v>-0.133029606992979</v>
+      </c>
+      <c r="AJ202">
+        <f t="shared" si="10"/>
+        <v>0.15029646938934199</v>
+      </c>
+      <c r="AK202">
+        <f t="shared" si="11"/>
+        <v>0.422201879196754</v>
+      </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>235</v>
       </c>
@@ -21664,8 +25617,20 @@
       <c r="AG203">
         <v>3.8524246988152302</v>
       </c>
+      <c r="AI203">
+        <f t="shared" si="9"/>
+        <v>0.27690142892924302</v>
+      </c>
+      <c r="AJ203">
+        <f t="shared" si="10"/>
+        <v>12.5245445096163</v>
+      </c>
+      <c r="AK203">
+        <f t="shared" si="11"/>
+        <v>1.1584323841156801</v>
+      </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>236</v>
       </c>
@@ -21765,8 +25730,20 @@
       <c r="AG204">
         <v>4.3677265654337498</v>
       </c>
+      <c r="AI204">
+        <f t="shared" si="9"/>
+        <v>0.46542691099154698</v>
+      </c>
+      <c r="AJ204">
+        <f t="shared" si="10"/>
+        <v>3.8824800689394201</v>
+      </c>
+      <c r="AK204">
+        <f t="shared" si="11"/>
+        <v>-1.6650671684713916</v>
+      </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>237</v>
       </c>
@@ -21866,8 +25843,20 @@
       <c r="AG205">
         <v>3.3893299987914798</v>
       </c>
+      <c r="AI205">
+        <f t="shared" si="9"/>
+        <v>-0.54426566476224703</v>
+      </c>
+      <c r="AJ205">
+        <f t="shared" si="10"/>
+        <v>-2.26194644766329</v>
+      </c>
+      <c r="AK205">
+        <f t="shared" si="11"/>
+        <v>-0.71865476812240203</v>
+      </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>238</v>
       </c>
@@ -21967,8 +25956,20 @@
       <c r="AG206">
         <v>5.2265350132628701</v>
       </c>
+      <c r="AI206">
+        <f t="shared" si="9"/>
+        <v>-0.172826068191029</v>
+      </c>
+      <c r="AJ206">
+        <f t="shared" si="10"/>
+        <v>7.2504820103743004</v>
+      </c>
+      <c r="AK206">
+        <f t="shared" si="11"/>
+        <v>0.71063285729540904</v>
+      </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>239</v>
       </c>
@@ -22068,8 +26069,20 @@
       <c r="AG207">
         <v>1.17083630261236</v>
       </c>
+      <c r="AI207">
+        <f t="shared" si="9"/>
+        <v>-0.20024156480237401</v>
+      </c>
+      <c r="AJ207">
+        <f t="shared" si="10"/>
+        <v>-0.92211782394765796</v>
+      </c>
+      <c r="AK207">
+        <f t="shared" si="11"/>
+        <v>-1.140557131190856</v>
+      </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>240</v>
       </c>
@@ -22169,8 +26182,20 @@
       <c r="AG208">
         <v>-0.20633775097170201</v>
       </c>
+      <c r="AI208">
+        <f t="shared" si="9"/>
+        <v>-0.28730716272028101</v>
+      </c>
+      <c r="AJ208">
+        <f t="shared" si="10"/>
+        <v>-1.9423290021196999</v>
+      </c>
+      <c r="AK208">
+        <f t="shared" si="11"/>
+        <v>-0.59622023803666502</v>
+      </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>241</v>
       </c>
@@ -22270,8 +26295,20 @@
       <c r="AG209">
         <v>-6.4328321473236194E-2</v>
       </c>
+      <c r="AI209">
+        <f t="shared" si="9"/>
+        <v>-0.26179476382238798</v>
+      </c>
+      <c r="AJ209">
+        <f t="shared" si="10"/>
+        <v>-2.30585932171841</v>
+      </c>
+      <c r="AK209">
+        <f t="shared" si="11"/>
+        <v>-0.38917507701327303</v>
+      </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>242</v>
       </c>
@@ -22371,8 +26408,20 @@
       <c r="AG210">
         <v>-2.9143988061179198</v>
       </c>
+      <c r="AI210">
+        <f t="shared" si="9"/>
+        <v>-0.59610810861561503</v>
+      </c>
+      <c r="AJ210">
+        <f t="shared" si="10"/>
+        <v>-2.14191265236644</v>
+      </c>
+      <c r="AK210">
+        <f t="shared" si="11"/>
+        <v>-0.873972378117989</v>
+      </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>243</v>
       </c>
@@ -22472,8 +26521,20 @@
       <c r="AG211">
         <v>-3.4809074504106499</v>
       </c>
+      <c r="AI211">
+        <f t="shared" si="9"/>
+        <v>-0.82282884940684398</v>
+      </c>
+      <c r="AJ211">
+        <f t="shared" si="10"/>
+        <v>-3.00328922644499</v>
+      </c>
+      <c r="AK211">
+        <f t="shared" si="11"/>
+        <v>-0.70283302125997393</v>
+      </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>244</v>
       </c>
@@ -22573,8 +26634,20 @@
       <c r="AG212">
         <v>-3.3197260181094701</v>
       </c>
+      <c r="AI212">
+        <f t="shared" si="9"/>
+        <v>-0.38874328123125501</v>
+      </c>
+      <c r="AJ212">
+        <f t="shared" si="10"/>
+        <v>-1.9239919920839901</v>
+      </c>
+      <c r="AK212">
+        <f t="shared" si="11"/>
+        <v>0.13160459964330395</v>
+      </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>245</v>
       </c>
@@ -22674,8 +26747,20 @@
       <c r="AG213">
         <v>-2.7086739544471601</v>
       </c>
+      <c r="AI213">
+        <f t="shared" si="9"/>
+        <v>-0.30571739519512597</v>
+      </c>
+      <c r="AJ213">
+        <f t="shared" si="10"/>
+        <v>-0.76061473655181</v>
+      </c>
+      <c r="AK213">
+        <f t="shared" si="11"/>
+        <v>0.55371122384211291</v>
+      </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>246</v>
       </c>
@@ -22775,8 +26860,20 @@
       <c r="AG214">
         <v>-1.7964252022868501</v>
       </c>
+      <c r="AI214">
+        <f t="shared" si="9"/>
+        <v>0.78367751380725303</v>
+      </c>
+      <c r="AJ214">
+        <f t="shared" si="10"/>
+        <v>-1.21650791587402</v>
+      </c>
+      <c r="AK214">
+        <f t="shared" si="11"/>
+        <v>0.46983227160794239</v>
+      </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>247</v>
       </c>
@@ -22876,8 +26973,20 @@
       <c r="AG215">
         <v>-0.73868968017418901</v>
       </c>
+      <c r="AI215">
+        <f t="shared" si="9"/>
+        <v>0.78787772688977797</v>
+      </c>
+      <c r="AJ215">
+        <f t="shared" si="10"/>
+        <v>-1.30802721817344</v>
+      </c>
+      <c r="AK215">
+        <f t="shared" si="11"/>
+        <v>0.222140482622499</v>
+      </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>248</v>
       </c>
@@ -22977,8 +27086,20 @@
       <c r="AG216">
         <v>-8.8817960160580106E-2</v>
       </c>
+      <c r="AI216">
+        <f t="shared" si="9"/>
+        <v>0.56169106293748094</v>
+      </c>
+      <c r="AJ216">
+        <f t="shared" si="10"/>
+        <v>-0.78558245578544805</v>
+      </c>
+      <c r="AK216">
+        <f t="shared" si="11"/>
+        <v>0.64224759923046337</v>
+      </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>249</v>
       </c>
@@ -23078,8 +27199,20 @@
       <c r="AG217">
         <v>7.7703332922429105E-2</v>
       </c>
+      <c r="AI217">
+        <f t="shared" si="9"/>
+        <v>0.46898094459415801</v>
+      </c>
+      <c r="AJ217">
+        <f t="shared" si="10"/>
+        <v>-0.75510133539312796</v>
+      </c>
+      <c r="AK217">
+        <f t="shared" si="11"/>
+        <v>0.43958465522618395</v>
+      </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>250</v>
       </c>
@@ -23179,109 +27312,133 @@
       <c r="AG218">
         <v>4.4185756637695403E-2</v>
       </c>
+      <c r="AI218">
+        <f t="shared" si="9"/>
+        <v>0.60106114585942705</v>
+      </c>
+      <c r="AJ218">
+        <f t="shared" si="10"/>
+        <v>-0.65565894887335296</v>
+      </c>
+      <c r="AK218">
+        <f t="shared" si="11"/>
+        <v>-4.2470632583830992E-2</v>
+      </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+    <row r="219" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="4">
         <v>-1</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="4">
         <v>0.115426641109984</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="4">
         <v>2.1349578247285301E-2</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="4">
         <v>-8.4122946881380195E-3</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="4">
         <v>5.8482362544895299E-2</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="4">
         <v>0.144940665347356</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="4">
         <v>0.15972952792049</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="4">
         <v>-6.1188430872398898E-2</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="4">
         <v>3.66848996418076E-2</v>
       </c>
-      <c r="L219">
+      <c r="L219" s="4">
         <v>-2.6674928411006001E-2</v>
       </c>
-      <c r="M219">
+      <c r="M219" s="4">
         <v>8.5236094699560297E-2</v>
       </c>
-      <c r="N219">
+      <c r="N219" s="4">
         <v>-1.28650896726216E-2</v>
       </c>
-      <c r="O219">
-        <v>0</v>
-      </c>
-      <c r="P219">
+      <c r="O219" s="4">
+        <v>0</v>
+      </c>
+      <c r="P219" s="4">
         <v>-0.100997606137832</v>
       </c>
-      <c r="Q219">
+      <c r="Q219" s="4">
         <v>-6.4991315919980905E-4</v>
       </c>
-      <c r="R219">
+      <c r="R219" s="4">
         <v>-2.14903818299619E-4</v>
       </c>
-      <c r="S219">
+      <c r="S219" s="4">
         <v>-0.28634448872830498</v>
       </c>
-      <c r="T219">
+      <c r="T219" s="4">
         <v>-1.61214977570425E-2</v>
       </c>
-      <c r="U219">
+      <c r="U219" s="4">
         <v>-3.4651346187620002E-2</v>
       </c>
-      <c r="V219">
+      <c r="V219" s="4">
         <v>-4.8521094442546001E-2</v>
       </c>
-      <c r="W219">
+      <c r="W219" s="4">
         <v>-9.2844099648828393E-2</v>
       </c>
-      <c r="X219">
+      <c r="X219" s="4">
         <v>-2.0885955776833798E-3</v>
       </c>
-      <c r="Y219">
+      <c r="Y219" s="4">
         <v>-0.153950985412424</v>
       </c>
-      <c r="Z219">
+      <c r="Z219" s="4">
         <v>0.11149067007315699</v>
       </c>
-      <c r="AA219">
+      <c r="AA219" s="4">
         <v>0.12836392466913199</v>
       </c>
-      <c r="AB219">
+      <c r="AB219" s="4">
         <v>4.5545078985748E-2</v>
       </c>
-      <c r="AC219">
+      <c r="AC219" s="4">
         <v>0.25349173362624899</v>
       </c>
-      <c r="AD219">
+      <c r="AD219" s="4">
         <v>-0.55252285576968596</v>
       </c>
-      <c r="AE219">
+      <c r="AE219" s="4">
         <v>-0.29903112214343702</v>
       </c>
-      <c r="AF219">
+      <c r="AF219" s="4">
         <v>-0.125122118488558</v>
       </c>
-      <c r="AG219">
+      <c r="AG219" s="4">
         <v>8.7407479180845293E-2</v>
       </c>
+      <c r="AI219" s="4">
+        <f t="shared" si="9"/>
+        <v>0.25349173362624899</v>
+      </c>
+      <c r="AJ219" s="4">
+        <f t="shared" si="10"/>
+        <v>-0.55252285576968596</v>
+      </c>
+      <c r="AK219" s="4">
+        <f t="shared" si="11"/>
+        <v>0.17390900365487999</v>
+      </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>252</v>
       </c>
@@ -23381,8 +27538,20 @@
       <c r="AG220">
         <v>-0.100278871413472</v>
       </c>
+      <c r="AI220">
+        <f t="shared" si="9"/>
+        <v>0.25621483732844402</v>
+      </c>
+      <c r="AJ220">
+        <f t="shared" si="10"/>
+        <v>-0.20947531244614701</v>
+      </c>
+      <c r="AK220">
+        <f t="shared" si="11"/>
+        <v>-0.37912872087707078</v>
+      </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>254</v>
       </c>
@@ -23482,8 +27651,20 @@
       <c r="AG221">
         <v>-8.3394881334591997E-2</v>
       </c>
+      <c r="AI221">
+        <f t="shared" si="9"/>
+        <v>0.176771936416519</v>
+      </c>
+      <c r="AJ221">
+        <f t="shared" si="10"/>
+        <v>0.138289440095787</v>
+      </c>
+      <c r="AK221">
+        <f t="shared" si="11"/>
+        <v>-9.4061151769573095E-2</v>
+      </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>255</v>
       </c>
@@ -23583,8 +27764,20 @@
       <c r="AG222">
         <v>-0.13305209920910799</v>
       </c>
+      <c r="AI222">
+        <f t="shared" si="9"/>
+        <v>-9.8032631400762293E-2</v>
+      </c>
+      <c r="AJ222">
+        <f t="shared" si="10"/>
+        <v>-0.113787023270497</v>
+      </c>
+      <c r="AK222">
+        <f t="shared" si="11"/>
+        <v>-8.3877652424562965E-2</v>
+      </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>256</v>
       </c>
@@ -23684,8 +27877,20 @@
       <c r="AG223">
         <v>-0.22833805070117899</v>
       </c>
+      <c r="AI223">
+        <f t="shared" si="9"/>
+        <v>-0.16160401382547601</v>
+      </c>
+      <c r="AJ223">
+        <f t="shared" si="10"/>
+        <v>-0.27457596421958402</v>
+      </c>
+      <c r="AK223">
+        <f t="shared" si="11"/>
+        <v>-7.0085946411780189E-2</v>
+      </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>257</v>
       </c>
@@ -23785,8 +27990,20 @@
       <c r="AG224">
         <v>-0.24603293506985899</v>
       </c>
+      <c r="AI224">
+        <f t="shared" si="9"/>
+        <v>-0.10423670405607501</v>
+      </c>
+      <c r="AJ224">
+        <f t="shared" si="10"/>
+        <v>-0.220375128920516</v>
+      </c>
+      <c r="AK224">
+        <f t="shared" si="11"/>
+        <v>-7.855690049290423E-2</v>
+      </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>258</v>
       </c>
@@ -23886,8 +28103,20 @@
       <c r="AG225">
         <v>-0.42974772428299202</v>
       </c>
+      <c r="AI225">
+        <f t="shared" si="9"/>
+        <v>-0.10884667195143199</v>
+      </c>
+      <c r="AJ225">
+        <f t="shared" si="10"/>
+        <v>-0.191398168229411</v>
+      </c>
+      <c r="AK225">
+        <f t="shared" si="11"/>
+        <v>-0.21361409192895409</v>
+      </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>259</v>
       </c>
@@ -23987,8 +28216,20 @@
       <c r="AG226">
         <v>-0.45617076850865201</v>
       </c>
+      <c r="AI226">
+        <f t="shared" si="9"/>
+        <v>-7.3008633240685294E-2</v>
+      </c>
+      <c r="AJ226">
+        <f t="shared" si="10"/>
+        <v>-0.144725596219241</v>
+      </c>
+      <c r="AK226">
+        <f t="shared" si="11"/>
+        <v>-0.18365525453853482</v>
+      </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>260</v>
       </c>
@@ -24088,8 +28329,20 @@
       <c r="AG227">
         <v>-18.655816997748001</v>
       </c>
+      <c r="AI227">
+        <f t="shared" si="9"/>
+        <v>9.4839693703289303</v>
+      </c>
+      <c r="AJ227">
+        <f t="shared" si="10"/>
+        <v>-13.1995516964132</v>
+      </c>
+      <c r="AK227">
+        <f t="shared" si="11"/>
+        <v>-69.589268515330104</v>
+      </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>261</v>
       </c>
@@ -24189,8 +28442,20 @@
       <c r="AG228">
         <v>-18.9483955324134</v>
       </c>
+      <c r="AI228">
+        <f t="shared" si="9"/>
+        <v>11.6896350945257</v>
+      </c>
+      <c r="AJ228">
+        <f t="shared" si="10"/>
+        <v>-13.263117966656701</v>
+      </c>
+      <c r="AK228">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>262</v>
       </c>
@@ -24290,8 +28555,20 @@
       <c r="AG229">
         <v>-20.598951412934699</v>
       </c>
+      <c r="AI229">
+        <f t="shared" si="9"/>
+        <v>5.9313840388627002</v>
+      </c>
+      <c r="AJ229">
+        <f t="shared" si="10"/>
+        <v>-13.0474664930577</v>
+      </c>
+      <c r="AK229">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>263</v>
       </c>
@@ -24391,8 +28668,20 @@
       <c r="AG230">
         <v>-22.270144611230101</v>
       </c>
+      <c r="AI230">
+        <f t="shared" si="9"/>
+        <v>5.9087583357782503</v>
+      </c>
+      <c r="AJ230">
+        <f t="shared" si="10"/>
+        <v>-12.9949206129585</v>
+      </c>
+      <c r="AK230">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>264</v>
       </c>
@@ -24492,8 +28781,20 @@
       <c r="AG231">
         <v>-2.50085091992641</v>
       </c>
+      <c r="AI231">
+        <f t="shared" si="9"/>
+        <v>5.8483759256836096</v>
+      </c>
+      <c r="AJ231">
+        <f t="shared" si="10"/>
+        <v>-7.6052001883029297E-2</v>
+      </c>
+      <c r="AK231">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>265</v>
       </c>
@@ -24593,8 +28894,20 @@
       <c r="AG232">
         <v>-0.67559390705907796</v>
       </c>
+      <c r="AI232">
+        <f t="shared" si="9"/>
+        <v>5.78940369533405</v>
+      </c>
+      <c r="AJ232">
+        <f t="shared" si="10"/>
+        <v>-6.1858515995685003E-2</v>
+      </c>
+      <c r="AK232">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>266</v>
       </c>
@@ -24694,8 +29007,20 @@
       <c r="AG233">
         <v>2.5206486375577501</v>
       </c>
+      <c r="AI233">
+        <f t="shared" si="9"/>
+        <v>5.7298710542150504</v>
+      </c>
+      <c r="AJ233">
+        <f t="shared" si="10"/>
+        <v>-6.0983329942766402E-2</v>
+      </c>
+      <c r="AK233">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>267</v>
       </c>
@@ -24795,8 +29120,20 @@
       <c r="AG234">
         <v>5.7047405080416302</v>
       </c>
+      <c r="AI234">
+        <f t="shared" si="9"/>
+        <v>5.7063742603359504</v>
+      </c>
+      <c r="AJ234">
+        <f t="shared" si="10"/>
+        <v>-5.61690555806591E-2</v>
+      </c>
+      <c r="AK234">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>268</v>
       </c>
@@ -24896,8 +29233,20 @@
       <c r="AG235">
         <v>4.3256943021191399</v>
       </c>
+      <c r="AI235">
+        <f t="shared" si="9"/>
+        <v>0.28881626901835</v>
+      </c>
+      <c r="AJ235">
+        <f t="shared" si="10"/>
+        <v>-3.2677168907729599E-2</v>
+      </c>
+      <c r="AK235">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>269</v>
       </c>
@@ -24997,8 +29346,20 @@
       <c r="AG236">
         <v>2.9577955364198401</v>
       </c>
+      <c r="AI236">
+        <f t="shared" si="9"/>
+        <v>0.28803764420516798</v>
+      </c>
+      <c r="AJ236">
+        <f t="shared" si="10"/>
+        <v>-3.2087527663995898E-2</v>
+      </c>
+      <c r="AK236">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>270</v>
       </c>
@@ -25098,8 +29459,20 @@
       <c r="AG237">
         <v>1.60400182601112</v>
       </c>
+      <c r="AI237">
+        <f t="shared" si="9"/>
+        <v>0.28687957794847702</v>
+      </c>
+      <c r="AJ237">
+        <f t="shared" si="10"/>
+        <v>-3.3166695311093397E-2</v>
+      </c>
+      <c r="AK237">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>271</v>
       </c>
@@ -25199,8 +29572,20 @@
       <c r="AG238">
         <v>0.254632632341381</v>
       </c>
+      <c r="AI238">
+        <f t="shared" si="9"/>
+        <v>0.28538007799081799</v>
+      </c>
+      <c r="AJ238">
+        <f t="shared" si="10"/>
+        <v>-3.2651647914467702E-2</v>
+      </c>
+      <c r="AK238">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>272</v>
       </c>
@@ -25300,8 +29685,20 @@
       <c r="AG239">
         <v>0.187956875071631</v>
       </c>
+      <c r="AI239">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ239">
+        <f t="shared" si="10"/>
+        <v>-1.0563928968379601E-2</v>
+      </c>
+      <c r="AK239">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>273</v>
       </c>
@@ -25401,8 +29798,20 @@
       <c r="AG240">
         <v>0.121375293142045</v>
       </c>
+      <c r="AI240">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ240">
+        <f t="shared" si="10"/>
+        <v>-1.03762111771704E-2</v>
+      </c>
+      <c r="AK240">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>274</v>
       </c>
@@ -25502,8 +29911,20 @@
       <c r="AG241">
         <v>5.5287025748236303E-2</v>
       </c>
+      <c r="AI241">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ241">
+        <f t="shared" si="10"/>
+        <v>-1.064018693785E-2</v>
+      </c>
+      <c r="AK241">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>275</v>
       </c>
@@ -25603,8 +30024,20 @@
       <c r="AG242">
         <v>-1.04523500726343E-2</v>
       </c>
+      <c r="AI242">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ242">
+        <f t="shared" si="10"/>
+        <v>-1.0229073207132299E-2</v>
+      </c>
+      <c r="AK242">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>276</v>
       </c>
@@ -25704,8 +30137,20 @@
       <c r="AG243">
         <v>-7.8113678305393799E-3</v>
       </c>
+      <c r="AI243">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ243">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK243">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>277</v>
       </c>
@@ -25805,8 +30250,20 @@
       <c r="AG244">
         <v>-5.2173150362467696E-3</v>
       </c>
+      <c r="AI244">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ244">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK244">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>278</v>
       </c>
@@ -25906,8 +30363,20 @@
       <c r="AG245">
         <v>-2.55726830178426E-3</v>
       </c>
+      <c r="AI245">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ245">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK245">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>279</v>
       </c>
@@ -26007,8 +30476,20 @@
       <c r="AG246">
         <v>-1.1960918366860101E-15</v>
       </c>
+      <c r="AI246">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ246">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK246">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>280</v>
       </c>
@@ -26108,8 +30589,20 @@
       <c r="AG247">
         <v>-1.1960918366860101E-15</v>
       </c>
+      <c r="AI247">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ247">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK247">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>281</v>
       </c>
@@ -26209,8 +30702,20 @@
       <c r="AG248">
         <v>-1.1960918366860101E-15</v>
       </c>
+      <c r="AI248">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ248">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK248">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>282</v>
       </c>
@@ -26310,8 +30815,20 @@
       <c r="AG249">
         <v>-1.1960918366860101E-15</v>
       </c>
+      <c r="AI249">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ249">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK249">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>283</v>
       </c>
@@ -26411,8 +30928,20 @@
       <c r="AG250">
         <v>-1.1960918366860101E-15</v>
       </c>
+      <c r="AI250">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ250">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK250">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>284</v>
       </c>
@@ -26512,8 +31041,20 @@
       <c r="AG251">
         <v>-1.1960918366860101E-15</v>
       </c>
+      <c r="AI251">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ251">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK251">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>285</v>
       </c>
@@ -26613,8 +31154,20 @@
       <c r="AG252">
         <v>-1.1960918366860101E-15</v>
       </c>
+      <c r="AI252">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ252">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK252">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>286</v>
       </c>
@@ -26714,8 +31267,20 @@
       <c r="AG253">
         <v>-1.1960918366860101E-15</v>
       </c>
+      <c r="AI253">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AJ253">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AK253">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>287</v>
       </c>
@@ -26816,7 +31381,7 @@
         <v>-1.1960918366860101E-15</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>288</v>
       </c>
@@ -26917,7 +31482,7 @@
         <v>-1.1960918366860101E-15</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>289</v>
       </c>
@@ -27425,5 +31990,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/07-2024/beta/contributions-07-2024.xlsx
+++ b/results/07-2024/beta/contributions-07-2024.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoja\dev\FIM\results\07-2024\beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F493F13-E671-4439-A23D-9C116E9B32CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4692AD67-0AA4-44F1-9490-77D5BCD80C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="22720" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -925,12 +938,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -945,10 +964,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1247,116 +1273,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="L207" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="P201" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF227" sqref="AF227"/>
+      <selection pane="bottomRight" activeCell="R219" sqref="R219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="32" max="32" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:33" s="4" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1465,7 +1492,7 @@
       <c r="AE3">
         <v>-4.8820680659279603</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="2">
         <v>-6.74292076780951</v>
       </c>
     </row>
@@ -1563,7 +1590,7 @@
       <c r="AE4">
         <v>0.55286898490324698</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="2">
         <v>0.201423999284668</v>
       </c>
     </row>
@@ -1661,7 +1688,7 @@
       <c r="AE5">
         <v>0.80775866777175898</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="2">
         <v>0.113766380313492</v>
       </c>
     </row>
@@ -1759,7 +1786,7 @@
       <c r="AE6">
         <v>-4.4303525483899397</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="2">
         <v>-6.6185327122228701</v>
       </c>
       <c r="AG6">
@@ -1860,7 +1887,7 @@
       <c r="AE7">
         <v>-4.4512386340920704</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="2">
         <v>-5.4128240017786604</v>
       </c>
       <c r="AG7">
@@ -1961,7 +1988,7 @@
       <c r="AE8">
         <v>-4.4782777359641699</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="2">
         <v>-5.3504600521664196</v>
       </c>
       <c r="AG8">
@@ -2062,7 +2089,7 @@
       <c r="AE9">
         <v>-4.7117770459800603</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="2">
         <v>-6.1615765486793999</v>
       </c>
       <c r="AG9">
@@ -2163,7 +2190,7 @@
       <c r="AE10">
         <v>-0.357322424744485</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="2">
         <v>-0.63176306487351397</v>
       </c>
       <c r="AG10">
@@ -2264,7 +2291,7 @@
       <c r="AE11">
         <v>-1.0474657627826001</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="2">
         <v>-1.41528159782361</v>
       </c>
       <c r="AG11">
@@ -2365,7 +2392,7 @@
       <c r="AE12">
         <v>-0.662390221490463</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="2">
         <v>-3.0393577590944099</v>
       </c>
       <c r="AG12">
@@ -2466,7 +2493,7 @@
       <c r="AE13">
         <v>-0.23159447764822</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="2">
         <v>-0.159035881905356</v>
       </c>
       <c r="AG13">
@@ -2567,7 +2594,7 @@
       <c r="AE14">
         <v>-0.25574323371992702</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="2">
         <v>-0.16267374735715701</v>
       </c>
       <c r="AG14">
@@ -2668,7 +2695,7 @@
       <c r="AE15">
         <v>0.15352792237938101</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="2">
         <v>-1.19793120936264</v>
       </c>
       <c r="AG15">
@@ -2769,7 +2796,7 @@
       <c r="AE16">
         <v>0.23225513479309201</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="2">
         <v>-1.54993929466123</v>
       </c>
       <c r="AG16">
@@ -2870,7 +2897,7 @@
       <c r="AE17">
         <v>-0.31947177759112599</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="2">
         <v>-0.390496876832785</v>
       </c>
       <c r="AG17">
@@ -2971,7 +2998,7 @@
       <c r="AE18">
         <v>0.39010832486156999</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="2">
         <v>1.1919362078542199</v>
       </c>
       <c r="AG18">
@@ -3072,7 +3099,7 @@
       <c r="AE19">
         <v>0.60320246906877695</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="2">
         <v>0.29188531555126301</v>
       </c>
       <c r="AG19">
@@ -3173,7 +3200,7 @@
       <c r="AE20">
         <v>0.63991166263521704</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="2">
         <v>5.59497619256588E-2</v>
       </c>
       <c r="AG20">
@@ -3274,7 +3301,7 @@
       <c r="AE21">
         <v>1.02605456282415</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="2">
         <v>0.74669993358919295</v>
       </c>
       <c r="AG21">
@@ -3375,7 +3402,7 @@
       <c r="AE22">
         <v>1.67375828588079</v>
       </c>
-      <c r="AF22">
+      <c r="AF22" s="2">
         <v>1.92160634822869</v>
       </c>
       <c r="AG22">
@@ -3476,7 +3503,7 @@
       <c r="AE23">
         <v>2.9857896785465301</v>
       </c>
-      <c r="AF23">
+      <c r="AF23" s="2">
         <v>1.48312039358745</v>
       </c>
       <c r="AG23">
@@ -3577,7 +3604,7 @@
       <c r="AE24">
         <v>1.4810015548158799</v>
       </c>
-      <c r="AF24">
+      <c r="AF24" s="2">
         <v>2.4945887871952102</v>
       </c>
       <c r="AG24">
@@ -3678,7 +3705,7 @@
       <c r="AE25">
         <v>0.29604823954451098</v>
       </c>
-      <c r="AF25">
+      <c r="AF25" s="2">
         <v>0.411803277552029</v>
       </c>
       <c r="AG25">
@@ -3779,7 +3806,7 @@
       <c r="AE26">
         <v>0.32785640698341501</v>
       </c>
-      <c r="AF26">
+      <c r="AF26" s="2">
         <v>-0.21237652448870201</v>
       </c>
       <c r="AG26">
@@ -3880,7 +3907,7 @@
       <c r="AE27">
         <v>-0.33920859282840599</v>
       </c>
-      <c r="AF27">
+      <c r="AF27" s="2">
         <v>-1.9921063300903501</v>
       </c>
       <c r="AG27">
@@ -3981,7 +4008,7 @@
       <c r="AE28">
         <v>2.01660891345645E-2</v>
       </c>
-      <c r="AF28">
+      <c r="AF28" s="2">
         <v>-0.90983146813599503</v>
       </c>
       <c r="AG28">
@@ -4082,7 +4109,7 @@
       <c r="AE29">
         <v>-8.8527324769520702E-2</v>
       </c>
-      <c r="AF29">
+      <c r="AF29" s="2">
         <v>-0.80383678281858295</v>
       </c>
       <c r="AG29">
@@ -4183,7 +4210,7 @@
       <c r="AE30">
         <v>-0.36820804905662502</v>
       </c>
-      <c r="AF30">
+      <c r="AF30" s="2">
         <v>-0.31190304102406902</v>
       </c>
       <c r="AG30">
@@ -4284,7 +4311,7 @@
       <c r="AE31">
         <v>-0.86160120421115205</v>
       </c>
-      <c r="AF31">
+      <c r="AF31" s="2">
         <v>-0.78133670552066004</v>
       </c>
       <c r="AG31">
@@ -4385,7 +4412,7 @@
       <c r="AE32">
         <v>-0.49210944315828598</v>
       </c>
-      <c r="AF32">
+      <c r="AF32" s="2">
         <v>-0.84238371918230504</v>
       </c>
       <c r="AG32">
@@ -4486,7 +4513,7 @@
       <c r="AE33">
         <v>-0.46905587312432501</v>
       </c>
-      <c r="AF33">
+      <c r="AF33" s="2">
         <v>-1.36228662832626</v>
       </c>
       <c r="AG33">
@@ -4587,7 +4614,7 @@
       <c r="AE34">
         <v>-0.42859294516756302</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" s="2">
         <v>-1.1297862210370799</v>
       </c>
       <c r="AG34">
@@ -4688,7 +4715,7 @@
       <c r="AE35">
         <v>-0.62783817489567595</v>
       </c>
-      <c r="AF35">
+      <c r="AF35" s="2">
         <v>0.75601481362164902</v>
       </c>
       <c r="AG35">
@@ -4789,7 +4816,7 @@
       <c r="AE36">
         <v>-0.50575452523388598</v>
       </c>
-      <c r="AF36">
+      <c r="AF36" s="2">
         <v>-0.44664720112485901</v>
       </c>
       <c r="AG36">
@@ -4890,7 +4917,7 @@
       <c r="AE37">
         <v>-0.43748491727157002</v>
       </c>
-      <c r="AF37">
+      <c r="AF37" s="2">
         <v>-0.43605655330614301</v>
       </c>
       <c r="AG37">
@@ -4991,7 +5018,7 @@
       <c r="AE38">
         <v>-0.31701434791435101</v>
       </c>
-      <c r="AF38">
+      <c r="AF38" s="2">
         <v>-1.8534676726922701</v>
       </c>
       <c r="AG38">
@@ -5092,7 +5119,7 @@
       <c r="AE39">
         <v>3.1880928280388E-2</v>
       </c>
-      <c r="AF39">
+      <c r="AF39" s="2">
         <v>0.12892236158069501</v>
       </c>
       <c r="AG39">
@@ -5193,7 +5220,7 @@
       <c r="AE40">
         <v>6.1929800994181702E-2</v>
       </c>
-      <c r="AF40">
+      <c r="AF40" s="2">
         <v>-0.35184740102109602</v>
       </c>
       <c r="AG40">
@@ -5294,7 +5321,7 @@
       <c r="AE41">
         <v>0.13633777223609</v>
       </c>
-      <c r="AF41">
+      <c r="AF41" s="2">
         <v>6.0641562339421598E-2</v>
       </c>
       <c r="AG41">
@@ -5395,7 +5422,7 @@
       <c r="AE42">
         <v>0.65341932519229795</v>
       </c>
-      <c r="AF42">
+      <c r="AF42" s="2">
         <v>1.33317259096175</v>
       </c>
       <c r="AG42">
@@ -5496,7 +5523,7 @@
       <c r="AE43">
         <v>0.73407928048892401</v>
       </c>
-      <c r="AF43">
+      <c r="AF43" s="2">
         <v>0.40674051799514599</v>
       </c>
       <c r="AG43">
@@ -5597,7 +5624,7 @@
       <c r="AE44">
         <v>1.00074729586238</v>
       </c>
-      <c r="AF44">
+      <c r="AF44" s="2">
         <v>-0.59521451285524096</v>
       </c>
       <c r="AG44">
@@ -5698,7 +5725,7 @@
       <c r="AE45">
         <v>0.57577839823667198</v>
       </c>
-      <c r="AF45">
+      <c r="AF45" s="2">
         <v>9.7744057855468594E-2</v>
       </c>
       <c r="AG45">
@@ -5799,7 +5826,7 @@
       <c r="AE46">
         <v>-0.15039168256749899</v>
       </c>
-      <c r="AF46">
+      <c r="AF46" s="2">
         <v>0.48768950782043202</v>
       </c>
       <c r="AG46">
@@ -5900,7 +5927,7 @@
       <c r="AE47">
         <v>-0.138313277921151</v>
       </c>
-      <c r="AF47">
+      <c r="AF47" s="2">
         <v>-0.50160003876436798</v>
       </c>
       <c r="AG47">
@@ -6001,7 +6028,7 @@
       <c r="AE48">
         <v>-0.198131301782633</v>
       </c>
-      <c r="AF48">
+      <c r="AF48" s="2">
         <v>-1.0609117637096299</v>
       </c>
       <c r="AG48">
@@ -6102,7 +6129,7 @@
       <c r="AE49">
         <v>0.12392973676845</v>
       </c>
-      <c r="AF49">
+      <c r="AF49" s="2">
         <v>0.597530460782706</v>
       </c>
       <c r="AG49">
@@ -6203,7 +6230,7 @@
       <c r="AE50">
         <v>0.25420110869002699</v>
       </c>
-      <c r="AF50">
+      <c r="AF50" s="2">
         <v>-0.44337467995769703</v>
       </c>
       <c r="AG50">
@@ -6304,7 +6331,7 @@
       <c r="AE51">
         <v>0.30850356180029798</v>
       </c>
-      <c r="AF51">
+      <c r="AF51" s="2">
         <v>6.5764013479251999E-3</v>
       </c>
       <c r="AG51">
@@ -6405,7 +6432,7 @@
       <c r="AE52">
         <v>0.58114877324890601</v>
       </c>
-      <c r="AF52">
+      <c r="AF52" s="2">
         <v>0.62145820951436503</v>
       </c>
       <c r="AG52">
@@ -6506,7 +6533,7 @@
       <c r="AE53">
         <v>0.94729885155273796</v>
       </c>
-      <c r="AF53">
+      <c r="AF53" s="2">
         <v>1.6326354172442601</v>
       </c>
       <c r="AG53">
@@ -6607,7 +6634,7 @@
       <c r="AE54">
         <v>1.0411108546394601</v>
       </c>
-      <c r="AF54">
+      <c r="AF54" s="2">
         <v>1.2174218244267301</v>
       </c>
       <c r="AG54">
@@ -6708,7 +6735,7 @@
       <c r="AE55">
         <v>0.67142695593317203</v>
       </c>
-      <c r="AF55">
+      <c r="AF55" s="2">
         <v>0.70272170476316198</v>
       </c>
       <c r="AG55">
@@ -6809,7 +6836,7 @@
       <c r="AE56">
         <v>0.39158492574341802</v>
       </c>
-      <c r="AF56">
+      <c r="AF56" s="2">
         <v>1.2000189971531301</v>
       </c>
       <c r="AG56">
@@ -6910,7 +6937,7 @@
       <c r="AE57">
         <v>-0.16908323923062399</v>
       </c>
-      <c r="AF57">
+      <c r="AF57" s="2">
         <v>-2.2369340641802098</v>
       </c>
       <c r="AG57">
@@ -7011,7 +7038,7 @@
       <c r="AE58">
         <v>-0.30331042781246098</v>
       </c>
-      <c r="AF58">
+      <c r="AF58" s="2">
         <v>-0.13051586356839801</v>
       </c>
       <c r="AG58">
@@ -7112,7 +7139,7 @@
       <c r="AE59">
         <v>-0.386609585837842</v>
       </c>
-      <c r="AF59">
+      <c r="AF59" s="2">
         <v>0.67681772560861697</v>
       </c>
       <c r="AG59">
@@ -7213,7 +7240,7 @@
       <c r="AE60">
         <v>-0.42555432563699502</v>
       </c>
-      <c r="AF60">
+      <c r="AF60" s="2">
         <v>-0.48748261025192802</v>
       </c>
       <c r="AG60">
@@ -7314,7 +7341,7 @@
       <c r="AE61">
         <v>-0.46032391546680901</v>
       </c>
-      <c r="AF61">
+      <c r="AF61" s="2">
         <v>0.53382849871803195</v>
       </c>
       <c r="AG61">
@@ -7415,7 +7442,7 @@
       <c r="AE62">
         <v>-0.65250510130739903</v>
       </c>
-      <c r="AF62">
+      <c r="AF62" s="2">
         <v>-0.48378680951915298</v>
       </c>
       <c r="AG62">
@@ -7516,7 +7543,7 @@
       <c r="AE63">
         <v>-7.9629230053660197E-2</v>
       </c>
-      <c r="AF63">
+      <c r="AF63" s="2">
         <v>1.0224944759794801</v>
       </c>
       <c r="AG63">
@@ -7617,7 +7644,7 @@
       <c r="AE64">
         <v>-0.27452823008190802</v>
       </c>
-      <c r="AF64">
+      <c r="AF64" s="2">
         <v>0.90945939923154395</v>
       </c>
       <c r="AG64">
@@ -7718,7 +7745,7 @@
       <c r="AE65">
         <v>-0.59191375452541695</v>
       </c>
-      <c r="AF65">
+      <c r="AF65" s="2">
         <v>-0.99351415150245603</v>
       </c>
       <c r="AG65">
@@ -7819,7 +7846,7 @@
       <c r="AE66">
         <v>-0.20248752029711201</v>
       </c>
-      <c r="AF66">
+      <c r="AF66" s="2">
         <v>-0.25724171185848199</v>
       </c>
       <c r="AG66">
@@ -7920,7 +7947,7 @@
       <c r="AE67">
         <v>-0.18564478960617301</v>
       </c>
-      <c r="AF67">
+      <c r="AF67" s="2">
         <v>0.848618093814274</v>
       </c>
       <c r="AG67">
@@ -8021,7 +8048,7 @@
       <c r="AE68">
         <v>-4.8619888752160403E-2</v>
       </c>
-      <c r="AF68">
+      <c r="AF68" s="2">
         <v>1.0983499386570299</v>
       </c>
       <c r="AG68">
@@ -8122,7 +8149,7 @@
       <c r="AE69">
         <v>-0.17824371802112099</v>
       </c>
-      <c r="AF69">
+      <c r="AF69" s="2">
         <v>-1.2507354051471999</v>
       </c>
       <c r="AG69">
@@ -8223,7 +8250,7 @@
       <c r="AE70">
         <v>0.135653500326752</v>
       </c>
-      <c r="AF70">
+      <c r="AF70" s="2">
         <v>-7.0370158104876804E-2</v>
       </c>
       <c r="AG70">
@@ -8324,7 +8351,7 @@
       <c r="AE71">
         <v>-0.67651554899507405</v>
       </c>
-      <c r="AF71">
+      <c r="AF71" s="2">
         <v>-0.69418628838112195</v>
       </c>
       <c r="AG71">
@@ -8425,7 +8452,7 @@
       <c r="AE72">
         <v>-0.428560986137971</v>
       </c>
-      <c r="AF72">
+      <c r="AF72" s="2">
         <v>-1.01771492616113</v>
       </c>
       <c r="AG72">
@@ -8526,7 +8553,7 @@
       <c r="AE73">
         <v>-0.261663259324799</v>
       </c>
-      <c r="AF73">
+      <c r="AF73" s="2">
         <v>0.33951247542817198</v>
       </c>
       <c r="AG73">
@@ -8627,7 +8654,7 @@
       <c r="AE74">
         <v>-0.27101869188554101</v>
       </c>
-      <c r="AF74">
+      <c r="AF74" s="2">
         <v>-1.6438225002664899</v>
       </c>
       <c r="AG74">
@@ -8728,7 +8755,7 @@
       <c r="AE75">
         <v>-0.16122684044164301</v>
       </c>
-      <c r="AF75">
+      <c r="AF75" s="2">
         <v>-0.56614293803712701</v>
       </c>
       <c r="AG75">
@@ -8829,7 +8856,7 @@
       <c r="AE76">
         <v>-6.3404416014146606E-2</v>
       </c>
-      <c r="AF76">
+      <c r="AF76" s="2">
         <v>-0.69612336189868096</v>
       </c>
       <c r="AG76">
@@ -8930,7 +8957,7 @@
       <c r="AE77">
         <v>-0.126219559496449</v>
       </c>
-      <c r="AF77">
+      <c r="AF77" s="2">
         <v>0.83344663107724104</v>
       </c>
       <c r="AG77">
@@ -9031,7 +9058,7 @@
       <c r="AE78">
         <v>-0.30431287732099199</v>
       </c>
-      <c r="AF78">
+      <c r="AF78" s="2">
         <v>-1.3008739828001801</v>
       </c>
       <c r="AG78">
@@ -9132,7 +9159,7 @@
       <c r="AE79">
         <v>7.0326365899232093E-2</v>
       </c>
-      <c r="AF79">
+      <c r="AF79" s="2">
         <v>0.70375855565762502</v>
       </c>
       <c r="AG79">
@@ -9233,7 +9260,7 @@
       <c r="AE80">
         <v>-3.1258505225906501E-2</v>
       </c>
-      <c r="AF80">
+      <c r="AF80" s="2">
         <v>0.16601351203329801</v>
       </c>
       <c r="AG80">
@@ -9334,7 +9361,7 @@
       <c r="AE81">
         <v>0.27333954984738701</v>
       </c>
-      <c r="AF81">
+      <c r="AF81" s="2">
         <v>6.1533147869810199E-2</v>
       </c>
       <c r="AG81">
@@ -9435,7 +9462,7 @@
       <c r="AE82">
         <v>0.31583939484693502</v>
       </c>
-      <c r="AF82">
+      <c r="AF82" s="2">
         <v>1.03403203157951</v>
       </c>
       <c r="AG82">
@@ -9536,7 +9563,7 @@
       <c r="AE83">
         <v>0.195630125144199</v>
       </c>
-      <c r="AF83">
+      <c r="AF83" s="2">
         <v>-0.27416085688290298</v>
       </c>
       <c r="AG83">
@@ -9637,7 +9664,7 @@
       <c r="AE84">
         <v>0.330457036437659</v>
       </c>
-      <c r="AF84">
+      <c r="AF84" s="2">
         <v>-0.11209637099189</v>
       </c>
       <c r="AG84">
@@ -9738,7 +9765,7 @@
       <c r="AE85">
         <v>0.53898338522086597</v>
       </c>
-      <c r="AF85">
+      <c r="AF85" s="2">
         <v>0.55853487913560995</v>
       </c>
       <c r="AG85">
@@ -9839,7 +9866,7 @@
       <c r="AE86">
         <v>0.76530248425022496</v>
       </c>
-      <c r="AF86">
+      <c r="AF86" s="2">
         <v>0.73071922793102795</v>
       </c>
       <c r="AG86">
@@ -9940,7 +9967,7 @@
       <c r="AE87">
         <v>0.89419271720246396</v>
       </c>
-      <c r="AF87">
+      <c r="AF87" s="2">
         <v>0.70926622436271602</v>
       </c>
       <c r="AG87">
@@ -10041,7 +10068,7 @@
       <c r="AE88">
         <v>0.74893179630495899</v>
       </c>
-      <c r="AF88">
+      <c r="AF88" s="2">
         <v>-3.3564760845876699E-3</v>
       </c>
       <c r="AG88">
@@ -10142,7 +10169,7 @@
       <c r="AE89">
         <v>0.84617695725516395</v>
       </c>
-      <c r="AF89">
+      <c r="AF89" s="2">
         <v>-0.27640549700455103</v>
       </c>
       <c r="AG89">
@@ -10243,7 +10270,7 @@
       <c r="AE90">
         <v>1.0722309678053199</v>
       </c>
-      <c r="AF90">
+      <c r="AF90" s="2">
         <v>1.31251561554461</v>
       </c>
       <c r="AG90">
@@ -10344,7 +10371,7 @@
       <c r="AE91">
         <v>0.91530415135888998</v>
       </c>
-      <c r="AF91">
+      <c r="AF91" s="2">
         <v>0.25315176356705699</v>
       </c>
       <c r="AG91">
@@ -10445,7 +10472,7 @@
       <c r="AE92">
         <v>0.72043231408102804</v>
       </c>
-      <c r="AF92">
+      <c r="AF92" s="2">
         <v>0.75064717670456405</v>
       </c>
       <c r="AG92">
@@ -10546,7 +10573,7 @@
       <c r="AE93">
         <v>0.35538018567750101</v>
       </c>
-      <c r="AF93">
+      <c r="AF93" s="2">
         <v>-0.155068350871119</v>
       </c>
       <c r="AG93">
@@ -10647,7 +10674,7 @@
       <c r="AE94">
         <v>0.40184299718043798</v>
       </c>
-      <c r="AF94">
+      <c r="AF94" s="2">
         <v>-1.11504885050665</v>
       </c>
       <c r="AG94">
@@ -10748,7 +10775,7 @@
       <c r="AE95">
         <v>0.14881855652242401</v>
       </c>
-      <c r="AF95">
+      <c r="AF95" s="2">
         <v>-0.35000322551072299</v>
       </c>
       <c r="AG95">
@@ -10849,7 +10876,7 @@
       <c r="AE96">
         <v>2.09318864250162E-2</v>
       </c>
-      <c r="AF96">
+      <c r="AF96" s="2">
         <v>-0.36775514499033901</v>
       </c>
       <c r="AG96">
@@ -10950,7 +10977,7 @@
       <c r="AE97">
         <v>-9.9309076178858105E-2</v>
       </c>
-      <c r="AF97">
+      <c r="AF97" s="2">
         <v>-0.32536588033319602</v>
       </c>
       <c r="AG97">
@@ -11051,7 +11078,7 @@
       <c r="AE98">
         <v>-0.287231878964052</v>
       </c>
-      <c r="AF98">
+      <c r="AF98" s="2">
         <v>-1.7795799372996099</v>
       </c>
       <c r="AG98">
@@ -11152,7 +11179,7 @@
       <c r="AE99">
         <v>-0.339873948306047</v>
       </c>
-      <c r="AF99">
+      <c r="AF99" s="2">
         <v>-0.45131474183147802</v>
       </c>
       <c r="AG99">
@@ -11253,7 +11280,7 @@
       <c r="AE100">
         <v>-0.32791664610638399</v>
       </c>
-      <c r="AF100">
+      <c r="AF100" s="2">
         <v>0.47076726656631201</v>
       </c>
       <c r="AG100">
@@ -11354,7 +11381,7 @@
       <c r="AE101">
         <v>-9.9011074573102403E-2</v>
       </c>
-      <c r="AF101">
+      <c r="AF101" s="2">
         <v>-1.2890139497117099</v>
       </c>
       <c r="AG101">
@@ -11455,7 +11482,7 @@
       <c r="AE102">
         <v>-0.126982608161293</v>
       </c>
-      <c r="AF102">
+      <c r="AF102" s="2">
         <v>-0.35656678579249701</v>
       </c>
       <c r="AG102">
@@ -11556,7 +11583,7 @@
       <c r="AE103">
         <v>-5.2711127282346601E-2</v>
       </c>
-      <c r="AF103">
+      <c r="AF103" s="2">
         <v>-0.30218344360669103</v>
       </c>
       <c r="AG103">
@@ -11657,7 +11684,7 @@
       <c r="AE104">
         <v>-1.5253633342282901E-2</v>
       </c>
-      <c r="AF104">
+      <c r="AF104" s="2">
         <v>-0.73618190073051004</v>
       </c>
       <c r="AG104">
@@ -11758,7 +11785,7 @@
       <c r="AE105">
         <v>-0.27782147563717502</v>
       </c>
-      <c r="AF105">
+      <c r="AF105" s="2">
         <v>-1.5962375836050999</v>
       </c>
       <c r="AG105">
@@ -11859,7 +11886,7 @@
       <c r="AE106">
         <v>-0.33108280966520198</v>
       </c>
-      <c r="AF106">
+      <c r="AF106" s="2">
         <v>-0.35987792335709401</v>
       </c>
       <c r="AG106">
@@ -11960,7 +11987,7 @@
       <c r="AE107">
         <v>-0.25902978069903998</v>
       </c>
-      <c r="AF107">
+      <c r="AF107" s="2">
         <v>0.116127201090414</v>
       </c>
       <c r="AG107">
@@ -12061,7 +12088,7 @@
       <c r="AE108">
         <v>-0.35197867175365799</v>
       </c>
-      <c r="AF108">
+      <c r="AF108" s="2">
         <v>-0.92892685901936001</v>
       </c>
       <c r="AG108">
@@ -12162,7 +12189,7 @@
       <c r="AE109">
         <v>-0.146541218220898</v>
       </c>
-      <c r="AF109">
+      <c r="AF109" s="2">
         <v>-0.25106580659751299</v>
       </c>
       <c r="AG109">
@@ -12263,7 +12290,7 @@
       <c r="AE110">
         <v>-0.45910118744668299</v>
       </c>
-      <c r="AF110">
+      <c r="AF110" s="2">
         <v>-1.4847003925408</v>
       </c>
       <c r="AG110">
@@ -12364,7 +12391,7 @@
       <c r="AE111">
         <v>-0.70580864176786595</v>
       </c>
-      <c r="AF111">
+      <c r="AF111" s="2">
         <v>-0.42209335615495502</v>
       </c>
       <c r="AG111">
@@ -12465,7 +12492,7 @@
       <c r="AE112">
         <v>-0.60121266881471702</v>
       </c>
-      <c r="AF112">
+      <c r="AF112" s="2">
         <v>-0.95939426416188001</v>
       </c>
       <c r="AG112">
@@ -12566,7 +12593,7 @@
       <c r="AE113">
         <v>-0.56642466932236002</v>
       </c>
-      <c r="AF113">
+      <c r="AF113" s="2">
         <v>-0.90917193274843999</v>
       </c>
       <c r="AG113">
@@ -12667,7 +12694,7 @@
       <c r="AE114">
         <v>-0.71271773338867395</v>
       </c>
-      <c r="AF114">
+      <c r="AF114" s="2">
         <v>-1.69236829553734</v>
       </c>
       <c r="AG114">
@@ -12768,7 +12795,7 @@
       <c r="AE115">
         <v>-0.57334329021943697</v>
       </c>
-      <c r="AF115">
+      <c r="AF115" s="2">
         <v>-6.9495798202550696E-2</v>
       </c>
       <c r="AG115">
@@ -12869,7 +12896,7 @@
       <c r="AE116">
         <v>-0.61797251039295997</v>
       </c>
-      <c r="AF116">
+      <c r="AF116" s="2">
         <v>-0.83691290308202204</v>
       </c>
       <c r="AG116">
@@ -12970,7 +12997,7 @@
       <c r="AE117">
         <v>-0.56772342632944095</v>
       </c>
-      <c r="AF117">
+      <c r="AF117" s="2">
         <v>-0.91323117065958104</v>
       </c>
       <c r="AG117">
@@ -13071,7 +13098,7 @@
       <c r="AE118">
         <v>-0.40976917662443801</v>
       </c>
-      <c r="AF118">
+      <c r="AF118" s="2">
         <v>-0.67840346139225904</v>
       </c>
       <c r="AG118">
@@ -13172,7 +13199,7 @@
       <c r="AE119">
         <v>-0.26543888144250399</v>
       </c>
-      <c r="AF119">
+      <c r="AF119" s="2">
         <v>-0.78885892475095598</v>
       </c>
       <c r="AG119">
@@ -13273,7 +13300,7 @@
       <c r="AE120">
         <v>-0.22471197876291299</v>
       </c>
-      <c r="AF120">
+      <c r="AF120" s="2">
         <v>-0.13981115339719</v>
       </c>
       <c r="AG120">
@@ -13374,7 +13401,7 @@
       <c r="AE121">
         <v>-0.30640665971313102</v>
       </c>
-      <c r="AF121">
+      <c r="AF121" s="2">
         <v>2.7327265163892601E-2</v>
       </c>
       <c r="AG121">
@@ -13475,7 +13502,7 @@
       <c r="AE122">
         <v>-0.47249251582088803</v>
       </c>
-      <c r="AF122">
+      <c r="AF122" s="2">
         <v>-1.77641362164075</v>
       </c>
       <c r="AG122">
@@ -13576,7 +13603,7 @@
       <c r="AE123">
         <v>-0.23817134443433899</v>
       </c>
-      <c r="AF123">
+      <c r="AF123" s="2">
         <v>-0.28525914206428699</v>
       </c>
       <c r="AG123">
@@ -13677,7 +13704,7 @@
       <c r="AE124">
         <v>-3.2246021528070101E-2</v>
       </c>
-      <c r="AF124">
+      <c r="AF124" s="2">
         <v>-1.04399668590397</v>
       </c>
       <c r="AG124">
@@ -13778,7 +13805,7 @@
       <c r="AE125">
         <v>2.0659358522360199E-2</v>
       </c>
-      <c r="AF125">
+      <c r="AF125" s="2">
         <v>-0.20445397670052701</v>
       </c>
       <c r="AG125">
@@ -13879,7 +13906,7 @@
       <c r="AE126">
         <v>0.22568594120082699</v>
       </c>
-      <c r="AF126">
+      <c r="AF126" s="2">
         <v>0.72147895899032</v>
       </c>
       <c r="AG126">
@@ -13980,7 +14007,7 @@
       <c r="AE127">
         <v>0.29150609005683698</v>
       </c>
-      <c r="AF127">
+      <c r="AF127" s="2">
         <v>0.95787246051756902</v>
       </c>
       <c r="AG127">
@@ -14081,7 +14108,7 @@
       <c r="AE128">
         <v>1.2808430778706701</v>
       </c>
-      <c r="AF128">
+      <c r="AF128" s="2">
         <v>0.64534435623967901</v>
       </c>
       <c r="AG128">
@@ -14182,7 +14209,7 @@
       <c r="AE129">
         <v>1.0795650143753901</v>
       </c>
-      <c r="AF129">
+      <c r="AF129" s="2">
         <v>1.77720417891967</v>
       </c>
       <c r="AG129">
@@ -14283,7 +14310,7 @@
       <c r="AE130">
         <v>1.37238789170096</v>
       </c>
-      <c r="AF130">
+      <c r="AF130" s="2">
         <v>2.1795048088705999</v>
       </c>
       <c r="AG130">
@@ -14384,7 +14411,7 @@
       <c r="AE131">
         <v>1.8188243459022799</v>
       </c>
-      <c r="AF131">
+      <c r="AF131" s="2">
         <v>1.910826255825</v>
       </c>
       <c r="AG131">
@@ -14485,7 +14512,7 @@
       <c r="AE132">
         <v>1.4860544825245501</v>
       </c>
-      <c r="AF132">
+      <c r="AF132" s="2">
         <v>1.39623409154216</v>
       </c>
       <c r="AG132">
@@ -14586,7 +14613,7 @@
       <c r="AE133">
         <v>1.08960316205111</v>
       </c>
-      <c r="AF133">
+      <c r="AF133" s="2">
         <v>1.18036364446622</v>
       </c>
       <c r="AG133">
@@ -14687,7 +14714,7 @@
       <c r="AE134">
         <v>1.2245498898949201</v>
       </c>
-      <c r="AF134">
+      <c r="AF134" s="2">
         <v>0.81405446659453695</v>
       </c>
       <c r="AG134">
@@ -14788,7 +14815,7 @@
       <c r="AE135">
         <v>1.1108805052787301</v>
       </c>
-      <c r="AF135">
+      <c r="AF135" s="2">
         <v>1.3479738167887001</v>
       </c>
       <c r="AG135">
@@ -14889,7 +14916,7 @@
       <c r="AE136">
         <v>0.95992159312877101</v>
       </c>
-      <c r="AF136">
+      <c r="AF136" s="2">
         <v>0.66124676940973304</v>
       </c>
       <c r="AG136">
@@ -14990,7 +15017,7 @@
       <c r="AE137">
         <v>0.666126717469951</v>
       </c>
-      <c r="AF137">
+      <c r="AF137" s="2">
         <v>0.65276509774160396</v>
       </c>
       <c r="AG137">
@@ -15091,7 +15118,7 @@
       <c r="AE138">
         <v>0.24520268632471201</v>
       </c>
-      <c r="AF138">
+      <c r="AF138" s="2">
         <v>0.11665698390193301</v>
       </c>
       <c r="AG138">
@@ -15192,7 +15219,7 @@
       <c r="AE139">
         <v>0.24336675964268201</v>
       </c>
-      <c r="AF139">
+      <c r="AF139" s="2">
         <v>-3.7143002916385101E-2</v>
       </c>
       <c r="AG139">
@@ -15293,7 +15320,7 @@
       <c r="AE140">
         <v>-4.1204119906332499E-2</v>
       </c>
-      <c r="AF140">
+      <c r="AF140" s="2">
         <v>-0.39340245663513101</v>
       </c>
       <c r="AG140">
@@ -15394,7 +15421,7 @@
       <c r="AE141">
         <v>-2.8859688288987999E-3</v>
       </c>
-      <c r="AF141">
+      <c r="AF141" s="2">
         <v>-0.55513615241539904</v>
       </c>
       <c r="AG141">
@@ -15495,7 +15522,7 @@
       <c r="AE142">
         <v>-0.48719467992779197</v>
       </c>
-      <c r="AF142">
+      <c r="AF142" s="2">
         <v>-0.59372965827472102</v>
       </c>
       <c r="AG142">
@@ -15596,7 +15623,7 @@
       <c r="AE143">
         <v>-0.52428532802901795</v>
       </c>
-      <c r="AF143">
+      <c r="AF143" s="2">
         <v>-1.0361184366832601</v>
       </c>
       <c r="AG143">
@@ -15697,7 +15724,7 @@
       <c r="AE144">
         <v>-0.47946789504089898</v>
       </c>
-      <c r="AF144">
+      <c r="AF144" s="2">
         <v>-0.68749309448380502</v>
       </c>
       <c r="AG144">
@@ -15798,7 +15825,7 @@
       <c r="AE145">
         <v>-0.48239823998012699</v>
       </c>
-      <c r="AF145">
+      <c r="AF145" s="2">
         <v>-0.86078705595840599</v>
       </c>
       <c r="AG145">
@@ -15899,7 +15926,7 @@
       <c r="AE146">
         <v>-0.63267981849363297</v>
       </c>
-      <c r="AF146">
+      <c r="AF146" s="2">
         <v>-9.1252546629022699E-2</v>
       </c>
       <c r="AG146">
@@ -16000,7 +16027,7 @@
       <c r="AE147">
         <v>-0.62042626820374502</v>
       </c>
-      <c r="AF147">
+      <c r="AF147" s="2">
         <v>-1.0615033952022499</v>
       </c>
       <c r="AG147">
@@ -16101,7 +16128,7 @@
       <c r="AE148">
         <v>-0.324698869575194</v>
       </c>
-      <c r="AF148">
+      <c r="AF148" s="2">
         <v>-0.83850525191755598</v>
       </c>
       <c r="AG148">
@@ -16202,7 +16229,7 @@
       <c r="AE149">
         <v>-0.470006005833778</v>
       </c>
-      <c r="AF149">
+      <c r="AF149" s="2">
         <v>-0.20938126729151499</v>
       </c>
       <c r="AG149">
@@ -16303,7 +16330,7 @@
       <c r="AE150">
         <v>-0.32559024654271501</v>
       </c>
-      <c r="AF150">
+      <c r="AF150" s="2">
         <v>-0.60074713521993595</v>
       </c>
       <c r="AG150">
@@ -16404,7 +16431,7 @@
       <c r="AE151">
         <v>-0.34079485744990601</v>
       </c>
-      <c r="AF151">
+      <c r="AF151" s="2">
         <v>-1.52544758262392E-2</v>
       </c>
       <c r="AG151">
@@ -16505,7 +16532,7 @@
       <c r="AE152">
         <v>-0.120364963970391</v>
       </c>
-      <c r="AF152">
+      <c r="AF152" s="2">
         <v>-0.15585247468409899</v>
       </c>
       <c r="AG152">
@@ -16606,7 +16633,7 @@
       <c r="AE153">
         <v>0.15896891061113899</v>
       </c>
-      <c r="AF153">
+      <c r="AF153" s="2">
         <v>0.400612120877404</v>
       </c>
       <c r="AG153">
@@ -16707,7 +16734,7 @@
       <c r="AE154">
         <v>0.16553847145929401</v>
       </c>
-      <c r="AF154">
+      <c r="AF154" s="2">
         <v>-3.6117434128018502E-2</v>
       </c>
       <c r="AG154">
@@ -16808,7 +16835,7 @@
       <c r="AE155">
         <v>2.33846356091883</v>
       </c>
-      <c r="AF155">
+      <c r="AF155" s="2">
         <v>2.64967091314199</v>
       </c>
       <c r="AG155">
@@ -16909,7 +16936,7 @@
       <c r="AE156">
         <v>1.2126447540035099</v>
       </c>
-      <c r="AF156">
+      <c r="AF156" s="2">
         <v>1.4961630782231099</v>
       </c>
       <c r="AG156">
@@ -17010,7 +17037,7 @@
       <c r="AE157">
         <v>1.0654731907830901</v>
       </c>
-      <c r="AF157">
+      <c r="AF157" s="2">
         <v>1.2694885070476101</v>
       </c>
       <c r="AG157">
@@ -17111,7 +17138,7 @@
       <c r="AE158">
         <v>2.7126386866082699</v>
       </c>
-      <c r="AF158">
+      <c r="AF158" s="2">
         <v>3.3087951075511399</v>
       </c>
       <c r="AG158">
@@ -17212,7 +17239,7 @@
       <c r="AE159">
         <v>1.7193259301714701</v>
       </c>
-      <c r="AF159">
+      <c r="AF159" s="2">
         <v>2.627762792755</v>
       </c>
       <c r="AG159">
@@ -17313,7 +17340,7 @@
       <c r="AE160">
         <v>2.4607238104840299</v>
       </c>
-      <c r="AF160">
+      <c r="AF160" s="2">
         <v>2.3885678519982498</v>
       </c>
       <c r="AG160">
@@ -17414,7 +17441,7 @@
       <c r="AE161">
         <v>2.3033459744979399</v>
       </c>
-      <c r="AF161">
+      <c r="AF161" s="2">
         <v>2.17109979711877</v>
       </c>
       <c r="AG161">
@@ -17515,7 +17542,7 @@
       <c r="AE162">
         <v>2.16234091354193</v>
       </c>
-      <c r="AF162">
+      <c r="AF162" s="2">
         <v>1.498744259817</v>
       </c>
       <c r="AG162">
@@ -17616,7 +17643,7 @@
       <c r="AE163">
         <v>1.28953603567754</v>
       </c>
-      <c r="AF163">
+      <c r="AF163" s="2">
         <v>1.2454291079145301</v>
       </c>
       <c r="AG163">
@@ -17717,7 +17744,7 @@
       <c r="AE164">
         <v>1.16918009307753</v>
       </c>
-      <c r="AF164">
+      <c r="AF164" s="2">
         <v>0.25619292584307102</v>
       </c>
       <c r="AG164">
@@ -17818,7 +17845,7 @@
       <c r="AE165">
         <v>1.0103314525268401</v>
       </c>
-      <c r="AF165">
+      <c r="AF165" s="2">
         <v>0.15477904096350201</v>
       </c>
       <c r="AG165">
@@ -17919,7 +17946,7 @@
       <c r="AE166">
         <v>-0.18531550927093501</v>
       </c>
-      <c r="AF166">
+      <c r="AF166" s="2">
         <v>-1.53678881135372</v>
       </c>
       <c r="AG166">
@@ -18020,7 +18047,7 @@
       <c r="AE167">
         <v>-0.45050270463481101</v>
       </c>
-      <c r="AF167">
+      <c r="AF167" s="2">
         <v>-1.35981709617502</v>
       </c>
       <c r="AG167">
@@ -18121,7 +18148,7 @@
       <c r="AE168">
         <v>-0.61057806753739396</v>
       </c>
-      <c r="AF168">
+      <c r="AF168" s="2">
         <v>-2.11845301321677</v>
       </c>
       <c r="AG168">
@@ -18222,7 +18249,7 @@
       <c r="AE169">
         <v>-0.62466899172139501</v>
       </c>
-      <c r="AF169">
+      <c r="AF169" s="2">
         <v>-1.02534588743541</v>
       </c>
       <c r="AG169">
@@ -18323,7 +18350,7 @@
       <c r="AE170">
         <v>-0.74938574233967503</v>
       </c>
-      <c r="AF170">
+      <c r="AF170" s="2">
         <v>-1.4360404960917501</v>
       </c>
       <c r="AG170">
@@ -18424,7 +18451,7 @@
       <c r="AE171">
         <v>-0.61174742372156199</v>
       </c>
-      <c r="AF171">
+      <c r="AF171" s="2">
         <v>-1.37241564140301</v>
       </c>
       <c r="AG171">
@@ -18525,7 +18552,7 @@
       <c r="AE172">
         <v>-0.47734517360182799</v>
       </c>
-      <c r="AF172">
+      <c r="AF172" s="2">
         <v>-0.93861922972386003</v>
       </c>
       <c r="AG172">
@@ -18626,7 +18653,7 @@
       <c r="AE173">
         <v>-0.52658745403523799</v>
       </c>
-      <c r="AF173">
+      <c r="AF173" s="2">
         <v>-1.6315831047685101</v>
       </c>
       <c r="AG173">
@@ -18727,7 +18754,7 @@
       <c r="AE174">
         <v>-0.84367258028493397</v>
       </c>
-      <c r="AF174">
+      <c r="AF174" s="2">
         <v>-1.9011853826099301</v>
       </c>
       <c r="AG174">
@@ -18828,7 +18855,7 @@
       <c r="AE175">
         <v>-0.86589641654650495</v>
       </c>
-      <c r="AF175">
+      <c r="AF175" s="2">
         <v>-1.30200284007373</v>
       </c>
       <c r="AG175">
@@ -18929,7 +18956,7 @@
       <c r="AE176">
         <v>-0.41248036541513999</v>
       </c>
-      <c r="AF176">
+      <c r="AF176" s="2">
         <v>-1.11993328101173</v>
       </c>
       <c r="AG176">
@@ -19030,7 +19057,7 @@
       <c r="AE177">
         <v>-0.49517746634652199</v>
       </c>
-      <c r="AF177">
+      <c r="AF177" s="2">
         <v>-1.40989974521991</v>
       </c>
       <c r="AG177">
@@ -19131,7 +19158,7 @@
       <c r="AE178">
         <v>-0.66823051832957503</v>
       </c>
-      <c r="AF178">
+      <c r="AF178" s="2">
         <v>-1.3248488942465499</v>
       </c>
       <c r="AG178">
@@ -19232,7 +19259,7 @@
       <c r="AE179">
         <v>-0.49543044173234102</v>
       </c>
-      <c r="AF179">
+      <c r="AF179" s="2">
         <v>-0.73243696100130096</v>
       </c>
       <c r="AG179">
@@ -19333,7 +19360,7 @@
       <c r="AE180">
         <v>-0.328976605597949</v>
       </c>
-      <c r="AF180">
+      <c r="AF180" s="2">
         <v>-0.18028540673101301</v>
       </c>
       <c r="AG180">
@@ -19434,7 +19461,7 @@
       <c r="AE181">
         <v>-0.20205480056581601</v>
       </c>
-      <c r="AF181">
+      <c r="AF181" s="2">
         <v>-0.59302760957952505</v>
       </c>
       <c r="AG181">
@@ -19535,7 +19562,7 @@
       <c r="AE182">
         <v>-3.9116982298838997E-2</v>
       </c>
-      <c r="AF182">
+      <c r="AF182" s="2">
         <v>5.4629579442504898E-2</v>
       </c>
       <c r="AG182">
@@ -19636,7 +19663,7 @@
       <c r="AE183">
         <v>-5.8316668605893102E-2</v>
       </c>
-      <c r="AF183">
+      <c r="AF183" s="2">
         <v>0.30664372095595799</v>
       </c>
       <c r="AG183">
@@ -19737,7 +19764,7 @@
       <c r="AE184">
         <v>-9.0094124498687506E-2</v>
       </c>
-      <c r="AF184">
+      <c r="AF184" s="2">
         <v>-4.6814730890804297E-2</v>
       </c>
       <c r="AG184">
@@ -19838,7 +19865,7 @@
       <c r="AE185">
         <v>-0.12167551980030999</v>
       </c>
-      <c r="AF185">
+      <c r="AF185" s="2">
         <v>-0.14665499193062201</v>
       </c>
       <c r="AG185">
@@ -19939,7 +19966,7 @@
       <c r="AE186">
         <v>7.22015700052747E-3</v>
       </c>
-      <c r="AF186">
+      <c r="AF186" s="2">
         <v>0.323238243562957</v>
       </c>
       <c r="AG186">
@@ -20040,7 +20067,7 @@
       <c r="AE187">
         <v>-9.7901418362532407E-3</v>
       </c>
-      <c r="AF187">
+      <c r="AF187" s="2">
         <v>-0.386426586425204</v>
       </c>
       <c r="AG187">
@@ -20141,7 +20168,7 @@
       <c r="AE188">
         <v>-0.11934580273708</v>
       </c>
-      <c r="AF188">
+      <c r="AF188" s="2">
         <v>-0.13225664700211101</v>
       </c>
       <c r="AG188">
@@ -20242,7 +20269,7 @@
       <c r="AE189">
         <v>-2.7759123904434201E-2</v>
       </c>
-      <c r="AF189">
+      <c r="AF189" s="2">
         <v>-0.22151295461759599</v>
       </c>
       <c r="AG189">
@@ -20343,7 +20370,7 @@
       <c r="AE190">
         <v>0.168890885561431</v>
       </c>
-      <c r="AF190">
+      <c r="AF190" s="2">
         <v>-0.34554352734323601</v>
       </c>
       <c r="AG190">
@@ -20444,7 +20471,7 @@
       <c r="AE191">
         <v>0.13282791575505301</v>
       </c>
-      <c r="AF191">
+      <c r="AF191" s="2">
         <v>1.15045640465811E-2</v>
       </c>
       <c r="AG191">
@@ -20545,7 +20572,7 @@
       <c r="AE192">
         <v>6.9509524740031706E-2</v>
       </c>
-      <c r="AF192">
+      <c r="AF192" s="2">
         <v>-0.17336696965218501</v>
       </c>
       <c r="AG192">
@@ -20646,7 +20673,7 @@
       <c r="AE193">
         <v>-0.12638622560396501</v>
       </c>
-      <c r="AF193">
+      <c r="AF193" s="2">
         <v>0.16361762656272</v>
       </c>
       <c r="AG193">
@@ -20747,7 +20774,7 @@
       <c r="AE194">
         <v>8.9892495494773794E-2</v>
       </c>
-      <c r="AF194">
+      <c r="AF194" s="2">
         <v>-0.10766200469182501</v>
       </c>
       <c r="AG194">
@@ -20848,7 +20875,7 @@
       <c r="AE195">
         <v>0.248395944677654</v>
       </c>
-      <c r="AF195">
+      <c r="AF195" s="2">
         <v>0.393163169761368</v>
       </c>
       <c r="AG195">
@@ -20949,7 +20976,7 @@
       <c r="AE196">
         <v>6.5564867030635701E-2</v>
       </c>
-      <c r="AF196">
+      <c r="AF196" s="2">
         <v>0.257914978397348</v>
       </c>
       <c r="AG196">
@@ -21050,7 +21077,7 @@
       <c r="AE197">
         <v>7.1167005580134807E-2</v>
       </c>
-      <c r="AF197">
+      <c r="AF197" s="2">
         <v>-0.19645321664245199</v>
       </c>
       <c r="AG197">
@@ -21151,7 +21178,7 @@
       <c r="AE198">
         <v>0.10620348609802301</v>
       </c>
-      <c r="AF198">
+      <c r="AF198" s="2">
         <v>0.682308199319138</v>
       </c>
       <c r="AG198">
@@ -21252,7 +21279,7 @@
       <c r="AE199">
         <v>2.4005680834033299E-2</v>
       </c>
-      <c r="AF199">
+      <c r="AF199" s="2">
         <v>0.72006495986504704</v>
       </c>
       <c r="AG199">
@@ -21353,7 +21380,7 @@
       <c r="AE200">
         <v>0.20219923778292401</v>
       </c>
-      <c r="AF200">
+      <c r="AF200" s="2">
         <v>0.62163234498548803</v>
       </c>
       <c r="AG200">
@@ -21454,7 +21481,7 @@
       <c r="AE201">
         <v>0.29619244895128799</v>
       </c>
-      <c r="AF201">
+      <c r="AF201" s="2">
         <v>0.38871938602111999</v>
       </c>
       <c r="AG201">
@@ -21555,7 +21582,7 @@
       <c r="AE202">
         <v>1.72668623963621E-2</v>
       </c>
-      <c r="AF202">
+      <c r="AF202" s="2">
         <v>0.439468741593116</v>
       </c>
       <c r="AG202">
@@ -21656,7 +21683,7 @@
       <c r="AE203">
         <v>12.8014459385455</v>
       </c>
-      <c r="AF203">
+      <c r="AF203" s="2">
         <v>13.959878322661201</v>
       </c>
       <c r="AG203">
@@ -21757,7 +21784,7 @@
       <c r="AE204">
         <v>4.3479069799309702</v>
       </c>
-      <c r="AF204">
+      <c r="AF204" s="2">
         <v>2.6828398114595799</v>
       </c>
       <c r="AG204">
@@ -21858,7 +21885,7 @@
       <c r="AE205">
         <v>-2.8062121124255301</v>
       </c>
-      <c r="AF205">
+      <c r="AF205" s="2">
         <v>-3.5248668805479402</v>
       </c>
       <c r="AG205">
@@ -21959,7 +21986,7 @@
       <c r="AE206">
         <v>7.0776559421832701</v>
       </c>
-      <c r="AF206">
+      <c r="AF206" s="2">
         <v>7.7882887994786802</v>
       </c>
       <c r="AG206">
@@ -22060,7 +22087,7 @@
       <c r="AE207">
         <v>-1.1223593887500301</v>
       </c>
-      <c r="AF207">
+      <c r="AF207" s="2">
         <v>-2.26291651994089</v>
       </c>
       <c r="AG207">
@@ -22161,7 +22188,7 @@
       <c r="AE208">
         <v>-2.2296361648399898</v>
       </c>
-      <c r="AF208">
+      <c r="AF208" s="2">
         <v>-2.8258564028766502</v>
       </c>
       <c r="AG208">
@@ -22262,7 +22289,7 @@
       <c r="AE209">
         <v>-2.5676540855407999</v>
       </c>
-      <c r="AF209">
+      <c r="AF209" s="2">
         <v>-2.9568291625540701</v>
       </c>
       <c r="AG209">
@@ -22363,7 +22390,7 @@
       <c r="AE210">
         <v>-2.7380207609820499</v>
       </c>
-      <c r="AF210">
+      <c r="AF210" s="2">
         <v>-3.6119931391000399</v>
       </c>
       <c r="AG210">
@@ -22464,7 +22491,7 @@
       <c r="AE211">
         <v>-3.8261180758518401</v>
       </c>
-      <c r="AF211">
+      <c r="AF211" s="2">
         <v>-4.5289510971118103</v>
       </c>
       <c r="AG211">
@@ -22565,7 +22592,7 @@
       <c r="AE212">
         <v>-2.3127352733152402</v>
       </c>
-      <c r="AF212">
+      <c r="AF212" s="2">
         <v>-2.18113067367194</v>
       </c>
       <c r="AG212">
@@ -22666,7 +22693,7 @@
       <c r="AE213">
         <v>-1.0663321317469401</v>
       </c>
-      <c r="AF213">
+      <c r="AF213" s="2">
         <v>-0.51262090790482295</v>
       </c>
       <c r="AG213">
@@ -22767,7 +22794,7 @@
       <c r="AE214">
         <v>-0.43283040206676499</v>
       </c>
-      <c r="AF214">
+      <c r="AF214" s="2">
         <v>3.7001869541178199E-2</v>
       </c>
       <c r="AG214">
@@ -22868,7 +22895,7 @@
       <c r="AE215">
         <v>-0.52014949128365795</v>
       </c>
-      <c r="AF215">
+      <c r="AF215" s="2">
         <v>-0.29800900866115798</v>
       </c>
       <c r="AG215">
@@ -22969,7 +22996,7 @@
       <c r="AE216">
         <v>-0.223891392847968</v>
       </c>
-      <c r="AF216">
+      <c r="AF216" s="2">
         <v>0.41835620638249499</v>
       </c>
       <c r="AG216">
@@ -23070,7 +23097,7 @@
       <c r="AE217">
         <v>-0.286120390798971</v>
       </c>
-      <c r="AF217">
+      <c r="AF217" s="2">
         <v>0.153464264427214</v>
       </c>
       <c r="AG217">
@@ -23171,111 +23198,111 @@
       <c r="AE218">
         <v>-5.4597803013925701E-2</v>
       </c>
-      <c r="AF218">
+      <c r="AF218" s="2">
         <v>-9.7068435597756894E-2</v>
       </c>
       <c r="AG218">
         <v>4.4185756637695403E-2</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
+    <row r="219" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="2">
         <v>-1</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="2">
         <v>0.115426641109984</v>
       </c>
-      <c r="E219">
+      <c r="E219" s="2">
         <v>2.1349578247285301E-2</v>
       </c>
-      <c r="F219">
+      <c r="F219" s="2">
         <v>-8.4122946881380195E-3</v>
       </c>
-      <c r="G219">
+      <c r="G219" s="2">
         <v>5.8482362544895299E-2</v>
       </c>
-      <c r="H219">
+      <c r="H219" s="2">
         <v>0.144940665347356</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="2">
         <v>0.15972952792049</v>
       </c>
-      <c r="J219">
+      <c r="J219" s="2">
         <v>-6.1188430872398898E-2</v>
       </c>
-      <c r="K219">
+      <c r="K219" s="2">
         <v>3.66848996418076E-2</v>
       </c>
-      <c r="L219">
+      <c r="L219" s="2">
         <v>-2.6674928411006001E-2</v>
       </c>
-      <c r="M219">
+      <c r="M219" s="2">
         <v>8.5236094699560297E-2</v>
       </c>
-      <c r="N219">
+      <c r="N219" s="2">
         <v>-1.28650896726216E-2</v>
       </c>
-      <c r="O219">
-        <v>0</v>
-      </c>
-      <c r="P219">
+      <c r="O219" s="2">
+        <v>0</v>
+      </c>
+      <c r="P219" s="2">
         <v>-0.100997606137832</v>
       </c>
-      <c r="Q219">
+      <c r="Q219" s="2">
         <v>-6.4991315919980905E-4</v>
       </c>
-      <c r="R219">
+      <c r="R219" s="2">
         <v>-2.14903818299619E-4</v>
       </c>
-      <c r="S219">
+      <c r="S219" s="2">
         <v>-0.28634448872830498</v>
       </c>
-      <c r="T219">
+      <c r="T219" s="2">
         <v>-1.61214977570425E-2</v>
       </c>
-      <c r="U219">
+      <c r="U219" s="2">
         <v>-3.4651346187620002E-2</v>
       </c>
-      <c r="V219">
+      <c r="V219" s="2">
         <v>-4.8521094442546001E-2</v>
       </c>
-      <c r="W219">
+      <c r="W219" s="2">
         <v>-9.2844099648828393E-2</v>
       </c>
-      <c r="X219">
+      <c r="X219" s="2">
         <v>-2.0885955776833798E-3</v>
       </c>
-      <c r="Y219">
+      <c r="Y219" s="2">
         <v>-0.153950985412424</v>
       </c>
-      <c r="Z219">
+      <c r="Z219" s="2">
         <v>0.11149067007315699</v>
       </c>
-      <c r="AA219">
+      <c r="AA219" s="2">
         <v>0.12836392466913199</v>
       </c>
-      <c r="AB219">
+      <c r="AB219" s="2">
         <v>4.5545078985748E-2</v>
       </c>
-      <c r="AC219">
+      <c r="AC219" s="2">
         <v>0.25349173362624899</v>
       </c>
-      <c r="AD219">
+      <c r="AD219" s="2">
         <v>-0.55252285576968596</v>
       </c>
-      <c r="AE219">
+      <c r="AE219" s="2">
         <v>-0.29903112214343702</v>
       </c>
-      <c r="AF219">
+      <c r="AF219" s="2">
         <v>-0.125122118488558</v>
       </c>
-      <c r="AG219">
+      <c r="AG219" s="2">
         <v>8.7407479180845293E-2</v>
       </c>
     </row>
@@ -23373,7 +23400,7 @@
       <c r="AE220">
         <v>4.6739524882296997E-2</v>
       </c>
-      <c r="AF220">
+      <c r="AF220" s="2">
         <v>-0.33238919599477401</v>
       </c>
       <c r="AG220">
@@ -23474,7 +23501,7 @@
       <c r="AE221">
         <v>0.31506137651230698</v>
       </c>
-      <c r="AF221">
+      <c r="AF221" s="2">
         <v>0.22100022474273401</v>
       </c>
       <c r="AG221">
@@ -23575,7 +23602,7 @@
       <c r="AE222">
         <v>-0.21181965467125899</v>
       </c>
-      <c r="AF222">
+      <c r="AF222" s="2">
         <v>-0.29569730709582198</v>
       </c>
       <c r="AG222">
@@ -23676,7 +23703,7 @@
       <c r="AE223">
         <v>-0.43685056478123002</v>
       </c>
-      <c r="AF223">
+      <c r="AF223" s="2">
         <v>-0.50693651119301097</v>
       </c>
       <c r="AG223">
@@ -23777,7 +23804,7 @@
       <c r="AE224">
         <v>-0.32584174228477197</v>
       </c>
-      <c r="AF224">
+      <c r="AF224" s="2">
         <v>-0.40439864277767601</v>
       </c>
       <c r="AG224">
@@ -23878,7 +23905,7 @@
       <c r="AE225">
         <v>-0.29682725985285602</v>
       </c>
-      <c r="AF225">
+      <c r="AF225" s="2">
         <v>-0.51044135178181105</v>
       </c>
       <c r="AG225">
@@ -23979,7 +24006,7 @@
       <c r="AE226">
         <v>-0.20968488355881101</v>
       </c>
-      <c r="AF226">
+      <c r="AF226" s="2">
         <v>-0.39334013809734603</v>
       </c>
       <c r="AG226">
@@ -24080,7 +24107,7 @@
       <c r="AE227">
         <v>-0.173739478133871</v>
       </c>
-      <c r="AF227">
+      <c r="AF227" s="2">
         <v>-0.34062956939333899</v>
       </c>
       <c r="AG227">
@@ -24181,7 +24208,7 @@
       <c r="AE228">
         <v>-3.5945764577588002</v>
       </c>
-      <c r="AF228">
+      <c r="AF228" s="2">
         <v>-73.530432616048998</v>
       </c>
       <c r="AG228">
@@ -24282,7 +24309,7 @@
       <c r="AE229">
         <v>-1.4887242251619801</v>
       </c>
-      <c r="AF229">
+      <c r="AF229" s="2">
         <v>-1.4887242251619801</v>
       </c>
       <c r="AG229">
@@ -24383,7 +24410,7 @@
       <c r="AE230">
         <v>-7.1622764218579</v>
       </c>
-      <c r="AF230">
+      <c r="AF230" s="2">
         <v>-7.1622764218579</v>
       </c>
       <c r="AG230">
@@ -24484,7 +24511,7 @@
       <c r="AE231">
         <v>-7.0671362176874197</v>
       </c>
-      <c r="AF231">
+      <c r="AF231" s="2">
         <v>-7.0671362176874197</v>
       </c>
       <c r="AG231">
@@ -24585,7 +24612,7 @@
       <c r="AE232">
         <v>5.7712565592918397</v>
       </c>
-      <c r="AF232">
+      <c r="AF232" s="2">
         <v>5.7712565592918397</v>
       </c>
       <c r="AG232">
@@ -24686,7 +24713,7 @@
       <c r="AE233">
         <v>5.7247397058363303</v>
       </c>
-      <c r="AF233">
+      <c r="AF233" s="2">
         <v>5.7247397058363303</v>
       </c>
       <c r="AG233">
@@ -24787,7 +24814,7 @@
       <c r="AE234">
         <v>5.70238710799992</v>
       </c>
-      <c r="AF234">
+      <c r="AF234" s="2">
         <v>5.70238710799992</v>
       </c>
       <c r="AG234">
@@ -24888,7 +24915,7 @@
       <c r="AE235">
         <v>5.6486573321370201</v>
       </c>
-      <c r="AF235">
+      <c r="AF235" s="2">
         <v>5.6486573321370201</v>
       </c>
       <c r="AG235">
@@ -24989,7 +25016,7 @@
       <c r="AE236">
         <v>0.25870259158231501</v>
       </c>
-      <c r="AF236">
+      <c r="AF236" s="2">
         <v>0.25870259158231501</v>
       </c>
       <c r="AG236">
@@ -25090,7 +25117,7 @@
       <c r="AE237">
         <v>0.25201311935813098</v>
       </c>
-      <c r="AF237">
+      <c r="AF237" s="2">
         <v>0.25201311935813098</v>
       </c>
       <c r="AG237">
@@ -25191,7 +25218,7 @@
       <c r="AE238">
         <v>0.24661752517340099</v>
       </c>
-      <c r="AF238">
+      <c r="AF238" s="2">
         <v>0.24661752517340099</v>
       </c>
       <c r="AG238">
@@ -25292,7 +25319,7 @@
       <c r="AE239">
         <v>0.24238225968886701</v>
       </c>
-      <c r="AF239">
+      <c r="AF239" s="2">
         <v>0.24238225968886701</v>
       </c>
       <c r="AG239">
@@ -25393,7 +25420,7 @@
       <c r="AE240">
         <v>-1.02539583127536E-2</v>
       </c>
-      <c r="AF240">
+      <c r="AF240" s="2">
         <v>-1.02539583127536E-2</v>
       </c>
       <c r="AG240">
@@ -25494,7 +25521,7 @@
       <c r="AE241">
         <v>-1.0417287315777299E-2</v>
       </c>
-      <c r="AF241">
+      <c r="AF241" s="2">
         <v>-1.0417287315777299E-2</v>
       </c>
       <c r="AG241">
@@ -25595,7 +25622,7 @@
       <c r="AE242">
         <v>-9.9082327945791606E-3</v>
       </c>
-      <c r="AF242">
+      <c r="AF242" s="2">
         <v>-9.9082327945791606E-3</v>
       </c>
       <c r="AG242">
@@ -25696,7 +25723,7 @@
       <c r="AE243">
         <v>-9.6281071102456307E-3</v>
       </c>
-      <c r="AF243">
+      <c r="AF243" s="2">
         <v>-9.6281071102456307E-3</v>
       </c>
       <c r="AG243">
@@ -25797,7 +25824,7 @@
       <c r="AE244">
         <v>0</v>
       </c>
-      <c r="AF244">
+      <c r="AF244" s="2">
         <v>0</v>
       </c>
       <c r="AG244">
@@ -25898,7 +25925,7 @@
       <c r="AE245">
         <v>0</v>
       </c>
-      <c r="AF245">
+      <c r="AF245" s="2">
         <v>0</v>
       </c>
       <c r="AG245">
@@ -25999,7 +26026,7 @@
       <c r="AE246">
         <v>0</v>
       </c>
-      <c r="AF246">
+      <c r="AF246" s="2">
         <v>0</v>
       </c>
       <c r="AG246">
@@ -26100,7 +26127,7 @@
       <c r="AE247">
         <v>0</v>
       </c>
-      <c r="AF247">
+      <c r="AF247" s="2">
         <v>0</v>
       </c>
       <c r="AG247">
@@ -26201,7 +26228,7 @@
       <c r="AE248">
         <v>0</v>
       </c>
-      <c r="AF248">
+      <c r="AF248" s="2">
         <v>0</v>
       </c>
       <c r="AG248">
@@ -26302,7 +26329,7 @@
       <c r="AE249">
         <v>0</v>
       </c>
-      <c r="AF249">
+      <c r="AF249" s="2">
         <v>0</v>
       </c>
       <c r="AG249">
@@ -26403,7 +26430,7 @@
       <c r="AE250">
         <v>0</v>
       </c>
-      <c r="AF250">
+      <c r="AF250" s="2">
         <v>0</v>
       </c>
       <c r="AG250">
@@ -26504,7 +26531,7 @@
       <c r="AE251">
         <v>0</v>
       </c>
-      <c r="AF251">
+      <c r="AF251" s="2">
         <v>0</v>
       </c>
       <c r="AG251">
@@ -26605,7 +26632,7 @@
       <c r="AE252">
         <v>0</v>
       </c>
-      <c r="AF252">
+      <c r="AF252" s="2">
         <v>0</v>
       </c>
       <c r="AG252">
@@ -26706,7 +26733,7 @@
       <c r="AE253">
         <v>0</v>
       </c>
-      <c r="AF253">
+      <c r="AF253" s="2">
         <v>0</v>
       </c>
       <c r="AG253">
@@ -26807,7 +26834,7 @@
       <c r="AE254">
         <v>0</v>
       </c>
-      <c r="AF254">
+      <c r="AF254" s="2">
         <v>0</v>
       </c>
       <c r="AG254">
@@ -26908,7 +26935,7 @@
       <c r="AE255">
         <v>0</v>
       </c>
-      <c r="AF255">
+      <c r="AF255" s="2">
         <v>0</v>
       </c>
       <c r="AG255">
@@ -27009,7 +27036,7 @@
       <c r="AE256">
         <v>0</v>
       </c>
-      <c r="AF256">
+      <c r="AF256" s="2">
         <v>0</v>
       </c>
       <c r="AG256">
@@ -27110,7 +27137,7 @@
       <c r="AE257">
         <v>0</v>
       </c>
-      <c r="AF257">
+      <c r="AF257" s="2">
         <v>0</v>
       </c>
       <c r="AG257">
@@ -27211,7 +27238,7 @@
       <c r="AE258">
         <v>0</v>
       </c>
-      <c r="AF258">
+      <c r="AF258" s="2">
         <v>0</v>
       </c>
       <c r="AG258">
@@ -27312,7 +27339,7 @@
       <c r="AE259">
         <v>0</v>
       </c>
-      <c r="AF259">
+      <c r="AF259" s="2">
         <v>0</v>
       </c>
       <c r="AG259">
@@ -27413,7 +27440,7 @@
       <c r="AE260">
         <v>0</v>
       </c>
-      <c r="AF260">
+      <c r="AF260" s="2">
         <v>0</v>
       </c>
       <c r="AG260">
@@ -27422,6 +27449,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>